--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -17234,7 +17234,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J221" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K221" s="0" t="n">
         <x:v>0</x:v>
@@ -17270,7 +17270,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V221" s="0" t="n">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -6387,10 +6387,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U61" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="V61" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:22">
@@ -9949,7 +9949,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G114" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H114" s="0" t="n">
         <x:v>0</x:v>
@@ -9988,13 +9988,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>525</x:v>
+        <x:v>527</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -17518,13 +17518,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="N225" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O225" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="P225" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="Q225" s="0" t="n">
         <x:v>0</x:v>
@@ -17542,7 +17542,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="V225" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -11058,7 +11058,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N130" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O130" s="0" t="n">
         <x:v>0</x:v>
@@ -11082,7 +11082,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V130" s="0" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -6576,7 +6576,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P64" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="Q64" s="0" t="n">
         <x:v>0</x:v>
@@ -6594,7 +6594,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V64" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9160,7 +9160,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="P102" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="Q102" s="0" t="n">
         <x:v>0</x:v>
@@ -9175,10 +9175,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="U102" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V102" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
@@ -9940,7 +9940,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E114" s="0" t="n">
         <x:v>0</x:v>
@@ -9970,7 +9970,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N114" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="O114" s="0" t="n">
         <x:v>2</x:v>
@@ -9988,13 +9988,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>527</x:v>
+        <x:v>526</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9121,7 +9121,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="C102" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D102" s="0" t="n">
         <x:v>4</x:v>
@@ -9133,7 +9133,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G102" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H102" s="0" t="n">
         <x:v>2</x:v>
@@ -9160,7 +9160,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="P102" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q102" s="0" t="n">
         <x:v>0</x:v>
@@ -9175,10 +9175,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="U102" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="V102" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
@@ -16856,13 +16856,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T215" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U215" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V215" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2694,7 +2694,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="O7" s="0" t="n">
         <x:v>0</x:v>
@@ -2718,7 +2718,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V7" s="0" t="n">
-        <x:v>253</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22">
@@ -6505,7 +6505,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="O63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P63" s="0" t="n">
         <x:v>15</x:v>
@@ -6526,7 +6526,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V63" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -17030,7 +17030,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J218" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K218" s="0" t="n">
         <x:v>0</x:v>
@@ -17066,7 +17066,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V218" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7528,7 +7528,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P78" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q78" s="0" t="n">
         <x:v>0</x:v>
@@ -7546,7 +7546,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V78" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:22">
@@ -16640,7 +16640,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P212" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q212" s="0" t="n">
         <x:v>0</x:v>
@@ -16658,7 +16658,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V212" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9958,7 +9958,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -9994,7 +9994,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>526</x:v>
+        <x:v>525</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2682,7 +2682,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K7" s="0" t="n">
         <x:v>0</x:v>
@@ -2694,7 +2694,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="O7" s="0" t="n">
         <x:v>0</x:v>
@@ -2718,7 +2718,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V7" s="0" t="n">
-        <x:v>252</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22">
@@ -7850,7 +7850,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J83" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -7948,13 +7948,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="T84" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="U84" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="V84" s="0" t="n">
-        <x:v>730</x:v>
+        <x:v>731</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -17021,7 +17021,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G218" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H218" s="0" t="n">
         <x:v>0</x:v>
@@ -17066,7 +17066,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V218" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -8521,7 +8521,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G93" s="0" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H93" s="0" t="n">
         <x:v>0</x:v>
@@ -8560,13 +8560,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="T93" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="U93" s="0" t="n">
         <x:v>188</x:v>
       </x:c>
       <x:c r="V93" s="0" t="n">
-        <x:v>1075</x:v>
+        <x:v>1077</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:22">
@@ -9958,7 +9958,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -9994,7 +9994,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>525</x:v>
+        <x:v>524</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -14505,7 +14505,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G181" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H181" s="0" t="n">
         <x:v>0</x:v>
@@ -14550,7 +14550,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="V181" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7519,7 +7519,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M78" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N78" s="0" t="n">
         <x:v>0</x:v>
@@ -7546,7 +7546,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V78" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:22">
@@ -9955,7 +9955,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I114" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
         <x:v>99</x:v>
@@ -9994,7 +9994,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>524</x:v>
+        <x:v>523</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9937,7 +9937,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="C114" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
         <x:v>16</x:v>
@@ -9988,13 +9988,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>523</x:v>
+        <x:v>521</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -17524,7 +17524,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="P225" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="Q225" s="0" t="n">
         <x:v>0</x:v>
@@ -17542,7 +17542,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="V225" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9958,7 +9958,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -9994,7 +9994,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>521</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2342,7 +2342,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K2" s="0" t="n">
         <x:v>0</x:v>
@@ -2372,13 +2372,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T2" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V2" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:22">
@@ -2694,7 +2694,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="O7" s="0" t="n">
         <x:v>0</x:v>
@@ -2718,7 +2718,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V7" s="0" t="n">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22">
@@ -7936,7 +7936,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="P84" s="0" t="n">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="Q84" s="0" t="n">
         <x:v>4</x:v>
@@ -7954,7 +7954,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="V84" s="0" t="n">
-        <x:v>731</x:v>
+        <x:v>730</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -16566,7 +16566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N211" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O211" s="0" t="n">
         <x:v>0</x:v>
@@ -16590,7 +16590,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V211" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -15011,7 +15011,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q188" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R188" s="0" t="n">
         <x:v>1</x:v>
@@ -15026,7 +15026,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="V188" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2951,7 +2951,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I11" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J11" s="0" t="n">
         <x:v>8</x:v>
@@ -2966,7 +2966,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="O11" s="0" t="n">
         <x:v>0</x:v>
@@ -2990,7 +2990,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V11" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">
@@ -7868,7 +7868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P83" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -7930,7 +7930,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="N84" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O84" s="0" t="n">
         <x:v>8</x:v>
@@ -7948,13 +7948,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="T84" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="U84" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="V84" s="0" t="n">
-        <x:v>730</x:v>
+        <x:v>728</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -16430,7 +16430,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N209" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O209" s="0" t="n">
         <x:v>0</x:v>
@@ -16454,7 +16454,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V209" s="0" t="n">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
@@ -18810,7 +18810,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N244" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O244" s="0" t="n">
         <x:v>4</x:v>
@@ -18834,7 +18834,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V244" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2868,7 +2868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
         <x:v>0</x:v>
@@ -2919,7 +2919,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="U10" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V10" s="0" t="n">
         <x:v>109</x:v>
@@ -6005,7 +6005,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
         <x:v>0</x:v>
@@ -6050,7 +6050,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="V56" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:22">
@@ -7880,13 +7880,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T83" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -6913,7 +6913,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="O69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P69" s="0" t="n">
         <x:v>12</x:v>
@@ -6934,7 +6934,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V69" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:22">
@@ -8610,7 +8610,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N94" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O94" s="0" t="n">
         <x:v>0</x:v>
@@ -8634,7 +8634,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V94" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
@@ -9955,7 +9955,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I114" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
         <x:v>98</x:v>
@@ -9994,7 +9994,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>520</x:v>
+        <x:v>519</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7850,7 +7850,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J83" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K83" s="0" t="n">
         <x:v>0</x:v>
@@ -7880,13 +7880,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T83" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -9976,7 +9976,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P114" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q114" s="0" t="n">
         <x:v>2</x:v>
@@ -9994,7 +9994,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>519</x:v>
+        <x:v>517</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -19052,7 +19052,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D248" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E248" s="0" t="n">
         <x:v>0</x:v>
@@ -19082,7 +19082,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N248" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O248" s="0" t="n">
         <x:v>0</x:v>
@@ -19106,7 +19106,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V248" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7832,7 +7832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
         <x:v>0</x:v>
@@ -7850,7 +7850,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J83" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="K83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -9988,13 +9988,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2694,7 +2694,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="O7" s="0" t="n">
         <x:v>0</x:v>
@@ -2718,7 +2718,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V7" s="0" t="n">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22">
@@ -9955,7 +9955,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I114" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
         <x:v>98</x:v>
@@ -9994,7 +9994,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7832,7 +7832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
         <x:v>0</x:v>
@@ -7868,7 +7868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P83" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="n">
         <x:v>0</x:v>
@@ -7880,13 +7880,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T83" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -19780,13 +19780,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T258" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U258" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V258" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9988,13 +9988,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>519</x:v>
+        <x:v>518</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2401,7 +2401,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
         <x:v>0</x:v>
@@ -2446,7 +2446,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V3" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:22">
@@ -4888,13 +4888,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T39" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V39" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:22">
@@ -7880,13 +7880,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T83" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -7909,7 +7909,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G84" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H84" s="0" t="n">
         <x:v>0</x:v>
@@ -7936,7 +7936,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="P84" s="0" t="n">
-        <x:v>214</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="Q84" s="0" t="n">
         <x:v>4</x:v>
@@ -7954,7 +7954,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="V84" s="0" t="n">
-        <x:v>728</x:v>
+        <x:v>725</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -9988,13 +9988,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -15856,7 +15856,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D201" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E201" s="0" t="n">
         <x:v>0</x:v>
@@ -15910,7 +15910,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V201" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2333,7 +2333,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
         <x:v>0</x:v>
@@ -2354,7 +2354,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O2" s="0" t="n">
         <x:v>0</x:v>
@@ -7897,7 +7897,7 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="C84" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
         <x:v>42</x:v>
@@ -7918,7 +7918,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="J84" s="0" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K84" s="0" t="n">
         <x:v>0</x:v>
@@ -7936,7 +7936,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="P84" s="0" t="n">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="Q84" s="0" t="n">
         <x:v>4</x:v>
@@ -7954,7 +7954,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="V84" s="0" t="n">
-        <x:v>725</x:v>
+        <x:v>724</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -9937,7 +9937,7 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="C114" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
         <x:v>16</x:v>
@@ -9988,13 +9988,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>519</x:v>
+        <x:v>521</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -6928,13 +6928,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T69" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="U69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V69" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:22">
@@ -7832,7 +7832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
         <x:v>0</x:v>
@@ -7841,7 +7841,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G83" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -9988,13 +9988,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -13813,19 +13813,19 @@
         <x:v>361</x:v>
       </x:c>
       <x:c r="C171" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F171" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="G171" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H171" s="0" t="n">
         <x:v>0</x:v>
@@ -13834,7 +13834,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J171" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K171" s="0" t="n">
         <x:v>2</x:v>
@@ -13843,34 +13843,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M171" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N171" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O171" s="0" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="P171" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="Q171" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="R171" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="S171" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T171" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="U171" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="V171" s="0" t="n">
-        <x:v>424</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9396,7 +9396,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D106" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E106" s="0" t="n">
         <x:v>0</x:v>
@@ -9450,7 +9450,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="V106" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:22">
@@ -13825,16 +13825,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G171" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H171" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I171" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J171" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="K171" s="0" t="n">
         <x:v>2</x:v>
@@ -13846,13 +13846,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N171" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O171" s="0" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="P171" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="Q171" s="0" t="n">
         <x:v>8</x:v>
@@ -13870,7 +13870,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="V171" s="0" t="n">
-        <x:v>378</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7832,7 +7832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -9121,7 +9121,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="C102" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D102" s="0" t="n">
         <x:v>4</x:v>
@@ -9142,7 +9142,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J102" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K102" s="0" t="n">
         <x:v>0</x:v>
@@ -9151,7 +9151,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M102" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N102" s="0" t="n">
         <x:v>5</x:v>
@@ -9160,7 +9160,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="P102" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="Q102" s="0" t="n">
         <x:v>0</x:v>
@@ -9172,13 +9172,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T102" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="U102" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="V102" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
@@ -13970,7 +13970,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J173" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K173" s="0" t="n">
         <x:v>0</x:v>
@@ -14006,7 +14006,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V173" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7832,7 +7832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -13234,7 +13234,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N162" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="O162" s="0" t="n">
         <x:v>0</x:v>
@@ -13258,7 +13258,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V162" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7909,7 +7909,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G84" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H84" s="0" t="n">
         <x:v>0</x:v>
@@ -7954,7 +7954,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="V84" s="0" t="n">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -13816,7 +13816,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E171" s="0" t="n">
         <x:v>0</x:v>
@@ -13825,7 +13825,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G171" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H171" s="0" t="n">
         <x:v>0</x:v>
@@ -13846,13 +13846,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N171" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O171" s="0" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="P171" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="Q171" s="0" t="n">
         <x:v>8</x:v>
@@ -13870,7 +13870,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="V171" s="0" t="n">
-        <x:v>364</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
@@ -20714,7 +20714,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N272" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O272" s="0" t="n">
         <x:v>0</x:v>
@@ -20732,13 +20732,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T272" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U272" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V272" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -16572,7 +16572,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P211" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q211" s="0" t="n">
         <x:v>0</x:v>
@@ -16590,7 +16590,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V211" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7880,13 +7880,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T83" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -9949,7 +9949,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G114" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H114" s="0" t="n">
         <x:v>0</x:v>
@@ -9958,7 +9958,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -9982,19 +9982,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="R114" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S114" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>522</x:v>
+        <x:v>513</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -8870,7 +8870,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J98" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K98" s="0" t="n">
         <x:v>0</x:v>
@@ -8888,7 +8888,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P98" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="Q98" s="0" t="n">
         <x:v>0</x:v>
@@ -8906,7 +8906,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V98" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:22">
@@ -9949,7 +9949,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G114" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H114" s="0" t="n">
         <x:v>0</x:v>
@@ -9958,7 +9958,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -9982,19 +9982,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="R114" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S114" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>513</x:v>
+        <x:v>519</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2933,10 +2933,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
         <x:v>0</x:v>
@@ -2966,7 +2966,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="O11" s="0" t="n">
         <x:v>0</x:v>
@@ -2990,7 +2990,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V11" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">
@@ -6910,7 +6910,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N69" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O69" s="0" t="n">
         <x:v>2</x:v>
@@ -6934,7 +6934,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V69" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:22">
@@ -7880,13 +7880,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T83" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="U83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -13816,7 +13816,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E171" s="0" t="n">
         <x:v>0</x:v>
@@ -13870,7 +13870,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="V171" s="0" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7880,13 +7880,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T83" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="U83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7868,7 +7868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P83" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2954,7 +2954,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="J11" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K11" s="0" t="n">
         <x:v>0</x:v>
@@ -2966,7 +2966,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="O11" s="0" t="n">
         <x:v>0</x:v>
@@ -2987,10 +2987,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="U11" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V11" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">
@@ -5538,7 +5538,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K49" s="0" t="n">
         <x:v>0</x:v>
@@ -5574,7 +5574,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V49" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:22">
@@ -6366,7 +6366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
         <x:v>0</x:v>
@@ -6390,7 +6390,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="V61" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:22">
@@ -7880,13 +7880,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T83" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -16418,7 +16418,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J209" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K209" s="0" t="n">
         <x:v>0</x:v>
@@ -16430,7 +16430,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N209" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="O209" s="0" t="n">
         <x:v>0</x:v>
@@ -16454,7 +16454,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V209" s="0" t="n">
-        <x:v>171</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2694,7 +2694,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="O7" s="0" t="n">
         <x:v>0</x:v>
@@ -2718,7 +2718,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V7" s="0" t="n">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22">
@@ -7868,7 +7868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P83" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -7909,7 +7909,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G84" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H84" s="0" t="n">
         <x:v>0</x:v>
@@ -7918,7 +7918,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="J84" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="K84" s="0" t="n">
         <x:v>0</x:v>
@@ -7948,13 +7948,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="T84" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="U84" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="V84" s="0" t="n">
-        <x:v>725</x:v>
+        <x:v>717</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -8521,7 +8521,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G93" s="0" t="n">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="H93" s="0" t="n">
         <x:v>0</x:v>
@@ -8560,13 +8560,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="T93" s="0" t="n">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="U93" s="0" t="n">
         <x:v>188</x:v>
       </x:c>
       <x:c r="V93" s="0" t="n">
-        <x:v>1077</x:v>
+        <x:v>1075</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:22">
@@ -18381,7 +18381,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G238" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H238" s="0" t="n">
         <x:v>0</x:v>
@@ -18426,7 +18426,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V238" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7868,7 +7868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P83" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -9958,7 +9958,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -9994,7 +9994,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>519</x:v>
+        <x:v>518</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2626,7 +2626,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N6" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O6" s="0" t="n">
         <x:v>0</x:v>
@@ -2650,7 +2650,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V6" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22">
@@ -7930,7 +7930,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="N84" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="O84" s="0" t="n">
         <x:v>8</x:v>
@@ -7954,7 +7954,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="V84" s="0" t="n">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -9955,7 +9955,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I114" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
         <x:v>97</x:v>
@@ -9994,7 +9994,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9958,7 +9958,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -9970,7 +9970,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N114" s="0" t="n">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="O114" s="0" t="n">
         <x:v>2</x:v>
@@ -9988,13 +9988,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>519</x:v>
+        <x:v>515</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -11513,7 +11513,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G137" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H137" s="0" t="n">
         <x:v>0</x:v>
@@ -11558,7 +11558,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V137" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -6345,7 +6345,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
         <x:v>0</x:v>
@@ -6384,13 +6384,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T61" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U61" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V61" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7936,7 +7936,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="P84" s="0" t="n">
-        <x:v>212</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="Q84" s="0" t="n">
         <x:v>4</x:v>
@@ -7954,7 +7954,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="V84" s="0" t="n">
-        <x:v>718</x:v>
+        <x:v>716</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -11540,7 +11540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P137" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q137" s="0" t="n">
         <x:v>0</x:v>
@@ -11558,7 +11558,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V137" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9405,7 +9405,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G106" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H106" s="0" t="n">
         <x:v>0</x:v>
@@ -9450,7 +9450,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="V106" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -6659,10 +6659,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U65" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="V65" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:22">
@@ -16903,7 +16903,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M216" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N216" s="0" t="n">
         <x:v>0</x:v>
@@ -16930,7 +16930,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V216" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9958,7 +9958,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -9994,7 +9994,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -8870,7 +8870,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J98" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K98" s="0" t="n">
         <x:v>0</x:v>
@@ -8906,7 +8906,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V98" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:22">
@@ -9955,10 +9955,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I114" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -13867,10 +13867,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="U171" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="V171" s="0" t="n">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
@@ -18254,7 +18254,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="J236" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="K236" s="0" t="n">
         <x:v>0</x:v>
@@ -18287,7 +18287,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="U236" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="V236" s="0" t="n">
         <x:v>373</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2558,7 +2558,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N5" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
         <x:v>0</x:v>
@@ -2582,7 +2582,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V5" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22">
@@ -6928,13 +6928,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T69" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="U69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V69" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:22">
@@ -7832,7 +7832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
         <x:v>0</x:v>
@@ -7868,7 +7868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P83" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -9970,7 +9970,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N114" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="O114" s="0" t="n">
         <x:v>2</x:v>
@@ -9988,13 +9988,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>516</x:v>
+        <x:v>513</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -13796,13 +13796,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T170" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U170" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V170" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
@@ -19898,7 +19898,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N260" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O260" s="0" t="n">
         <x:v>0</x:v>
@@ -19922,7 +19922,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V260" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2694,7 +2694,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="O7" s="0" t="n">
         <x:v>0</x:v>
@@ -2718,7 +2718,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V7" s="0" t="n">
-        <x:v>246</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22">
@@ -8870,7 +8870,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J98" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K98" s="0" t="n">
         <x:v>0</x:v>
@@ -8906,7 +8906,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V98" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:22">
@@ -9946,7 +9946,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F114" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G114" s="0" t="n">
         <x:v>16</x:v>
@@ -9976,7 +9976,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P114" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="Q114" s="0" t="n">
         <x:v>2</x:v>
@@ -9994,7 +9994,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>513</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -18266,13 +18266,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="N236" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O236" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="P236" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="Q236" s="0" t="n">
         <x:v>11</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7936,7 +7936,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="P84" s="0" t="n">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="Q84" s="0" t="n">
         <x:v>4</x:v>
@@ -7954,7 +7954,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="V84" s="0" t="n">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -19898,7 +19898,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N260" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O260" s="0" t="n">
         <x:v>0</x:v>
@@ -19922,7 +19922,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V260" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -20353,7 +20353,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G267" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H267" s="0" t="n">
         <x:v>0</x:v>
@@ -20398,7 +20398,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V267" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9955,7 +9955,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I114" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
         <x:v>98</x:v>
@@ -9994,7 +9994,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2558,7 +2558,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N5" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
         <x:v>0</x:v>
@@ -2582,7 +2582,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V5" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22">
@@ -2945,7 +2945,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
         <x:v>0</x:v>
@@ -2990,7 +2990,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V11" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">
@@ -9958,7 +9958,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -9988,7 +9988,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7832,7 +7832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -17252,7 +17252,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P221" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="Q221" s="0" t="n">
         <x:v>8</x:v>
@@ -17270,7 +17270,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V221" s="0" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9988,13 +9988,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -18254,7 +18254,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="J236" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K236" s="0" t="n">
         <x:v>0</x:v>
@@ -18287,7 +18287,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="U236" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="V236" s="0" t="n">
         <x:v>373</x:v>
@@ -20421,7 +20421,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G268" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H268" s="0" t="n">
         <x:v>0</x:v>
@@ -20466,7 +20466,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V268" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9988,13 +9988,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -13757,7 +13757,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G170" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H170" s="0" t="n">
         <x:v>0</x:v>
@@ -13766,7 +13766,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J170" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K170" s="0" t="n">
         <x:v>1</x:v>
@@ -13778,13 +13778,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="N170" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O170" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="P170" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q170" s="0" t="n">
         <x:v>6</x:v>
@@ -13802,7 +13802,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V170" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:22">
@@ -13816,13 +13816,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E171" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F171" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G171" s="0" t="n">
         <x:v>71</x:v>
@@ -13834,7 +13834,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J171" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K171" s="0" t="n">
         <x:v>2</x:v>
@@ -13852,7 +13852,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="P171" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="Q171" s="0" t="n">
         <x:v>8</x:v>
@@ -13870,7 +13870,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="V171" s="0" t="n">
-        <x:v>360</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7832,7 +7832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -14301,7 +14301,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G178" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H178" s="0" t="n">
         <x:v>0</x:v>
@@ -14319,7 +14319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M178" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N178" s="0" t="n">
         <x:v>40</x:v>
@@ -14346,7 +14346,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="V178" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -6455,10 +6455,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U62" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="V62" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:22">
@@ -7880,13 +7880,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T83" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="U83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2546,7 +2546,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K5" s="0" t="n">
         <x:v>0</x:v>
@@ -2579,10 +2579,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U5" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V5" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22">
@@ -6614,10 +6614,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
         <x:v>0</x:v>
@@ -6626,16 +6626,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J65" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
         <x:v>0</x:v>
@@ -6659,10 +6659,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U65" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="V65" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:22">
@@ -7897,10 +7897,10 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="C84" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
         <x:v>0</x:v>
@@ -7918,7 +7918,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="J84" s="0" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="K84" s="0" t="n">
         <x:v>0</x:v>
@@ -7930,13 +7930,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="N84" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="O84" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="P84" s="0" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="Q84" s="0" t="n">
         <x:v>4</x:v>
@@ -7948,13 +7948,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="T84" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="U84" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="V84" s="0" t="n">
-        <x:v>717</x:v>
+        <x:v>726</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -9464,7 +9464,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D107" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E107" s="0" t="n">
         <x:v>0</x:v>
@@ -9473,7 +9473,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G107" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H107" s="0" t="n">
         <x:v>0</x:v>
@@ -9482,7 +9482,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J107" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K107" s="0" t="n">
         <x:v>0</x:v>
@@ -9491,19 +9491,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M107" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N107" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="O107" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P107" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="Q107" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R107" s="0" t="n">
         <x:v>0</x:v>
@@ -9518,7 +9518,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V107" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2626,7 +2626,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N6" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O6" s="0" t="n">
         <x:v>0</x:v>
@@ -2650,7 +2650,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V6" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -14922,7 +14922,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="J187" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K187" s="0" t="n">
         <x:v>0</x:v>
@@ -14952,13 +14952,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T187" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="U187" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="V187" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
@@ -16202,7 +16202,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F206" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G206" s="0" t="n">
         <x:v>10</x:v>
@@ -16226,7 +16226,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N206" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O206" s="0" t="n">
         <x:v>0</x:v>
@@ -16244,13 +16244,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T206" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U206" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V206" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2936,7 +2936,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
         <x:v>0</x:v>
@@ -2945,7 +2945,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
         <x:v>0</x:v>
@@ -2966,7 +2966,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="O11" s="0" t="n">
         <x:v>0</x:v>
@@ -2990,7 +2990,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V11" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">
@@ -7868,7 +7868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P83" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2945,7 +2945,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
         <x:v>0</x:v>
@@ -2990,7 +2990,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V11" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">
@@ -7832,7 +7832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
         <x:v>0</x:v>
@@ -7850,7 +7850,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J83" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K83" s="0" t="n">
         <x:v>0</x:v>
@@ -7880,13 +7880,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T83" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="U83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -7986,7 +7986,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="J85" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K85" s="0" t="n">
         <x:v>0</x:v>
@@ -8022,7 +8022,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V85" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
@@ -8249,7 +8249,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
         <x:v>0</x:v>
@@ -8291,10 +8291,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="U89" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="V89" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
@@ -9940,7 +9940,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E114" s="0" t="n">
         <x:v>0</x:v>
@@ -9955,10 +9955,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I114" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -9970,7 +9970,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N114" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="O114" s="0" t="n">
         <x:v>2</x:v>
@@ -9988,13 +9988,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="T114" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="U114" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>510</x:v>
+        <x:v>505</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -18334,7 +18334,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N237" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O237" s="0" t="n">
         <x:v>0</x:v>
@@ -18358,7 +18358,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V237" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7832,7 +7832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
         <x:v>0</x:v>
@@ -7868,7 +7868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P83" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="n">
         <x:v>0</x:v>
@@ -7880,13 +7880,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T83" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="U83" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -18100,7 +18100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D234" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E234" s="0" t="n">
         <x:v>0</x:v>
@@ -18109,7 +18109,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G234" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H234" s="0" t="n">
         <x:v>0</x:v>
@@ -18154,7 +18154,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V234" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -9955,7 +9955,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I114" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
         <x:v>100</x:v>
@@ -9976,7 +9976,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P114" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="Q114" s="0" t="n">
         <x:v>2</x:v>
@@ -9994,7 +9994,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>505</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7829,7 +7829,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="C83" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
         <x:v>27</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -19762,7 +19762,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N258" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O258" s="0" t="n">
         <x:v>0</x:v>
@@ -19786,7 +19786,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V258" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -7868,7 +7868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P83" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="n">
         <x:v>0</x:v>
@@ -7886,7 +7886,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V83" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
@@ -8929,7 +8929,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G99" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H99" s="0" t="n">
         <x:v>0</x:v>
@@ -8974,7 +8974,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="V99" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:22">
@@ -17216,7 +17216,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D221" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E221" s="0" t="n">
         <x:v>0</x:v>
@@ -17246,7 +17246,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N221" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O221" s="0" t="n">
         <x:v>0</x:v>
@@ -17270,7 +17270,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V221" s="0" t="n">
-        <x:v>218</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
@@ -20341,7 +20341,7 @@
         <x:v>553</x:v>
       </x:c>
       <x:c r="C267" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D267" s="0" t="n">
         <x:v>1</x:v>
@@ -20398,7 +20398,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V267" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -2682,7 +2682,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K7" s="0" t="n">
         <x:v>0</x:v>
@@ -2694,7 +2694,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="O7" s="0" t="n">
         <x:v>0</x:v>
@@ -2718,7 +2718,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V7" s="0" t="n">
-        <x:v>244</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -1477,7 +1477,7 @@
     <x:t>MN0730100</x:t>
   </x:si>
   <x:si>
-    <x:t>Cold Spring/Richmond Police Dept</x:t>
+    <x:t>Cold Spring / Richmond Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0730300</x:t>
@@ -1507,7 +1507,7 @@
     <x:t>MN0730800</x:t>
   </x:si>
   <x:si>
-    <x:t>Belgrade Police Dept</x:t>
+    <x:t>Belgrade Brooten Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0731100</x:t>
@@ -1681,7 +1681,7 @@
     <x:t>MN0821100</x:t>
   </x:si>
   <x:si>
-    <x:t>Woodbury Public Safety</x:t>
+    <x:t>Woodbury Dept of Public Safety</x:t>
   </x:si>
   <x:si>
     <x:t>MN0821400</x:t>
@@ -1771,7 +1771,7 @@
     <x:t>MNCON0000</x:t>
   </x:si>
   <x:si>
-    <x:t>MN Dept of Natural Resources - License Bureau</x:t>
+    <x:t>MN Dept of Natural Resources - Enforcement Division</x:t>
   </x:si>
   <x:si>
     <x:t>MNDI01900</x:t>
@@ -1789,7 +1789,7 @@
     <x:t>MNDI02400</x:t>
   </x:si>
   <x:si>
-    <x:t>Mille Lacs Band of Ojibwe Tribal Police Dept</x:t>
+    <x:t>Mille Lacs Tribal Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MNDI06000</x:t>
@@ -8509,7 +8509,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="C93" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D93" s="0" t="n">
         <x:v>71</x:v>
@@ -8566,7 +8566,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="V93" s="0" t="n">
-        <x:v>1075</x:v>
+        <x:v>1076</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:22">
@@ -8950,7 +8950,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N99" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="O99" s="0" t="n">
         <x:v>0</x:v>
@@ -8974,7 +8974,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="V99" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:22">
@@ -9955,10 +9955,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I114" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J114" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="K114" s="0" t="n">
         <x:v>0</x:v>
@@ -12628,7 +12628,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P153" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="Q153" s="0" t="n">
         <x:v>1</x:v>
@@ -12646,7 +12646,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V153" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">
@@ -16859,10 +16859,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U215" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V215" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -802,6 +802,9 @@
     <x:t>Brooklyn Park Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0270400</x:t>
   </x:si>
   <x:si>
@@ -949,9 +952,6 @@
     <x:t>Metropolitan Airport Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
     <x:t>39</x:t>
   </x:si>
   <x:si>
@@ -1021,262 +1021,262 @@
     <x:t>98</x:t>
   </x:si>
   <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Crescent Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Park Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cambridge Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coleraine Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keewatin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deer River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0320000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0330000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willmar Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>International Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silver Bay Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Harbors Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Center Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Montgomery Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waterville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glencoe Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hutchinson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brownton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lester Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0440000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fairmont Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Litchfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs County Sheriff</x:t>
+  </x:si>
+  <x:si>
     <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Crescent Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Park Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cambridge Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coleraine Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grand Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Keewatin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deer River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0320000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0330000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willmar Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>International Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Silver Bay Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Harbors Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Montgomery Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waterville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glencoe Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hutchinson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brownton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lester Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0440000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fairmont Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Litchfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs County Sheriff</x:t>
   </x:si>
   <x:si>
     <x:t>MN0480100</x:t>
@@ -8399,7 +8399,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>25</x:v>
@@ -8435,7 +8435,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P86" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="Q86" s="0" t="s">
         <x:v>41</x:v>
@@ -8447,21 +8447,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T86" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="U86" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="V86" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
       <x:c r="A87" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>25</x:v>
@@ -8526,10 +8526,10 @@
     </x:row>
     <x:row r="88" spans="1:22">
       <x:c r="A88" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>25</x:v>
@@ -8594,10 +8594,10 @@
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>24</x:v>
@@ -8612,7 +8612,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G89" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="H89" s="0" t="s">
         <x:v>25</x:v>
@@ -8657,15 +8657,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V89" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>25</x:v>
@@ -8730,10 +8730,10 @@
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>25</x:v>
@@ -8798,10 +8798,10 @@
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>26</x:v>
@@ -8866,16 +8866,16 @@
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>25</x:v>
@@ -8884,7 +8884,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="H93" s="0" t="s">
         <x:v>25</x:v>
@@ -8893,7 +8893,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="J93" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="K93" s="0" t="s">
         <x:v>25</x:v>
@@ -8905,7 +8905,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="N93" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="O93" s="0" t="s">
         <x:v>25</x:v>
@@ -8923,21 +8923,21 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="T93" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="U93" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="V93" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>25</x:v>
@@ -9002,10 +9002,10 @@
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>26</x:v>
@@ -9065,15 +9065,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V95" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
       <x:c r="A96" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>25</x:v>
@@ -9138,10 +9138,10 @@
     </x:row>
     <x:row r="97" spans="1:22">
       <x:c r="A97" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>25</x:v>
@@ -9206,10 +9206,10 @@
     </x:row>
     <x:row r="98" spans="1:22">
       <x:c r="A98" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>25</x:v>
@@ -9274,10 +9274,10 @@
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="A99" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>41</x:v>
@@ -9337,15 +9337,15 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="V99" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="A100" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>94</x:v>
@@ -9410,10 +9410,10 @@
     </x:row>
     <x:row r="101" spans="1:22">
       <x:c r="A101" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>25</x:v>
@@ -9478,10 +9478,10 @@
     </x:row>
     <x:row r="102" spans="1:22">
       <x:c r="A102" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>58</x:v>
@@ -9541,15 +9541,15 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="V102" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
       <x:c r="A103" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>25</x:v>
@@ -9614,10 +9614,10 @@
     </x:row>
     <x:row r="104" spans="1:22">
       <x:c r="A104" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>25</x:v>
@@ -9682,10 +9682,10 @@
     </x:row>
     <x:row r="105" spans="1:22">
       <x:c r="A105" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>24</x:v>
@@ -9700,7 +9700,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G105" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="H105" s="0" t="s">
         <x:v>25</x:v>
@@ -10333,13 +10333,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N114" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="O114" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P114" s="0" t="s">
         <x:v>335</x:v>
-      </x:c>
-      <x:c r="O114" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P114" s="0" t="s">
-        <x:v>336</x:v>
       </x:c>
       <x:c r="Q114" s="0" t="s">
         <x:v>24</x:v>
@@ -10351,21 +10351,21 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="T114" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="U114" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="V114" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
         <x:v>339</x:v>
-      </x:c>
-      <x:c r="B115" s="0" t="s">
-        <x:v>340</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10430,10 +10430,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
         <x:v>341</x:v>
-      </x:c>
-      <x:c r="B116" s="0" t="s">
-        <x:v>342</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10498,10 +10498,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
         <x:v>343</x:v>
-      </x:c>
-      <x:c r="B117" s="0" t="s">
-        <x:v>344</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10566,10 +10566,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
         <x:v>345</x:v>
-      </x:c>
-      <x:c r="B118" s="0" t="s">
-        <x:v>346</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>25</x:v>
@@ -10634,10 +10634,10 @@
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
         <x:v>347</x:v>
-      </x:c>
-      <x:c r="B119" s="0" t="s">
-        <x:v>348</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10702,10 +10702,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
         <x:v>349</x:v>
-      </x:c>
-      <x:c r="B120" s="0" t="s">
-        <x:v>350</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>26</x:v>
@@ -10770,10 +10770,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
         <x:v>351</x:v>
-      </x:c>
-      <x:c r="B121" s="0" t="s">
-        <x:v>352</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10838,10 +10838,10 @@
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
         <x:v>353</x:v>
-      </x:c>
-      <x:c r="B122" s="0" t="s">
-        <x:v>354</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -10906,10 +10906,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
         <x:v>355</x:v>
-      </x:c>
-      <x:c r="B123" s="0" t="s">
-        <x:v>356</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>25</x:v>
@@ -10974,10 +10974,10 @@
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
         <x:v>357</x:v>
-      </x:c>
-      <x:c r="B124" s="0" t="s">
-        <x:v>358</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -11042,10 +11042,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
         <x:v>359</x:v>
-      </x:c>
-      <x:c r="B125" s="0" t="s">
-        <x:v>360</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -11110,10 +11110,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
         <x:v>361</x:v>
-      </x:c>
-      <x:c r="B126" s="0" t="s">
-        <x:v>362</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -11178,10 +11178,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
         <x:v>363</x:v>
-      </x:c>
-      <x:c r="B127" s="0" t="s">
-        <x:v>364</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11246,10 +11246,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
         <x:v>365</x:v>
-      </x:c>
-      <x:c r="B128" s="0" t="s">
-        <x:v>366</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11309,15 +11309,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V128" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
         <x:v>368</x:v>
-      </x:c>
-      <x:c r="B129" s="0" t="s">
-        <x:v>369</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11377,15 +11377,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V129" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
         <x:v>371</x:v>
-      </x:c>
-      <x:c r="B130" s="0" t="s">
-        <x:v>372</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11409,7 +11409,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J130" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="K130" s="0" t="s">
         <x:v>26</x:v>
@@ -11445,15 +11445,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V130" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
         <x:v>375</x:v>
-      </x:c>
-      <x:c r="B131" s="0" t="s">
-        <x:v>376</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11518,10 +11518,10 @@
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
         <x:v>377</x:v>
-      </x:c>
-      <x:c r="B132" s="0" t="s">
-        <x:v>378</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>25</x:v>
@@ -11586,10 +11586,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
         <x:v>379</x:v>
-      </x:c>
-      <x:c r="B133" s="0" t="s">
-        <x:v>380</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11654,10 +11654,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
         <x:v>381</x:v>
-      </x:c>
-      <x:c r="B134" s="0" t="s">
-        <x:v>382</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>25</x:v>
@@ -11722,10 +11722,10 @@
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
         <x:v>383</x:v>
-      </x:c>
-      <x:c r="B135" s="0" t="s">
-        <x:v>384</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11790,10 +11790,10 @@
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
         <x:v>385</x:v>
-      </x:c>
-      <x:c r="B136" s="0" t="s">
-        <x:v>386</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -11858,10 +11858,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
         <x:v>387</x:v>
-      </x:c>
-      <x:c r="B137" s="0" t="s">
-        <x:v>388</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -11926,10 +11926,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
         <x:v>389</x:v>
-      </x:c>
-      <x:c r="B138" s="0" t="s">
-        <x:v>390</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -11994,10 +11994,10 @@
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
         <x:v>391</x:v>
-      </x:c>
-      <x:c r="B139" s="0" t="s">
-        <x:v>392</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -12062,10 +12062,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
         <x:v>393</x:v>
-      </x:c>
-      <x:c r="B140" s="0" t="s">
-        <x:v>394</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -12130,10 +12130,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
         <x:v>395</x:v>
-      </x:c>
-      <x:c r="B141" s="0" t="s">
-        <x:v>396</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12198,10 +12198,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
         <x:v>397</x:v>
-      </x:c>
-      <x:c r="B142" s="0" t="s">
-        <x:v>398</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12266,10 +12266,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
         <x:v>399</x:v>
-      </x:c>
-      <x:c r="B143" s="0" t="s">
-        <x:v>400</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12334,10 +12334,10 @@
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
         <x:v>401</x:v>
-      </x:c>
-      <x:c r="B144" s="0" t="s">
-        <x:v>402</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12402,10 +12402,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
         <x:v>403</x:v>
-      </x:c>
-      <x:c r="B145" s="0" t="s">
-        <x:v>404</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12470,10 +12470,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
         <x:v>405</x:v>
-      </x:c>
-      <x:c r="B146" s="0" t="s">
-        <x:v>406</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12538,10 +12538,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
         <x:v>407</x:v>
-      </x:c>
-      <x:c r="B147" s="0" t="s">
-        <x:v>408</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12606,10 +12606,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
         <x:v>409</x:v>
-      </x:c>
-      <x:c r="B148" s="0" t="s">
-        <x:v>410</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12674,10 +12674,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
         <x:v>411</x:v>
-      </x:c>
-      <x:c r="B149" s="0" t="s">
-        <x:v>412</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12742,10 +12742,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
         <x:v>413</x:v>
-      </x:c>
-      <x:c r="B150" s="0" t="s">
-        <x:v>414</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>25</x:v>
@@ -12810,10 +12810,10 @@
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
         <x:v>415</x:v>
-      </x:c>
-      <x:c r="B151" s="0" t="s">
-        <x:v>416</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -12878,10 +12878,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
         <x:v>417</x:v>
-      </x:c>
-      <x:c r="B152" s="0" t="s">
-        <x:v>418</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -12946,10 +12946,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
         <x:v>419</x:v>
-      </x:c>
-      <x:c r="B153" s="0" t="s">
-        <x:v>420</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -13009,7 +13009,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V153" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>420</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">
@@ -14188,7 +14188,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G171" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="H171" s="0" t="s">
         <x:v>25</x:v>
@@ -14301,7 +14301,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V172" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:22">
@@ -15723,7 +15723,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T193" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="U193" s="0" t="s">
         <x:v>65</x:v>
@@ -15933,7 +15933,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V196" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
@@ -16613,7 +16613,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V206" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>420</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:22">
@@ -18449,7 +18449,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V233" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:22">
@@ -21396,7 +21396,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G277" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H277" s="0" t="s">
         <x:v>25</x:v>
@@ -22597,7 +22597,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V294" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -6395,7 +6395,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P56" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="Q56" s="0" t="s">
         <x:v>25</x:v>
@@ -6413,7 +6413,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="V56" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:22">
@@ -9653,7 +9653,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N104" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O104" s="0" t="s">
         <x:v>25</x:v>
@@ -9677,7 +9677,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V104" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -760,7 +760,7 @@
     <x:t>40</x:t>
   </x:si>
   <x:si>
-    <x:t>132</x:t>
+    <x:t>134</x:t>
   </x:si>
   <x:si>
     <x:t>MN0270100</x:t>
@@ -6377,7 +6377,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="K56" s="0" t="s">
         <x:v>26</x:v>
@@ -6413,7 +6413,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="V56" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:22">
@@ -6525,7 +6525,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
         <x:v>25</x:v>
@@ -6546,7 +6546,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U58" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="V58" s="0" t="s">
         <x:v>189</x:v>
@@ -8213,7 +8213,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J83" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K83" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -760,7 +760,7 @@
     <x:t>40</x:t>
   </x:si>
   <x:si>
-    <x:t>134</x:t>
+    <x:t>135</x:t>
   </x:si>
   <x:si>
     <x:t>MN0270100</x:t>
@@ -8195,7 +8195,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -778,13 +778,13 @@
     <x:t>62</x:t>
   </x:si>
   <x:si>
-    <x:t>212</x:t>
+    <x:t>213</x:t>
   </x:si>
   <x:si>
     <x:t>118</x:t>
   </x:si>
   <x:si>
-    <x:t>726</x:t>
+    <x:t>727</x:t>
   </x:si>
   <x:si>
     <x:t>MN0270200</x:t>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -802,1291 +802,1291 @@
     <x:t>Brooklyn Park Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deephaven Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Lake Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Golden Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hopkins Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minneapolis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Hope Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orono Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osseo Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plymouth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Richfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbinsdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Anthony Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wayzata Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University of MN Police Dept - Minneapolis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Airport Police Dept</x:t>
+  </x:si>
+  <x:si>
     <x:t>51</x:t>
   </x:si>
   <x:si>
-    <x:t>MN0270400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deephaven Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South Lake Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Golden Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hopkins Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minneapolis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eden Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maple Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetrista Public Safety Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Champlin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corcoran Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rogers Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West Hennepin Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Three Rivers Park District Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Transit Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Crescent Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Park Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cambridge Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coleraine Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keewatin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deer River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0320000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0330000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willmar Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>International Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silver Bay Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Harbors Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Center Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Montgomery Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waterville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glencoe Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hutchinson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brownton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lester Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0440000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fairmont Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Litchfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Milaca Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Princeton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isle Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Little Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Royalton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0510000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Mankato Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Peter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Worthington Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0540000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0550000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0550100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rochester Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fergus Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New York Mills Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parkers Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0570000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0570100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thief River Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0580000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0590000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crookston Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>East Grand Forks Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fosston Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0610000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0610100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glenwood Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0610200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Starbuck Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maplewood Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mounds View Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Brighton Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0621000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>White Bear Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0640000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0640200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hector Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olivia Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Northfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dundas Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0670000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rock County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0680000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Babbitt Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisholm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duluth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ely Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eveleth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gilbert Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hibbing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Virginia Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hermantown Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University of MN Police Dept - Duluth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belle Plaine Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jordan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Prague Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shakopee Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Savage Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prior Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0701000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elko New Market Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Big Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elk River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arlington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gaylord Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winthrop Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stearns County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cold Spring / Richmond Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Paynesville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Cloud Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sauk Centre Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waite Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belgrade Brooten Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0731100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Joseph Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0731200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sartell Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0731600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avon Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0740000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steele County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0740100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Owatonna Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0740200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blooming Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0750000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stevens County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0760200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0770000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Todd County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0770100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Long Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0770200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Staples Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0780000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Traverse County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0790000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wabasha County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0790100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake City Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0790200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plainview Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0790300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wabasha Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0800000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wadena County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0800100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wadena Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0810000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waseca County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0810100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Janesville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0810300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waseca Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Washington County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bayport Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Forest Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Paul Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stillwater Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottage Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oakdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0821100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Woodbury Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0821400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oak Park Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0830000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Watonwan County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0830200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St James Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0840000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wilkin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0840100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breckenridge Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0850000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winona County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0850200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winona Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0850300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodview Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0860000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wright County Sheriff</x:t>
   </x:si>
   <x:si>
     <x:t>127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Hope Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orono Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osseo Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plymouth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Richfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbinsdale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Anthony Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wayzata Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of MN Police Dept - Minneapolis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Airport Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eden Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maple Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetrista Public Safety Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Champlin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corcoran Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rogers Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West Hennepin Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Three Rivers Park District Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Transit Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Crescent Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Park Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cambridge Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coleraine Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grand Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Keewatin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deer River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0320000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0330000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willmar Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>International Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Silver Bay Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Harbors Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Montgomery Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waterville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glencoe Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hutchinson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brownton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lester Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0440000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fairmont Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Litchfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Milaca Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Princeton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isle Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Little Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Royalton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Austin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0510000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Mankato Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Peter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Worthington Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0540000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0550000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0550100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rochester Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fergus Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New York Mills Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parkers Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0570000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0570100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thief River Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0580000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0590000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crookston Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>East Grand Forks Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fosston Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0610000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0610100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glenwood Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0610200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Starbuck Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maplewood Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mounds View Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Brighton Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>546</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0621000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>White Bear Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0640000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0640200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hector Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olivia Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Northfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dundas Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0670000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rock County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0680000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Babbitt Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisholm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Duluth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ely Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eveleth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gilbert Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hibbing Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Virginia Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hermantown Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of MN Police Dept - Duluth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Belle Plaine Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jordan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Prague Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shakopee Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Savage Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prior Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0701000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elko New Market Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Big Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elk River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sibley County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arlington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gaylord Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winthrop Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stearns County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cold Spring / Richmond Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Paynesville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Cloud Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>373</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sauk Centre Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waite Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Belgrade Brooten Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0731100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Joseph Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0731200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sartell Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0731600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Avon Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0740000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steele County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0740100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Owatonna Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0740200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blooming Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0750000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stevens County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0760200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0770000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Todd County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0770100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Long Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0770200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Staples Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0780000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Traverse County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0790000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wabasha County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0790100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake City Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0790200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plainview Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0790300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wabasha Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0800000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wadena County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0800100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wadena Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0810000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waseca County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0810100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Janesville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0810300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waseca Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Washington County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bayport Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Forest Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Paul Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stillwater Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottage Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oakdale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0821100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Woodbury Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0821400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oak Park Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0830000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Watonwan County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0830200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St James Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0840000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wilkin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0840100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breckenridge Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0850000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winona County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0850200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winona Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0850300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodview Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0860000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wright County Sheriff</x:t>
   </x:si>
   <x:si>
     <x:t>126</x:t>
@@ -8399,7 +8399,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>25</x:v>
@@ -8435,7 +8435,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P86" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="Q86" s="0" t="s">
         <x:v>41</x:v>
@@ -8447,7 +8447,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T86" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="U86" s="0" t="s">
         <x:v>41</x:v>
@@ -8920,24 +8920,24 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S93" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="T93" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="U93" s="0" t="s">
         <x:v>283</x:v>
       </x:c>
-      <x:c r="U93" s="0" t="s">
+      <x:c r="V93" s="0" t="s">
         <x:v>284</x:v>
-      </x:c>
-      <x:c r="V93" s="0" t="s">
-        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
         <x:v>286</x:v>
-      </x:c>
-      <x:c r="B94" s="0" t="s">
-        <x:v>287</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>25</x:v>
@@ -9002,10 +9002,10 @@
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
         <x:v>288</x:v>
-      </x:c>
-      <x:c r="B95" s="0" t="s">
-        <x:v>289</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>26</x:v>
@@ -9065,7 +9065,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V95" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
@@ -9224,7 +9224,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G98" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H98" s="0" t="s">
         <x:v>25</x:v>
@@ -9269,15 +9269,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V98" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="A99" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>41</x:v>
@@ -9337,15 +9337,15 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="V99" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="A100" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>94</x:v>
@@ -9410,10 +9410,10 @@
     </x:row>
     <x:row r="101" spans="1:22">
       <x:c r="A101" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>25</x:v>
@@ -9478,10 +9478,10 @@
     </x:row>
     <x:row r="102" spans="1:22">
       <x:c r="A102" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>58</x:v>
@@ -9541,15 +9541,15 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="V102" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
       <x:c r="A103" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>25</x:v>
@@ -9614,10 +9614,10 @@
     </x:row>
     <x:row r="104" spans="1:22">
       <x:c r="A104" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>25</x:v>
@@ -9682,10 +9682,10 @@
     </x:row>
     <x:row r="105" spans="1:22">
       <x:c r="A105" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>24</x:v>
@@ -9700,7 +9700,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G105" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="H105" s="0" t="s">
         <x:v>25</x:v>
@@ -9709,7 +9709,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J105" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="K105" s="0" t="s">
         <x:v>26</x:v>
@@ -9745,15 +9745,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V105" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:22">
       <x:c r="A106" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>25</x:v>
@@ -9818,10 +9818,10 @@
     </x:row>
     <x:row r="107" spans="1:22">
       <x:c r="A107" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>28</x:v>
@@ -9881,15 +9881,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V107" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:22">
       <x:c r="A108" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>26</x:v>
@@ -9954,10 +9954,10 @@
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>25</x:v>
@@ -10017,15 +10017,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V109" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>25</x:v>
@@ -10090,10 +10090,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>25</x:v>
@@ -10158,10 +10158,10 @@
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>25</x:v>
@@ -10226,10 +10226,10 @@
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>25</x:v>
@@ -10294,10 +10294,10 @@
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>31</x:v>
@@ -10321,7 +10321,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="J114" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="K114" s="0" t="s">
         <x:v>25</x:v>
@@ -10339,7 +10339,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P114" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="Q114" s="0" t="s">
         <x:v>24</x:v>
@@ -10351,21 +10351,21 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="T114" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="U114" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="V114" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10430,10 +10430,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10498,10 +10498,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10566,10 +10566,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>25</x:v>
@@ -10634,10 +10634,10 @@
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10702,10 +10702,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>26</x:v>
@@ -10770,10 +10770,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10838,10 +10838,10 @@
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -10906,10 +10906,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>25</x:v>
@@ -10974,10 +10974,10 @@
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -11042,10 +11042,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -11110,10 +11110,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -11178,10 +11178,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11246,10 +11246,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11309,15 +11309,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V128" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11377,15 +11377,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V129" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11409,7 +11409,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J130" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="K130" s="0" t="s">
         <x:v>26</x:v>
@@ -14188,16 +14188,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G171" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="H171" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I171" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J171" s="0" t="s">
         <x:v>280</x:v>
-      </x:c>
-      <x:c r="H171" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I171" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J171" s="0" t="s">
-        <x:v>460</x:v>
       </x:c>
       <x:c r="K171" s="0" t="s">
         <x:v>24</x:v>
@@ -14233,15 +14233,15 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V171" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>460</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="B172" s="0" t="s">
         <x:v>462</x:v>
-      </x:c>
-      <x:c r="B172" s="0" t="s">
-        <x:v>463</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14301,15 +14301,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V172" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="B173" s="0" t="s">
         <x:v>464</x:v>
-      </x:c>
-      <x:c r="B173" s="0" t="s">
-        <x:v>465</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14374,10 +14374,10 @@
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="B174" s="0" t="s">
         <x:v>466</x:v>
-      </x:c>
-      <x:c r="B174" s="0" t="s">
-        <x:v>467</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14442,10 +14442,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="B175" s="0" t="s">
         <x:v>468</x:v>
-      </x:c>
-      <x:c r="B175" s="0" t="s">
-        <x:v>469</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>25</x:v>
@@ -14510,10 +14510,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="B176" s="0" t="s">
         <x:v>470</x:v>
-      </x:c>
-      <x:c r="B176" s="0" t="s">
-        <x:v>471</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>25</x:v>
@@ -14578,10 +14578,10 @@
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="B177" s="0" t="s">
         <x:v>472</x:v>
-      </x:c>
-      <x:c r="B177" s="0" t="s">
-        <x:v>473</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>25</x:v>
@@ -14646,10 +14646,10 @@
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="B178" s="0" t="s">
         <x:v>474</x:v>
-      </x:c>
-      <x:c r="B178" s="0" t="s">
-        <x:v>475</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>26</x:v>
@@ -14709,15 +14709,15 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V178" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>475</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="B179" s="0" t="s">
         <x:v>477</x:v>
-      </x:c>
-      <x:c r="B179" s="0" t="s">
-        <x:v>478</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>25</x:v>
@@ -14782,10 +14782,10 @@
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="B180" s="0" t="s">
         <x:v>479</x:v>
-      </x:c>
-      <x:c r="B180" s="0" t="s">
-        <x:v>480</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>25</x:v>
@@ -14850,10 +14850,10 @@
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="B181" s="0" t="s">
         <x:v>481</x:v>
-      </x:c>
-      <x:c r="B181" s="0" t="s">
-        <x:v>482</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>25</x:v>
@@ -14913,15 +14913,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V181" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>482</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="B182" s="0" t="s">
         <x:v>484</x:v>
-      </x:c>
-      <x:c r="B182" s="0" t="s">
-        <x:v>485</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -14981,15 +14981,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V182" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>485</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
         <x:v>487</x:v>
-      </x:c>
-      <x:c r="B183" s="0" t="s">
-        <x:v>488</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -15054,10 +15054,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
         <x:v>489</x:v>
-      </x:c>
-      <x:c r="B184" s="0" t="s">
-        <x:v>490</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -15122,10 +15122,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
         <x:v>491</x:v>
-      </x:c>
-      <x:c r="B185" s="0" t="s">
-        <x:v>492</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15190,10 +15190,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
         <x:v>493</x:v>
-      </x:c>
-      <x:c r="B186" s="0" t="s">
-        <x:v>494</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15258,10 +15258,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
         <x:v>495</x:v>
-      </x:c>
-      <x:c r="B187" s="0" t="s">
-        <x:v>496</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>28</x:v>
@@ -15321,15 +15321,15 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="V187" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>496</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
         <x:v>498</x:v>
-      </x:c>
-      <x:c r="B188" s="0" t="s">
-        <x:v>499</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>41</x:v>
@@ -15389,15 +15389,15 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="V188" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>499</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
         <x:v>501</x:v>
-      </x:c>
-      <x:c r="B189" s="0" t="s">
-        <x:v>502</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>24</x:v>
@@ -15462,10 +15462,10 @@
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
         <x:v>503</x:v>
-      </x:c>
-      <x:c r="B190" s="0" t="s">
-        <x:v>504</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15530,10 +15530,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
         <x:v>505</x:v>
-      </x:c>
-      <x:c r="B191" s="0" t="s">
-        <x:v>506</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>26</x:v>
@@ -15598,10 +15598,10 @@
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
         <x:v>507</x:v>
-      </x:c>
-      <x:c r="B192" s="0" t="s">
-        <x:v>508</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>24</x:v>
@@ -15666,10 +15666,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
         <x:v>509</x:v>
-      </x:c>
-      <x:c r="B193" s="0" t="s">
-        <x:v>510</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>128</x:v>
@@ -15684,7 +15684,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="G193" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="H193" s="0" t="s">
         <x:v>25</x:v>
@@ -15693,7 +15693,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="J193" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="K193" s="0" t="s">
         <x:v>25</x:v>
@@ -15723,21 +15723,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T193" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="U193" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="V193" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
         <x:v>513</x:v>
-      </x:c>
-      <x:c r="B194" s="0" t="s">
-        <x:v>514</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>26</x:v>
@@ -15802,10 +15802,10 @@
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
         <x:v>515</x:v>
-      </x:c>
-      <x:c r="B195" s="0" t="s">
-        <x:v>516</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>25</x:v>
@@ -15870,10 +15870,10 @@
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
         <x:v>517</x:v>
-      </x:c>
-      <x:c r="B196" s="0" t="s">
-        <x:v>518</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -15938,10 +15938,10 @@
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
         <x:v>519</x:v>
-      </x:c>
-      <x:c r="B197" s="0" t="s">
-        <x:v>520</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>25</x:v>
@@ -16006,10 +16006,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
         <x:v>521</x:v>
-      </x:c>
-      <x:c r="B198" s="0" t="s">
-        <x:v>522</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -16074,10 +16074,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
         <x:v>523</x:v>
-      </x:c>
-      <x:c r="B199" s="0" t="s">
-        <x:v>524</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>25</x:v>
@@ -16142,10 +16142,10 @@
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
+        <x:v>524</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
         <x:v>525</x:v>
-      </x:c>
-      <x:c r="B200" s="0" t="s">
-        <x:v>526</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>25</x:v>
@@ -16210,10 +16210,10 @@
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
         <x:v>527</x:v>
-      </x:c>
-      <x:c r="B201" s="0" t="s">
-        <x:v>528</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16278,10 +16278,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
         <x:v>529</x:v>
-      </x:c>
-      <x:c r="B202" s="0" t="s">
-        <x:v>530</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16346,10 +16346,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
         <x:v>531</x:v>
-      </x:c>
-      <x:c r="B203" s="0" t="s">
-        <x:v>532</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16414,10 +16414,10 @@
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
         <x:v>533</x:v>
-      </x:c>
-      <x:c r="B204" s="0" t="s">
-        <x:v>534</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16482,10 +16482,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
         <x:v>535</x:v>
-      </x:c>
-      <x:c r="B205" s="0" t="s">
-        <x:v>536</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16550,10 +16550,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
         <x:v>537</x:v>
-      </x:c>
-      <x:c r="B206" s="0" t="s">
-        <x:v>538</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16595,7 +16595,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P206" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="Q206" s="0" t="s">
         <x:v>25</x:v>
@@ -16613,15 +16613,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V206" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
         <x:v>539</x:v>
-      </x:c>
-      <x:c r="B207" s="0" t="s">
-        <x:v>540</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16686,10 +16686,10 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
         <x:v>541</x:v>
-      </x:c>
-      <x:c r="B208" s="0" t="s">
-        <x:v>542</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>25</x:v>
@@ -16754,10 +16754,10 @@
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
         <x:v>543</x:v>
-      </x:c>
-      <x:c r="B209" s="0" t="s">
-        <x:v>544</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>26</x:v>
@@ -16793,7 +16793,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N209" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="O209" s="0" t="s">
         <x:v>25</x:v>
@@ -16817,15 +16817,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V209" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>545</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
         <x:v>547</x:v>
-      </x:c>
-      <x:c r="B210" s="0" t="s">
-        <x:v>548</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>25</x:v>
@@ -16890,10 +16890,10 @@
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
         <x:v>549</x:v>
-      </x:c>
-      <x:c r="B211" s="0" t="s">
-        <x:v>550</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>25</x:v>
@@ -16958,10 +16958,10 @@
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
         <x:v>551</x:v>
-      </x:c>
-      <x:c r="B212" s="0" t="s">
-        <x:v>552</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -17026,10 +17026,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
         <x:v>553</x:v>
-      </x:c>
-      <x:c r="B213" s="0" t="s">
-        <x:v>554</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -17094,10 +17094,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
         <x:v>555</x:v>
-      </x:c>
-      <x:c r="B214" s="0" t="s">
-        <x:v>556</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -17162,10 +17162,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
         <x:v>557</x:v>
-      </x:c>
-      <x:c r="B215" s="0" t="s">
-        <x:v>558</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17230,10 +17230,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
         <x:v>559</x:v>
-      </x:c>
-      <x:c r="B216" s="0" t="s">
-        <x:v>560</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17298,10 +17298,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
         <x:v>561</x:v>
-      </x:c>
-      <x:c r="B217" s="0" t="s">
-        <x:v>562</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17366,10 +17366,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
         <x:v>563</x:v>
-      </x:c>
-      <x:c r="B218" s="0" t="s">
-        <x:v>564</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17434,10 +17434,10 @@
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
         <x:v>565</x:v>
-      </x:c>
-      <x:c r="B219" s="0" t="s">
-        <x:v>566</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17502,10 +17502,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
         <x:v>567</x:v>
-      </x:c>
-      <x:c r="B220" s="0" t="s">
-        <x:v>568</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17570,10 +17570,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
         <x:v>569</x:v>
-      </x:c>
-      <x:c r="B221" s="0" t="s">
-        <x:v>570</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>25</x:v>
@@ -17633,15 +17633,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>570</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
         <x:v>572</x:v>
-      </x:c>
-      <x:c r="B222" s="0" t="s">
-        <x:v>573</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17701,15 +17701,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V222" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>573</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
         <x:v>575</x:v>
-      </x:c>
-      <x:c r="B223" s="0" t="s">
-        <x:v>576</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>26</x:v>
@@ -17769,15 +17769,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V223" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>576</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
         <x:v>578</x:v>
-      </x:c>
-      <x:c r="B224" s="0" t="s">
-        <x:v>579</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -17842,10 +17842,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
         <x:v>580</x:v>
-      </x:c>
-      <x:c r="B225" s="0" t="s">
-        <x:v>581</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -17905,15 +17905,15 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="V225" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>475</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
+        <x:v>581</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
         <x:v>582</x:v>
-      </x:c>
-      <x:c r="B226" s="0" t="s">
-        <x:v>583</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -17978,10 +17978,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
         <x:v>584</x:v>
-      </x:c>
-      <x:c r="B227" s="0" t="s">
-        <x:v>585</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -18046,10 +18046,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
         <x:v>586</x:v>
-      </x:c>
-      <x:c r="B228" s="0" t="s">
-        <x:v>587</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>26</x:v>
@@ -18114,10 +18114,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
+        <x:v>587</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
         <x:v>588</x:v>
-      </x:c>
-      <x:c r="B229" s="0" t="s">
-        <x:v>589</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -18182,10 +18182,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
+        <x:v>589</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
         <x:v>590</x:v>
-      </x:c>
-      <x:c r="B230" s="0" t="s">
-        <x:v>591</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18250,10 +18250,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
         <x:v>592</x:v>
-      </x:c>
-      <x:c r="B231" s="0" t="s">
-        <x:v>593</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18318,10 +18318,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
         <x:v>594</x:v>
-      </x:c>
-      <x:c r="B232" s="0" t="s">
-        <x:v>595</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18386,10 +18386,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
+        <x:v>595</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
         <x:v>596</x:v>
-      </x:c>
-      <x:c r="B233" s="0" t="s">
-        <x:v>597</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18449,15 +18449,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V233" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
         <x:v>598</x:v>
-      </x:c>
-      <x:c r="B234" s="0" t="s">
-        <x:v>599</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18522,10 +18522,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
         <x:v>600</x:v>
-      </x:c>
-      <x:c r="B235" s="0" t="s">
-        <x:v>601</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>25</x:v>
@@ -18590,10 +18590,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
         <x:v>602</x:v>
-      </x:c>
-      <x:c r="B236" s="0" t="s">
-        <x:v>603</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>29</x:v>
@@ -18608,7 +18608,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G236" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="H236" s="0" t="s">
         <x:v>25</x:v>
@@ -18617,7 +18617,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="J236" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="K236" s="0" t="s">
         <x:v>25</x:v>
@@ -18635,7 +18635,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="P236" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="Q236" s="0" t="s">
         <x:v>49</x:v>
@@ -18653,15 +18653,15 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="V236" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>605</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
         <x:v>607</x:v>
-      </x:c>
-      <x:c r="B237" s="0" t="s">
-        <x:v>608</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18726,10 +18726,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
         <x:v>609</x:v>
-      </x:c>
-      <x:c r="B238" s="0" t="s">
-        <x:v>610</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>25</x:v>
@@ -18794,10 +18794,10 @@
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
         <x:v>611</x:v>
-      </x:c>
-      <x:c r="B239" s="0" t="s">
-        <x:v>612</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -18862,10 +18862,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c r="B240" s="0" t="s">
         <x:v>613</x:v>
-      </x:c>
-      <x:c r="B240" s="0" t="s">
-        <x:v>614</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -18930,10 +18930,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c r="B241" s="0" t="s">
         <x:v>615</x:v>
-      </x:c>
-      <x:c r="B241" s="0" t="s">
-        <x:v>616</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>25</x:v>
@@ -18998,10 +18998,10 @@
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="B242" s="0" t="s">
         <x:v>617</x:v>
-      </x:c>
-      <x:c r="B242" s="0" t="s">
-        <x:v>618</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>25</x:v>
@@ -19066,10 +19066,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="B243" s="0" t="s">
         <x:v>619</x:v>
-      </x:c>
-      <x:c r="B243" s="0" t="s">
-        <x:v>620</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>25</x:v>
@@ -19134,10 +19134,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="B244" s="0" t="s">
         <x:v>621</x:v>
-      </x:c>
-      <x:c r="B244" s="0" t="s">
-        <x:v>622</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -19202,10 +19202,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="B245" s="0" t="s">
         <x:v>623</x:v>
-      </x:c>
-      <x:c r="B245" s="0" t="s">
-        <x:v>624</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>25</x:v>
@@ -19270,10 +19270,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="B246" s="0" t="s">
         <x:v>625</x:v>
-      </x:c>
-      <x:c r="B246" s="0" t="s">
-        <x:v>626</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19338,10 +19338,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c r="B247" s="0" t="s">
         <x:v>627</x:v>
-      </x:c>
-      <x:c r="B247" s="0" t="s">
-        <x:v>628</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>25</x:v>
@@ -19406,10 +19406,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="B248" s="0" t="s">
         <x:v>629</x:v>
-      </x:c>
-      <x:c r="B248" s="0" t="s">
-        <x:v>630</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>30</x:v>
@@ -19474,10 +19474,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="B249" s="0" t="s">
         <x:v>631</x:v>
-      </x:c>
-      <x:c r="B249" s="0" t="s">
-        <x:v>632</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>25</x:v>
@@ -19542,10 +19542,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="B250" s="0" t="s">
         <x:v>633</x:v>
-      </x:c>
-      <x:c r="B250" s="0" t="s">
-        <x:v>634</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19610,10 +19610,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
+        <x:v>634</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="s">
         <x:v>635</x:v>
-      </x:c>
-      <x:c r="B251" s="0" t="s">
-        <x:v>636</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19678,10 +19678,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
+        <x:v>636</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
         <x:v>637</x:v>
-      </x:c>
-      <x:c r="B252" s="0" t="s">
-        <x:v>638</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19746,10 +19746,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
+        <x:v>638</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
         <x:v>639</x:v>
-      </x:c>
-      <x:c r="B253" s="0" t="s">
-        <x:v>640</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19814,10 +19814,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
+        <x:v>640</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
         <x:v>641</x:v>
-      </x:c>
-      <x:c r="B254" s="0" t="s">
-        <x:v>642</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -19882,10 +19882,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
         <x:v>643</x:v>
-      </x:c>
-      <x:c r="B255" s="0" t="s">
-        <x:v>644</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -19950,10 +19950,10 @@
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
         <x:v>645</x:v>
-      </x:c>
-      <x:c r="B256" s="0" t="s">
-        <x:v>646</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>25</x:v>
@@ -20018,10 +20018,10 @@
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
         <x:v>647</x:v>
-      </x:c>
-      <x:c r="B257" s="0" t="s">
-        <x:v>648</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -20086,10 +20086,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
         <x:v>649</x:v>
-      </x:c>
-      <x:c r="B258" s="0" t="s">
-        <x:v>650</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -20154,10 +20154,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
         <x:v>651</x:v>
-      </x:c>
-      <x:c r="B259" s="0" t="s">
-        <x:v>652</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20222,10 +20222,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
         <x:v>653</x:v>
-      </x:c>
-      <x:c r="B260" s="0" t="s">
-        <x:v>654</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20290,10 +20290,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="B261" s="0" t="s">
         <x:v>655</x:v>
-      </x:c>
-      <x:c r="B261" s="0" t="s">
-        <x:v>656</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20353,15 +20353,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V261" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>656</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
         <x:v>658</x:v>
-      </x:c>
-      <x:c r="B262" s="0" t="s">
-        <x:v>659</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>25</x:v>
@@ -20426,10 +20426,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
         <x:v>660</x:v>
-      </x:c>
-      <x:c r="B263" s="0" t="s">
-        <x:v>661</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20494,10 +20494,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
+        <x:v>661</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
         <x:v>662</x:v>
-      </x:c>
-      <x:c r="B264" s="0" t="s">
-        <x:v>663</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20562,10 +20562,10 @@
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
+        <x:v>663</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
         <x:v>664</x:v>
-      </x:c>
-      <x:c r="B265" s="0" t="s">
-        <x:v>665</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20630,10 +20630,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
+        <x:v>665</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
         <x:v>666</x:v>
-      </x:c>
-      <x:c r="B266" s="0" t="s">
-        <x:v>667</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>24</x:v>
@@ -20698,10 +20698,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
         <x:v>668</x:v>
-      </x:c>
-      <x:c r="B267" s="0" t="s">
-        <x:v>669</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20766,10 +20766,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="B268" s="0" t="s">
         <x:v>670</x:v>
-      </x:c>
-      <x:c r="B268" s="0" t="s">
-        <x:v>671</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>30</x:v>
@@ -20829,15 +20829,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V268" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>671</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
         <x:v>673</x:v>
-      </x:c>
-      <x:c r="B269" s="0" t="s">
-        <x:v>674</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20902,10 +20902,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
         <x:v>675</x:v>
-      </x:c>
-      <x:c r="B270" s="0" t="s">
-        <x:v>676</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20970,10 +20970,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
         <x:v>677</x:v>
-      </x:c>
-      <x:c r="B271" s="0" t="s">
-        <x:v>678</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -21038,10 +21038,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
         <x:v>679</x:v>
-      </x:c>
-      <x:c r="B272" s="0" t="s">
-        <x:v>680</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -21106,10 +21106,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="B273" s="0" t="s">
         <x:v>681</x:v>
-      </x:c>
-      <x:c r="B273" s="0" t="s">
-        <x:v>682</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -21174,10 +21174,10 @@
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="B274" s="0" t="s">
         <x:v>683</x:v>
-      </x:c>
-      <x:c r="B274" s="0" t="s">
-        <x:v>684</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21242,10 +21242,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="B275" s="0" t="s">
         <x:v>685</x:v>
-      </x:c>
-      <x:c r="B275" s="0" t="s">
-        <x:v>686</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21310,10 +21310,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="B276" s="0" t="s">
         <x:v>687</x:v>
-      </x:c>
-      <x:c r="B276" s="0" t="s">
-        <x:v>688</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21378,10 +21378,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="B277" s="0" t="s">
         <x:v>689</x:v>
-      </x:c>
-      <x:c r="B277" s="0" t="s">
-        <x:v>690</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21396,7 +21396,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G277" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="H277" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -3580,7 +3580,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
         <x:v>25</x:v>
@@ -3625,7 +3625,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V15" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:22">
@@ -5251,13 +5251,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T39" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U39" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V39" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -1021,7 +1021,7 @@
     <x:t>Metropolitan Transit Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>98</x:t>
+    <x:t>97</x:t>
   </x:si>
   <x:si>
     <x:t>70</x:t>
@@ -1030,7 +1030,7 @@
     <x:t>112</x:t>
   </x:si>
   <x:si>
-    <x:t>500</x:t>
+    <x:t>498</x:t>
   </x:si>
   <x:si>
     <x:t>MN0280000</x:t>
@@ -10348,7 +10348,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="S114" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="T114" s="0" t="s">
         <x:v>337</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -1024,13 +1024,16 @@
     <x:t>97</x:t>
   </x:si>
   <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
     <x:t>70</x:t>
   </x:si>
   <x:si>
     <x:t>112</x:t>
   </x:si>
   <x:si>
-    <x:t>498</x:t>
+    <x:t>497</x:t>
   </x:si>
   <x:si>
     <x:t>MN0280000</x:t>
@@ -1823,9 +1826,6 @@
   </x:si>
   <x:si>
     <x:t>St Cloud Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
   </x:si>
   <x:si>
     <x:t>103</x:t>
@@ -10333,13 +10333,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N114" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="O114" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="P114" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="Q114" s="0" t="s">
         <x:v>24</x:v>
@@ -10351,21 +10351,21 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="T114" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="U114" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="V114" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10430,10 +10430,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10498,10 +10498,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10566,10 +10566,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>25</x:v>
@@ -10634,10 +10634,10 @@
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10702,10 +10702,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>26</x:v>
@@ -10770,10 +10770,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10838,10 +10838,10 @@
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -10906,10 +10906,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>25</x:v>
@@ -10974,10 +10974,10 @@
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -11042,10 +11042,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -11110,10 +11110,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -11178,10 +11178,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11246,10 +11246,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11309,15 +11309,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V128" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11377,15 +11377,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V129" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11445,15 +11445,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V130" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11518,10 +11518,10 @@
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>25</x:v>
@@ -11586,10 +11586,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11654,10 +11654,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>25</x:v>
@@ -11722,10 +11722,10 @@
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11790,10 +11790,10 @@
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -11858,10 +11858,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -11926,10 +11926,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -11994,10 +11994,10 @@
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -12062,10 +12062,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -12130,10 +12130,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12198,10 +12198,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12266,10 +12266,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12334,10 +12334,10 @@
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12402,10 +12402,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12470,10 +12470,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12538,10 +12538,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12606,10 +12606,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12674,10 +12674,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12742,10 +12742,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>25</x:v>
@@ -12810,10 +12810,10 @@
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -12878,10 +12878,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -12946,10 +12946,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -13009,15 +13009,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V153" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>25</x:v>
@@ -13082,10 +13082,10 @@
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>25</x:v>
@@ -13150,10 +13150,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13218,10 +13218,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>25</x:v>
@@ -13286,10 +13286,10 @@
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13354,10 +13354,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>25</x:v>
@@ -13422,10 +13422,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>25</x:v>
@@ -13490,10 +13490,10 @@
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13558,10 +13558,10 @@
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13621,15 +13621,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V162" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13694,10 +13694,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13762,10 +13762,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13830,10 +13830,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -13898,10 +13898,10 @@
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -13966,10 +13966,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>94</x:v>
@@ -14005,7 +14005,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N168" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="O168" s="0" t="s">
         <x:v>30</x:v>
@@ -14029,15 +14029,15 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V168" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -14102,10 +14102,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -14170,10 +14170,10 @@
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>27</x:v>
@@ -14233,15 +14233,15 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V171" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14306,10 +14306,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14374,10 +14374,10 @@
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14442,10 +14442,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>25</x:v>
@@ -14510,10 +14510,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>25</x:v>
@@ -14578,10 +14578,10 @@
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>25</x:v>
@@ -14646,10 +14646,10 @@
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>26</x:v>
@@ -14709,15 +14709,15 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V178" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>25</x:v>
@@ -14782,10 +14782,10 @@
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>25</x:v>
@@ -14850,10 +14850,10 @@
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>25</x:v>
@@ -14913,15 +14913,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V181" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -14981,15 +14981,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V182" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -15054,10 +15054,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -15122,10 +15122,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15190,10 +15190,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15258,10 +15258,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>28</x:v>
@@ -15321,15 +15321,15 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="V187" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>41</x:v>
@@ -15389,15 +15389,15 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="V188" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>24</x:v>
@@ -15462,10 +15462,10 @@
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15530,10 +15530,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>26</x:v>
@@ -15598,10 +15598,10 @@
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>24</x:v>
@@ -15666,10 +15666,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>128</x:v>
@@ -15684,7 +15684,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="G193" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="H193" s="0" t="s">
         <x:v>25</x:v>
@@ -15723,21 +15723,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T193" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="U193" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="V193" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>26</x:v>
@@ -15802,10 +15802,10 @@
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>25</x:v>
@@ -15870,10 +15870,10 @@
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -15938,10 +15938,10 @@
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>25</x:v>
@@ -16006,10 +16006,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -16074,10 +16074,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>25</x:v>
@@ -16142,10 +16142,10 @@
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>25</x:v>
@@ -16210,10 +16210,10 @@
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16278,10 +16278,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16346,10 +16346,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16414,10 +16414,10 @@
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16482,10 +16482,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16550,10 +16550,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16618,10 +16618,10 @@
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16686,10 +16686,10 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>25</x:v>
@@ -16754,10 +16754,10 @@
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>26</x:v>
@@ -16793,7 +16793,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N209" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="O209" s="0" t="s">
         <x:v>25</x:v>
@@ -16817,15 +16817,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V209" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>546</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>25</x:v>
@@ -16890,10 +16890,10 @@
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>25</x:v>
@@ -16958,10 +16958,10 @@
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -17026,10 +17026,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -17094,10 +17094,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -17162,10 +17162,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17230,10 +17230,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17298,10 +17298,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17366,10 +17366,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17434,10 +17434,10 @@
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17502,10 +17502,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17570,10 +17570,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>25</x:v>
@@ -17633,15 +17633,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17701,15 +17701,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V222" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>26</x:v>
@@ -17769,15 +17769,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V223" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -17842,10 +17842,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -17905,15 +17905,15 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="V225" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -17978,10 +17978,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -18046,10 +18046,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>26</x:v>
@@ -18114,10 +18114,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -18182,10 +18182,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18250,10 +18250,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18318,10 +18318,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18386,10 +18386,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18454,10 +18454,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18522,10 +18522,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>25</x:v>
@@ -18590,10 +18590,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>29</x:v>
@@ -18608,7 +18608,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G236" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="H236" s="0" t="s">
         <x:v>25</x:v>
@@ -18617,7 +18617,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="J236" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="K236" s="0" t="s">
         <x:v>25</x:v>
@@ -19469,7 +19469,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V248" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">
@@ -20761,7 +20761,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V267" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -331,6 +331,9 @@
     <x:t>Blue Earth County Sheriff</x:t>
   </x:si>
   <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0070100</x:t>
   </x:si>
   <x:si>
@@ -823,9 +826,6 @@
     <x:t>Edina Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
     <x:t>84</x:t>
   </x:si>
   <x:si>
@@ -1021,7 +1021,7 @@
     <x:t>Metropolitan Transit Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>97</x:t>
+    <x:t>96</x:t>
   </x:si>
   <x:si>
     <x:t>61</x:t>
@@ -1033,7 +1033,7 @@
     <x:t>112</x:t>
   </x:si>
   <x:si>
-    <x:t>497</x:t>
+    <x:t>496</x:t>
   </x:si>
   <x:si>
     <x:t>MN0280000</x:t>
@@ -2147,9 +2147,6 @@
   </x:si>
   <x:si>
     <x:t>Mille Lacs Tribal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
   </x:si>
   <x:si>
     <x:t>MNDI06000</x:t>
@@ -4124,7 +4121,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
         <x:v>25</x:v>
@@ -4142,7 +4139,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="M23" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N23" s="0" t="s">
         <x:v>26</x:v>
@@ -4163,21 +4160,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T23" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U23" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V23" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:22">
       <x:c r="A24" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>25</x:v>
@@ -4192,7 +4189,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
         <x:v>25</x:v>
@@ -4213,7 +4210,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N24" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="O24" s="0" t="s">
         <x:v>25</x:v>
@@ -4237,15 +4234,15 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V24" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:22">
       <x:c r="A25" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>25</x:v>
@@ -4310,10 +4307,10 @@
     </x:row>
     <x:row r="26" spans="1:22">
       <x:c r="A26" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>25</x:v>
@@ -4378,10 +4375,10 @@
     </x:row>
     <x:row r="27" spans="1:22">
       <x:c r="A27" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>25</x:v>
@@ -4446,10 +4443,10 @@
     </x:row>
     <x:row r="28" spans="1:22">
       <x:c r="A28" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>25</x:v>
@@ -4485,7 +4482,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N28" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="O28" s="0" t="s">
         <x:v>25</x:v>
@@ -4514,10 +4511,10 @@
     </x:row>
     <x:row r="29" spans="1:22">
       <x:c r="A29" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>25</x:v>
@@ -4553,7 +4550,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N29" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="O29" s="0" t="s">
         <x:v>26</x:v>
@@ -4577,15 +4574,15 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="V29" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:22">
       <x:c r="A30" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>25</x:v>
@@ -4621,7 +4618,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N30" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="O30" s="0" t="s">
         <x:v>25</x:v>
@@ -4645,15 +4642,15 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V30" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:22">
       <x:c r="A31" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>25</x:v>
@@ -4713,15 +4710,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V31" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:22">
       <x:c r="A32" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>25</x:v>
@@ -4781,15 +4778,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V32" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:22">
       <x:c r="A33" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
         <x:v>25</x:v>
@@ -4854,10 +4851,10 @@
     </x:row>
     <x:row r="34" spans="1:22">
       <x:c r="A34" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>25</x:v>
@@ -4922,10 +4919,10 @@
     </x:row>
     <x:row r="35" spans="1:22">
       <x:c r="A35" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>25</x:v>
@@ -4985,15 +4982,15 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V35" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:22">
       <x:c r="A36" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>25</x:v>
@@ -5058,10 +5055,10 @@
     </x:row>
     <x:row r="37" spans="1:22">
       <x:c r="A37" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>25</x:v>
@@ -5126,10 +5123,10 @@
     </x:row>
     <x:row r="38" spans="1:22">
       <x:c r="A38" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>25</x:v>
@@ -5194,10 +5191,10 @@
     </x:row>
     <x:row r="39" spans="1:22">
       <x:c r="A39" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>25</x:v>
@@ -5257,15 +5254,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V39" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:22">
       <x:c r="A40" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>25</x:v>
@@ -5330,10 +5327,10 @@
     </x:row>
     <x:row r="41" spans="1:22">
       <x:c r="A41" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>25</x:v>
@@ -5398,10 +5395,10 @@
     </x:row>
     <x:row r="42" spans="1:22">
       <x:c r="A42" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>54</x:v>
@@ -5449,7 +5446,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="R42" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="S42" s="0" t="s">
         <x:v>25</x:v>
@@ -5461,15 +5458,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V42" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:22">
       <x:c r="A43" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>25</x:v>
@@ -5534,10 +5531,10 @@
     </x:row>
     <x:row r="44" spans="1:22">
       <x:c r="A44" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>25</x:v>
@@ -5602,10 +5599,10 @@
     </x:row>
     <x:row r="45" spans="1:22">
       <x:c r="A45" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>25</x:v>
@@ -5670,10 +5667,10 @@
     </x:row>
     <x:row r="46" spans="1:22">
       <x:c r="A46" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>25</x:v>
@@ -5738,10 +5735,10 @@
     </x:row>
     <x:row r="47" spans="1:22">
       <x:c r="A47" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>25</x:v>
@@ -5806,10 +5803,10 @@
     </x:row>
     <x:row r="48" spans="1:22">
       <x:c r="A48" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>25</x:v>
@@ -5869,15 +5866,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V48" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:22">
       <x:c r="A49" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>25</x:v>
@@ -5913,7 +5910,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="O49" s="0" t="s">
         <x:v>25</x:v>
@@ -5937,15 +5934,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V49" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:22">
       <x:c r="A50" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>25</x:v>
@@ -6010,10 +6007,10 @@
     </x:row>
     <x:row r="51" spans="1:22">
       <x:c r="A51" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>25</x:v>
@@ -6078,10 +6075,10 @@
     </x:row>
     <x:row r="52" spans="1:22">
       <x:c r="A52" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
         <x:v>25</x:v>
@@ -6146,10 +6143,10 @@
     </x:row>
     <x:row r="53" spans="1:22">
       <x:c r="A53" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
         <x:v>25</x:v>
@@ -6185,7 +6182,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N53" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="O53" s="0" t="s">
         <x:v>24</x:v>
@@ -6209,15 +6206,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V53" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:22">
       <x:c r="A54" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
         <x:v>25</x:v>
@@ -6282,10 +6279,10 @@
     </x:row>
     <x:row r="55" spans="1:22">
       <x:c r="A55" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
         <x:v>25</x:v>
@@ -6350,10 +6347,10 @@
     </x:row>
     <x:row r="56" spans="1:22">
       <x:c r="A56" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>25</x:v>
@@ -6418,10 +6415,10 @@
     </x:row>
     <x:row r="57" spans="1:22">
       <x:c r="A57" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
         <x:v>25</x:v>
@@ -6486,10 +6483,10 @@
     </x:row>
     <x:row r="58" spans="1:22">
       <x:c r="A58" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>25</x:v>
@@ -6546,18 +6543,18 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U58" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="V58" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:22">
       <x:c r="A59" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
         <x:v>25</x:v>
@@ -6622,10 +6619,10 @@
     </x:row>
     <x:row r="60" spans="1:22">
       <x:c r="A60" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>25</x:v>
@@ -6690,10 +6687,10 @@
     </x:row>
     <x:row r="61" spans="1:22">
       <x:c r="A61" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>25</x:v>
@@ -6758,10 +6755,10 @@
     </x:row>
     <x:row r="62" spans="1:22">
       <x:c r="A62" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>26</x:v>
@@ -6826,10 +6823,10 @@
     </x:row>
     <x:row r="63" spans="1:22">
       <x:c r="A63" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
         <x:v>24</x:v>
@@ -6844,7 +6841,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H63" s="0" t="s">
         <x:v>25</x:v>
@@ -6889,15 +6886,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V63" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:22">
       <x:c r="A64" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>25</x:v>
@@ -6957,15 +6954,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V64" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:22">
       <x:c r="A65" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>25</x:v>
@@ -7025,15 +7022,15 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="V65" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:22">
       <x:c r="A66" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>25</x:v>
@@ -7098,10 +7095,10 @@
     </x:row>
     <x:row r="67" spans="1:22">
       <x:c r="A67" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>25</x:v>
@@ -7161,15 +7158,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V67" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:22">
       <x:c r="A68" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>25</x:v>
@@ -7234,10 +7231,10 @@
     </x:row>
     <x:row r="69" spans="1:22">
       <x:c r="A69" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
         <x:v>24</x:v>
@@ -7297,15 +7294,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V69" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:22">
       <x:c r="A70" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>25</x:v>
@@ -7365,15 +7362,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V70" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
       <x:c r="A71" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>25</x:v>
@@ -7438,10 +7435,10 @@
     </x:row>
     <x:row r="72" spans="1:22">
       <x:c r="A72" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>25</x:v>
@@ -7506,10 +7503,10 @@
     </x:row>
     <x:row r="73" spans="1:22">
       <x:c r="A73" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>25</x:v>
@@ -7574,10 +7571,10 @@
     </x:row>
     <x:row r="74" spans="1:22">
       <x:c r="A74" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>25</x:v>
@@ -7642,10 +7639,10 @@
     </x:row>
     <x:row r="75" spans="1:22">
       <x:c r="A75" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>25</x:v>
@@ -7705,15 +7702,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V75" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:22">
       <x:c r="A76" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>25</x:v>
@@ -7728,7 +7725,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
         <x:v>25</x:v>
@@ -7749,7 +7746,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
         <x:v>25</x:v>
@@ -7773,15 +7770,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V76" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:22">
       <x:c r="A77" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>25</x:v>
@@ -7796,7 +7793,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H77" s="0" t="s">
         <x:v>25</x:v>
@@ -7846,10 +7843,10 @@
     </x:row>
     <x:row r="78" spans="1:22">
       <x:c r="A78" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>25</x:v>
@@ -7914,10 +7911,10 @@
     </x:row>
     <x:row r="79" spans="1:22">
       <x:c r="A79" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>25</x:v>
@@ -7932,7 +7929,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H79" s="0" t="s">
         <x:v>25</x:v>
@@ -7953,7 +7950,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N79" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="O79" s="0" t="s">
         <x:v>25</x:v>
@@ -7977,15 +7974,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V79" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:22">
       <x:c r="A80" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>25</x:v>
@@ -8050,10 +8047,10 @@
     </x:row>
     <x:row r="81" spans="1:22">
       <x:c r="A81" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>25</x:v>
@@ -8118,10 +8115,10 @@
     </x:row>
     <x:row r="82" spans="1:22">
       <x:c r="A82" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>25</x:v>
@@ -8186,10 +8183,10 @@
     </x:row>
     <x:row r="83" spans="1:22">
       <x:c r="A83" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>24</x:v>
@@ -8231,7 +8228,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="P83" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="s">
         <x:v>25</x:v>
@@ -8249,27 +8246,27 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V83" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
       <x:c r="A84" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
         <x:v>96</x:v>
@@ -8278,10 +8275,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="J84" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="K84" s="0" t="s">
         <x:v>25</x:v>
@@ -8293,13 +8290,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="O84" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="P84" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="Q84" s="0" t="s">
         <x:v>30</x:v>
@@ -8311,21 +8308,21 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="T84" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="U84" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="V84" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
       <x:c r="A85" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>94</x:v>
@@ -8385,15 +8382,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V85" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
       <x:c r="A86" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>30</x:v>
@@ -8435,7 +8432,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P86" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="Q86" s="0" t="s">
         <x:v>41</x:v>
@@ -8453,15 +8450,15 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V86" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
       <x:c r="A87" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>25</x:v>
@@ -8526,10 +8523,10 @@
     </x:row>
     <x:row r="88" spans="1:22">
       <x:c r="A88" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>25</x:v>
@@ -8594,10 +8591,10 @@
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>24</x:v>
@@ -8612,7 +8609,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G89" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H89" s="0" t="s">
         <x:v>25</x:v>
@@ -8633,7 +8630,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N89" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="O89" s="0" t="s">
         <x:v>25</x:v>
@@ -8861,7 +8858,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V92" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
@@ -8881,7 +8878,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F93" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
         <x:v>281</x:v>
@@ -8890,7 +8887,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I93" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="J93" s="0" t="s">
         <x:v>282</x:v>
@@ -9020,7 +9017,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
         <x:v>25</x:v>
@@ -9313,7 +9310,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N99" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="O99" s="0" t="s">
         <x:v>25</x:v>
@@ -9405,7 +9402,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V100" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
@@ -9505,7 +9502,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J102" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="K102" s="0" t="s">
         <x:v>25</x:v>
@@ -9535,7 +9532,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T102" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="U102" s="0" t="s">
         <x:v>30</x:v>
@@ -9721,7 +9718,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="N105" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="O105" s="0" t="s">
         <x:v>41</x:v>
@@ -9813,7 +9810,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="V106" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:22">
@@ -9863,7 +9860,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="P107" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="Q107" s="0" t="s">
         <x:v>24</x:v>
@@ -10017,7 +10014,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V109" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:22">
@@ -10153,7 +10150,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V111" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:22">
@@ -10309,7 +10306,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F114" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G114" s="0" t="s">
         <x:v>102</x:v>
@@ -10318,7 +10315,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I114" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="J114" s="0" t="s">
         <x:v>335</x:v>
@@ -10525,7 +10522,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J117" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="K117" s="0" t="s">
         <x:v>25</x:v>
@@ -10561,7 +10558,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V117" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
@@ -10697,7 +10694,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V119" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:22">
@@ -10765,7 +10762,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V120" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:22">
@@ -10877,7 +10874,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N122" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="O122" s="0" t="s">
         <x:v>30</x:v>
@@ -11241,7 +11238,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V127" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:22">
@@ -11291,7 +11288,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="P128" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="Q128" s="0" t="s">
         <x:v>25</x:v>
@@ -11353,13 +11350,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="N129" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="O129" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P129" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="Q129" s="0" t="s">
         <x:v>25</x:v>
@@ -11391,7 +11388,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D130" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E130" s="0" t="s">
         <x:v>25</x:v>
@@ -11421,13 +11418,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N130" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="O130" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P130" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="Q130" s="0" t="s">
         <x:v>25</x:v>
@@ -11581,7 +11578,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V132" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
@@ -11785,7 +11782,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V135" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
@@ -11835,7 +11832,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P136" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="Q136" s="0" t="s">
         <x:v>25</x:v>
@@ -11853,7 +11850,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V136" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:22">
@@ -11989,7 +11986,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V138" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
@@ -12329,7 +12326,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V143" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:22">
@@ -12441,7 +12438,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N145" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="O145" s="0" t="s">
         <x:v>25</x:v>
@@ -12669,7 +12666,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V148" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:22">
@@ -12760,7 +12757,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G150" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H150" s="0" t="s">
         <x:v>25</x:v>
@@ -12781,7 +12778,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N150" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="O150" s="0" t="s">
         <x:v>25</x:v>
@@ -12873,7 +12870,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V151" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:22">
@@ -12941,7 +12938,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V152" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:22">
@@ -13263,7 +13260,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P157" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="Q157" s="0" t="s">
         <x:v>25</x:v>
@@ -13281,7 +13278,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V157" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:22">
@@ -13349,7 +13346,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="V158" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:22">
@@ -13529,7 +13526,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N161" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="O161" s="0" t="s">
         <x:v>24</x:v>
@@ -13597,7 +13594,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N162" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="O162" s="0" t="s">
         <x:v>25</x:v>
@@ -13984,7 +13981,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G168" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H168" s="0" t="s">
         <x:v>24</x:v>
@@ -14120,7 +14117,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G170" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="H170" s="0" t="s">
         <x:v>25</x:v>
@@ -14129,7 +14126,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J170" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="K170" s="0" t="s">
         <x:v>26</x:v>
@@ -14215,7 +14212,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="P171" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="Q171" s="0" t="s">
         <x:v>94</x:v>
@@ -14369,7 +14366,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V173" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:22">
@@ -14664,7 +14661,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="G178" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H178" s="0" t="s">
         <x:v>25</x:v>
@@ -14685,7 +14682,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N178" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="O178" s="0" t="s">
         <x:v>25</x:v>
@@ -14777,7 +14774,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V179" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:22">
@@ -14845,7 +14842,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
@@ -14889,7 +14886,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N181" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="O181" s="0" t="s">
         <x:v>25</x:v>
@@ -15276,7 +15273,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G187" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H187" s="0" t="s">
         <x:v>25</x:v>
@@ -15297,7 +15294,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="N187" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="O187" s="0" t="s">
         <x:v>25</x:v>
@@ -15501,7 +15498,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N190" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="O190" s="0" t="s">
         <x:v>25</x:v>
@@ -15637,7 +15634,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N192" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O192" s="0" t="s">
         <x:v>25</x:v>
@@ -15661,7 +15658,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="V192" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:22">
@@ -15672,16 +15669,16 @@
         <x:v>510</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D193" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E193" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F193" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="G193" s="0" t="s">
         <x:v>511</x:v>
@@ -15711,7 +15708,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P193" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="Q193" s="0" t="s">
         <x:v>41</x:v>
@@ -15820,7 +15817,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G195" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H195" s="0" t="s">
         <x:v>25</x:v>
@@ -15865,7 +15862,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V195" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:22">
@@ -15888,7 +15885,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G196" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H196" s="0" t="s">
         <x:v>25</x:v>
@@ -15933,7 +15930,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V196" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:22">
@@ -15983,7 +15980,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P197" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="Q197" s="0" t="s">
         <x:v>41</x:v>
@@ -16181,7 +16178,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N200" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O200" s="0" t="s">
         <x:v>26</x:v>
@@ -16205,7 +16202,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V200" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
@@ -16323,7 +16320,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P202" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="Q202" s="0" t="s">
         <x:v>25</x:v>
@@ -16595,7 +16592,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P206" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="Q206" s="0" t="s">
         <x:v>25</x:v>
@@ -16613,7 +16610,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V206" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:22">
@@ -16811,7 +16808,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="T209" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="U209" s="0" t="s">
         <x:v>26</x:v>
@@ -17157,7 +17154,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V214" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:22">
@@ -17225,7 +17222,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V215" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:22">
@@ -17579,7 +17576,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D221" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E221" s="0" t="s">
         <x:v>25</x:v>
@@ -17627,7 +17624,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="T221" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="U221" s="0" t="s">
         <x:v>26</x:v>
@@ -17665,7 +17662,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J222" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="K222" s="0" t="s">
         <x:v>26</x:v>
@@ -17745,7 +17742,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N223" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="O223" s="0" t="s">
         <x:v>26</x:v>
@@ -17860,7 +17857,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G225" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H225" s="0" t="s">
         <x:v>41</x:v>
@@ -17887,7 +17884,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="P225" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="Q225" s="0" t="s">
         <x:v>25</x:v>
@@ -18017,7 +18014,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N227" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O227" s="0" t="s">
         <x:v>25</x:v>
@@ -18041,7 +18038,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V227" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:22">
@@ -18268,7 +18265,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G231" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H231" s="0" t="s">
         <x:v>25</x:v>
@@ -18313,7 +18310,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V231" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:22">
@@ -18404,7 +18401,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G233" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H233" s="0" t="s">
         <x:v>25</x:v>
@@ -18472,7 +18469,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G234" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H234" s="0" t="s">
         <x:v>25</x:v>
@@ -18517,7 +18514,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V234" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:22">
@@ -18789,7 +18786,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V238" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
@@ -20285,7 +20282,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V260" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:22">
@@ -20308,7 +20305,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G261" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="H261" s="0" t="s">
         <x:v>25</x:v>
@@ -20335,7 +20332,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P261" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="Q261" s="0" t="s">
         <x:v>25</x:v>
@@ -20625,7 +20622,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V265" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="266" spans="1:22">
@@ -20716,7 +20713,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G267" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H267" s="0" t="s">
         <x:v>25</x:v>
@@ -20805,13 +20802,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="N268" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="O268" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="P268" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="Q268" s="0" t="s">
         <x:v>26</x:v>
@@ -20823,7 +20820,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T268" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="U268" s="0" t="s">
         <x:v>26</x:v>
@@ -20852,7 +20849,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G269" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H269" s="0" t="s">
         <x:v>25</x:v>
@@ -20941,7 +20938,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N270" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="O270" s="0" t="s">
         <x:v>25</x:v>
@@ -20965,7 +20962,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V270" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:22">
@@ -21305,7 +21302,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V275" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:22">
@@ -21438,7 +21435,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="U277" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="V277" s="0" t="s">
         <x:v>692</x:v>
@@ -22017,7 +22014,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J286" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="K286" s="0" t="s">
         <x:v>25</x:v>
@@ -22029,7 +22026,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N286" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="O286" s="0" t="s">
         <x:v>25</x:v>
@@ -22053,15 +22050,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V286" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:22">
       <x:c r="A287" s="0" t="s">
+        <x:v>711</x:v>
+      </x:c>
+      <x:c r="B287" s="0" t="s">
         <x:v>712</x:v>
-      </x:c>
-      <x:c r="B287" s="0" t="s">
-        <x:v>713</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
         <x:v>25</x:v>
@@ -22126,10 +22123,10 @@
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="B288" s="0" t="s">
         <x:v>714</x:v>
-      </x:c>
-      <x:c r="B288" s="0" t="s">
-        <x:v>715</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>25</x:v>
@@ -22194,10 +22191,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c r="B289" s="0" t="s">
         <x:v>716</x:v>
-      </x:c>
-      <x:c r="B289" s="0" t="s">
-        <x:v>717</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>25</x:v>
@@ -22257,15 +22254,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V289" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="B290" s="0" t="s">
         <x:v>718</x:v>
-      </x:c>
-      <x:c r="B290" s="0" t="s">
-        <x:v>719</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>25</x:v>
@@ -22301,7 +22298,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N290" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O290" s="0" t="s">
         <x:v>25</x:v>
@@ -22319,21 +22316,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T290" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="U290" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V290" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c r="B291" s="0" t="s">
         <x:v>720</x:v>
-      </x:c>
-      <x:c r="B291" s="0" t="s">
-        <x:v>721</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>25</x:v>
@@ -22398,10 +22395,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c r="B292" s="0" t="s">
         <x:v>722</x:v>
-      </x:c>
-      <x:c r="B292" s="0" t="s">
-        <x:v>723</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>25</x:v>
@@ -22416,7 +22413,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G292" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H292" s="0" t="s">
         <x:v>25</x:v>
@@ -22461,15 +22458,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V292" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>723</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="B293" s="0" t="s">
         <x:v>725</x:v>
-      </x:c>
-      <x:c r="B293" s="0" t="s">
-        <x:v>726</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>25</x:v>
@@ -22534,10 +22531,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="B294" s="0" t="s">
         <x:v>727</x:v>
-      </x:c>
-      <x:c r="B294" s="0" t="s">
-        <x:v>728</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>25</x:v>
@@ -22573,7 +22570,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N294" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="O294" s="0" t="s">
         <x:v>25</x:v>
@@ -22597,15 +22594,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V294" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c r="B295" s="0" t="s">
         <x:v>729</x:v>
-      </x:c>
-      <x:c r="B295" s="0" t="s">
-        <x:v>730</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>25</x:v>
@@ -22641,7 +22638,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N295" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="O295" s="0" t="s">
         <x:v>25</x:v>
@@ -22670,10 +22667,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c r="B296" s="0" t="s">
         <x:v>731</x:v>
-      </x:c>
-      <x:c r="B296" s="0" t="s">
-        <x:v>732</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>25</x:v>
@@ -22733,15 +22730,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V296" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="B297" s="0" t="s">
         <x:v>733</x:v>
-      </x:c>
-      <x:c r="B297" s="0" t="s">
-        <x:v>734</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -22806,10 +22803,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
+        <x:v>734</x:v>
+      </x:c>
+      <x:c r="B298" s="0" t="s">
         <x:v>735</x:v>
-      </x:c>
-      <x:c r="B298" s="0" t="s">
-        <x:v>736</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>25</x:v>
@@ -22869,15 +22866,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V298" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
+        <x:v>736</x:v>
+      </x:c>
+      <x:c r="B299" s="0" t="s">
         <x:v>737</x:v>
-      </x:c>
-      <x:c r="B299" s="0" t="s">
-        <x:v>738</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>25</x:v>
@@ -22937,15 +22934,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V299" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
+        <x:v>738</x:v>
+      </x:c>
+      <x:c r="B300" s="0" t="s">
         <x:v>739</x:v>
-      </x:c>
-      <x:c r="B300" s="0" t="s">
-        <x:v>740</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -346,714 +346,717 @@
     <x:t>67</x:t>
   </x:si>
   <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Ulm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cloquet Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chaska Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walker Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Branch Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wyoming Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakes Area Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dilworth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hawley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moorhead Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glyndon Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bagley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0160000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windom Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brainerd Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosby Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breezy Point Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosslake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baxter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nisswa Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burnsville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farmington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hastings Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mendota Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemount Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inver Grove Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakeville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alexandria Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wells Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0230400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Preston Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albert Lea Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cannon Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Wing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kenyon Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zumbrota Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0260000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bloomington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>727</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Center Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deephaven Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Lake Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Golden Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hopkins Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minneapolis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Hope Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orono Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osseo Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plymouth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Richfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbinsdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Anthony Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wayzata Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University of MN Police Dept - Minneapolis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Airport Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eden Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maple Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetrista Public Safety Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Champlin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corcoran Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rogers Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West Hennepin Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Three Rivers Park District Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Transit Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>496</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Crescent Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard County Sheriff</x:t>
+  </x:si>
+  <x:si>
     <x:t>184</x:t>
   </x:si>
   <x:si>
-    <x:t>MN0070500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brown County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Ulm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cloquet Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chaska Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Walker Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Branch Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wyoming Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakes Area Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dilworth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hawley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moorhead Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glyndon Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bagley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0160000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windom Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brainerd Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosby Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breezy Point Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosslake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baxter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nisswa Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burnsville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farmington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hastings Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mendota Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rosemount Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inver Grove Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakeville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alexandria Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wells Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0230400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Preston Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Albert Lea Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cannon Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Wing Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kenyon Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zumbrota Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0260000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bloomington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>727</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deephaven Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South Lake Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Golden Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hopkins Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minneapolis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Hope Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orono Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osseo Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plymouth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Richfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbinsdale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Anthony Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wayzata Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of MN Police Dept - Minneapolis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Airport Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eden Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maple Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetrista Public Safety Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Champlin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corcoran Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rogers Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West Hennepin Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Three Rivers Park District Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Transit Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>496</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Crescent Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard County Sheriff</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0290100</x:t>
   </x:si>
   <x:si>
@@ -1729,7 +1732,7 @@
     <x:t>Shakopee Police Dept</x:t>
   </x:si>
   <x:si>
-    <x:t>216</x:t>
+    <x:t>215</x:t>
   </x:si>
   <x:si>
     <x:t>MN0700600</x:t>
@@ -4180,7 +4183,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>25</x:v>
@@ -4198,7 +4201,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J24" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="K24" s="0" t="s">
         <x:v>26</x:v>
@@ -10558,15 +10561,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V117" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>25</x:v>
@@ -10631,10 +10634,10 @@
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10699,10 +10702,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>26</x:v>
@@ -10767,10 +10770,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10835,10 +10838,10 @@
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -10903,10 +10906,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>25</x:v>
@@ -10971,10 +10974,10 @@
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -11039,10 +11042,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -11107,10 +11110,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -11175,10 +11178,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11243,10 +11246,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11306,15 +11309,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V128" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11374,15 +11377,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V129" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11442,15 +11445,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V130" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11515,10 +11518,10 @@
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>25</x:v>
@@ -11583,10 +11586,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11651,10 +11654,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>25</x:v>
@@ -11719,10 +11722,10 @@
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11787,10 +11790,10 @@
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -11855,10 +11858,10 @@
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -11923,10 +11926,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -11991,10 +11994,10 @@
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -12059,10 +12062,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -12127,10 +12130,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12195,10 +12198,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12263,10 +12266,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12331,10 +12334,10 @@
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12399,10 +12402,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12467,10 +12470,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12535,10 +12538,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12603,10 +12606,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12671,10 +12674,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12739,10 +12742,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>25</x:v>
@@ -12807,10 +12810,10 @@
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -12875,10 +12878,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -12943,10 +12946,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -13006,15 +13009,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V153" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>25</x:v>
@@ -13079,10 +13082,10 @@
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>25</x:v>
@@ -13147,10 +13150,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13215,10 +13218,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>25</x:v>
@@ -13283,10 +13286,10 @@
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13351,10 +13354,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>25</x:v>
@@ -13419,10 +13422,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>25</x:v>
@@ -13487,10 +13490,10 @@
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13555,10 +13558,10 @@
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13618,15 +13621,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V162" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13691,10 +13694,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13759,10 +13762,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13827,10 +13830,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -13895,10 +13898,10 @@
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -13963,10 +13966,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>94</x:v>
@@ -14002,7 +14005,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N168" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="O168" s="0" t="s">
         <x:v>30</x:v>
@@ -14026,15 +14029,15 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V168" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -14099,10 +14102,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -14167,10 +14170,10 @@
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>27</x:v>
@@ -14230,15 +14233,15 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V171" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14303,10 +14306,10 @@
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14371,10 +14374,10 @@
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14439,10 +14442,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>25</x:v>
@@ -14507,10 +14510,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>25</x:v>
@@ -14575,10 +14578,10 @@
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>25</x:v>
@@ -14643,10 +14646,10 @@
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>26</x:v>
@@ -14706,15 +14709,15 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V178" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>25</x:v>
@@ -14779,10 +14782,10 @@
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>25</x:v>
@@ -14847,10 +14850,10 @@
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>25</x:v>
@@ -14910,15 +14913,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V181" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -14978,15 +14981,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V182" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -15051,10 +15054,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -15119,10 +15122,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15187,10 +15190,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15255,10 +15258,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>28</x:v>
@@ -15318,15 +15321,15 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="V187" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>41</x:v>
@@ -15386,15 +15389,15 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="V188" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>24</x:v>
@@ -15459,10 +15462,10 @@
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15527,10 +15530,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>26</x:v>
@@ -15595,10 +15598,10 @@
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>24</x:v>
@@ -15663,10 +15666,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>129</x:v>
@@ -15681,7 +15684,7 @@
         <x:v>239</x:v>
       </x:c>
       <x:c r="G193" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="H193" s="0" t="s">
         <x:v>25</x:v>
@@ -15720,21 +15723,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T193" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="U193" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="V193" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>26</x:v>
@@ -15799,10 +15802,10 @@
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>25</x:v>
@@ -15867,10 +15870,10 @@
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -15935,10 +15938,10 @@
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>25</x:v>
@@ -16003,10 +16006,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -16071,10 +16074,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>25</x:v>
@@ -16139,10 +16142,10 @@
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>25</x:v>
@@ -16207,10 +16210,10 @@
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16275,10 +16278,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16343,10 +16346,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16411,10 +16414,10 @@
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16479,10 +16482,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16547,10 +16550,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16615,10 +16618,10 @@
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16683,10 +16686,10 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>25</x:v>
@@ -16751,10 +16754,10 @@
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>26</x:v>
@@ -16790,7 +16793,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N209" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="O209" s="0" t="s">
         <x:v>25</x:v>
@@ -16814,15 +16817,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V209" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>547</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>25</x:v>
@@ -16887,10 +16890,10 @@
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>25</x:v>
@@ -16955,10 +16958,10 @@
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -17023,10 +17026,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -17091,10 +17094,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -17159,10 +17162,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17227,10 +17230,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17295,10 +17298,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17363,10 +17366,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17431,10 +17434,10 @@
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17499,10 +17502,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17567,10 +17570,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>25</x:v>
@@ -17585,7 +17588,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="G221" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H221" s="0" t="s">
         <x:v>25</x:v>
@@ -17630,15 +17633,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17698,15 +17701,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V222" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>26</x:v>
@@ -17766,15 +17769,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V223" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -17839,10 +17842,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -17902,15 +17905,15 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="V225" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -17975,10 +17978,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -18043,10 +18046,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>26</x:v>
@@ -18111,10 +18114,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -18179,10 +18182,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18247,10 +18250,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18315,10 +18318,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18383,10 +18386,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18451,10 +18454,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18519,10 +18522,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>25</x:v>
@@ -18587,10 +18590,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>29</x:v>
@@ -18605,7 +18608,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G236" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="H236" s="0" t="s">
         <x:v>25</x:v>
@@ -18632,7 +18635,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="P236" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="Q236" s="0" t="s">
         <x:v>49</x:v>
@@ -18650,15 +18653,15 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="V236" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>606</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18723,10 +18726,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>25</x:v>
@@ -18791,10 +18794,10 @@
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -18859,10 +18862,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -18927,10 +18930,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>25</x:v>
@@ -18995,10 +18998,10 @@
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>25</x:v>
@@ -19063,10 +19066,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>25</x:v>
@@ -19131,10 +19134,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -19199,10 +19202,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>25</x:v>
@@ -19267,10 +19270,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19335,10 +19338,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>25</x:v>
@@ -19403,10 +19406,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>30</x:v>
@@ -19466,15 +19469,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V248" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>25</x:v>
@@ -19539,10 +19542,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19607,10 +19610,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19675,10 +19678,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19743,10 +19746,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19811,10 +19814,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -19879,10 +19882,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -19947,10 +19950,10 @@
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>25</x:v>
@@ -20015,10 +20018,10 @@
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -20083,10 +20086,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -20151,10 +20154,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20219,10 +20222,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20287,10 +20290,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20350,15 +20353,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V261" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>25</x:v>
@@ -20423,10 +20426,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20491,10 +20494,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20559,10 +20562,10 @@
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20627,10 +20630,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>24</x:v>
@@ -20695,10 +20698,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20758,15 +20761,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V267" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>30</x:v>
@@ -20826,15 +20829,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V268" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20899,10 +20902,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20967,10 +20970,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -21035,10 +21038,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -21103,10 +21106,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -21171,10 +21174,10 @@
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21239,10 +21242,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21307,10 +21310,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21375,10 +21378,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21393,7 +21396,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G277" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="H277" s="0" t="s">
         <x:v>25</x:v>
@@ -21414,7 +21417,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="N277" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="O277" s="0" t="s">
         <x:v>41</x:v>
@@ -21438,15 +21441,15 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="V277" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>693</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>
@@ -21511,10 +21514,10 @@
     </x:row>
     <x:row r="279" spans="1:22">
       <x:c r="A279" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="B279" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="C279" s="0" t="s">
         <x:v>25</x:v>
@@ -21579,10 +21582,10 @@
     </x:row>
     <x:row r="280" spans="1:22">
       <x:c r="A280" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="B280" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
         <x:v>25</x:v>
@@ -21647,10 +21650,10 @@
     </x:row>
     <x:row r="281" spans="1:22">
       <x:c r="A281" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="B281" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
         <x:v>25</x:v>
@@ -21715,10 +21718,10 @@
     </x:row>
     <x:row r="282" spans="1:22">
       <x:c r="A282" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="B282" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
         <x:v>25</x:v>
@@ -21783,10 +21786,10 @@
     </x:row>
     <x:row r="283" spans="1:22">
       <x:c r="A283" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B283" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="C283" s="0" t="s">
         <x:v>25</x:v>
@@ -21851,10 +21854,10 @@
     </x:row>
     <x:row r="284" spans="1:22">
       <x:c r="A284" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="B284" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
         <x:v>26</x:v>
@@ -21919,10 +21922,10 @@
     </x:row>
     <x:row r="285" spans="1:22">
       <x:c r="A285" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="B285" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="C285" s="0" t="s">
         <x:v>25</x:v>
@@ -21987,10 +21990,10 @@
     </x:row>
     <x:row r="286" spans="1:22">
       <x:c r="A286" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="B286" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="C286" s="0" t="s">
         <x:v>24</x:v>
@@ -22055,10 +22058,10 @@
     </x:row>
     <x:row r="287" spans="1:22">
       <x:c r="A287" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="B287" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
         <x:v>25</x:v>
@@ -22123,10 +22126,10 @@
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="B288" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>25</x:v>
@@ -22191,10 +22194,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="B289" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>25</x:v>
@@ -22259,10 +22262,10 @@
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="B290" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>25</x:v>
@@ -22327,10 +22330,10 @@
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="B291" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>25</x:v>
@@ -22395,10 +22398,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="B292" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>25</x:v>
@@ -22458,15 +22461,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V292" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="B293" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>25</x:v>
@@ -22531,10 +22534,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="B294" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>25</x:v>
@@ -22599,10 +22602,10 @@
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="B295" s="0" t="s">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>25</x:v>
@@ -22667,10 +22670,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
-        <x:v>730</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="B296" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>25</x:v>
@@ -22735,10 +22738,10 @@
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="B297" s="0" t="s">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -22803,10 +22806,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="B298" s="0" t="s">
-        <x:v>735</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>25</x:v>
@@ -22871,10 +22874,10 @@
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B299" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>25</x:v>
@@ -22939,10 +22942,10 @@
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="B300" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -1030,10 +1030,10 @@
     <x:t>70</x:t>
   </x:si>
   <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>496</x:t>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>494</x:t>
   </x:si>
   <x:si>
     <x:t>MN0280000</x:t>
@@ -1985,9 +1985,6 @@
   </x:si>
   <x:si>
     <x:t>Washington County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
   </x:si>
   <x:si>
     <x:t>MN0820100</x:t>
@@ -20353,15 +20350,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V261" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
         <x:v>658</x:v>
-      </x:c>
-      <x:c r="B262" s="0" t="s">
-        <x:v>659</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>25</x:v>
@@ -20426,10 +20423,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
         <x:v>660</x:v>
-      </x:c>
-      <x:c r="B263" s="0" t="s">
-        <x:v>661</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20494,10 +20491,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
+        <x:v>661</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
         <x:v>662</x:v>
-      </x:c>
-      <x:c r="B264" s="0" t="s">
-        <x:v>663</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20562,10 +20559,10 @@
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
+        <x:v>663</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
         <x:v>664</x:v>
-      </x:c>
-      <x:c r="B265" s="0" t="s">
-        <x:v>665</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20630,10 +20627,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
+        <x:v>665</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
         <x:v>666</x:v>
-      </x:c>
-      <x:c r="B266" s="0" t="s">
-        <x:v>667</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>24</x:v>
@@ -20698,10 +20695,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
         <x:v>668</x:v>
-      </x:c>
-      <x:c r="B267" s="0" t="s">
-        <x:v>669</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20766,10 +20763,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="B268" s="0" t="s">
         <x:v>670</x:v>
-      </x:c>
-      <x:c r="B268" s="0" t="s">
-        <x:v>671</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>30</x:v>
@@ -20829,15 +20826,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V268" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>671</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
         <x:v>673</x:v>
-      </x:c>
-      <x:c r="B269" s="0" t="s">
-        <x:v>674</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20902,10 +20899,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
         <x:v>675</x:v>
-      </x:c>
-      <x:c r="B270" s="0" t="s">
-        <x:v>676</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20970,10 +20967,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
         <x:v>677</x:v>
-      </x:c>
-      <x:c r="B271" s="0" t="s">
-        <x:v>678</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -21038,10 +21035,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
         <x:v>679</x:v>
-      </x:c>
-      <x:c r="B272" s="0" t="s">
-        <x:v>680</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -21106,10 +21103,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="B273" s="0" t="s">
         <x:v>681</x:v>
-      </x:c>
-      <x:c r="B273" s="0" t="s">
-        <x:v>682</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -21174,10 +21171,10 @@
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="B274" s="0" t="s">
         <x:v>683</x:v>
-      </x:c>
-      <x:c r="B274" s="0" t="s">
-        <x:v>684</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21242,10 +21239,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="B275" s="0" t="s">
         <x:v>685</x:v>
-      </x:c>
-      <x:c r="B275" s="0" t="s">
-        <x:v>686</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21310,10 +21307,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="B276" s="0" t="s">
         <x:v>687</x:v>
-      </x:c>
-      <x:c r="B276" s="0" t="s">
-        <x:v>688</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21378,10 +21375,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="B277" s="0" t="s">
         <x:v>689</x:v>
-      </x:c>
-      <x:c r="B277" s="0" t="s">
-        <x:v>690</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21396,7 +21393,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G277" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="H277" s="0" t="s">
         <x:v>25</x:v>
@@ -21417,7 +21414,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="N277" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="O277" s="0" t="s">
         <x:v>41</x:v>
@@ -21441,15 +21438,15 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="V277" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>692</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="B278" s="0" t="s">
         <x:v>694</x:v>
-      </x:c>
-      <x:c r="B278" s="0" t="s">
-        <x:v>695</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>
@@ -21514,10 +21511,10 @@
     </x:row>
     <x:row r="279" spans="1:22">
       <x:c r="A279" s="0" t="s">
+        <x:v>695</x:v>
+      </x:c>
+      <x:c r="B279" s="0" t="s">
         <x:v>696</x:v>
-      </x:c>
-      <x:c r="B279" s="0" t="s">
-        <x:v>697</x:v>
       </x:c>
       <x:c r="C279" s="0" t="s">
         <x:v>25</x:v>
@@ -21582,10 +21579,10 @@
     </x:row>
     <x:row r="280" spans="1:22">
       <x:c r="A280" s="0" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="B280" s="0" t="s">
         <x:v>698</x:v>
-      </x:c>
-      <x:c r="B280" s="0" t="s">
-        <x:v>699</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
         <x:v>25</x:v>
@@ -21650,10 +21647,10 @@
     </x:row>
     <x:row r="281" spans="1:22">
       <x:c r="A281" s="0" t="s">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="B281" s="0" t="s">
         <x:v>700</x:v>
-      </x:c>
-      <x:c r="B281" s="0" t="s">
-        <x:v>701</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
         <x:v>25</x:v>
@@ -21718,10 +21715,10 @@
     </x:row>
     <x:row r="282" spans="1:22">
       <x:c r="A282" s="0" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="B282" s="0" t="s">
         <x:v>702</x:v>
-      </x:c>
-      <x:c r="B282" s="0" t="s">
-        <x:v>703</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
         <x:v>25</x:v>
@@ -21786,10 +21783,10 @@
     </x:row>
     <x:row r="283" spans="1:22">
       <x:c r="A283" s="0" t="s">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="B283" s="0" t="s">
         <x:v>704</x:v>
-      </x:c>
-      <x:c r="B283" s="0" t="s">
-        <x:v>705</x:v>
       </x:c>
       <x:c r="C283" s="0" t="s">
         <x:v>25</x:v>
@@ -21854,10 +21851,10 @@
     </x:row>
     <x:row r="284" spans="1:22">
       <x:c r="A284" s="0" t="s">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c r="B284" s="0" t="s">
         <x:v>706</x:v>
-      </x:c>
-      <x:c r="B284" s="0" t="s">
-        <x:v>707</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
         <x:v>26</x:v>
@@ -21922,10 +21919,10 @@
     </x:row>
     <x:row r="285" spans="1:22">
       <x:c r="A285" s="0" t="s">
+        <x:v>707</x:v>
+      </x:c>
+      <x:c r="B285" s="0" t="s">
         <x:v>708</x:v>
-      </x:c>
-      <x:c r="B285" s="0" t="s">
-        <x:v>709</x:v>
       </x:c>
       <x:c r="C285" s="0" t="s">
         <x:v>25</x:v>
@@ -21990,10 +21987,10 @@
     </x:row>
     <x:row r="286" spans="1:22">
       <x:c r="A286" s="0" t="s">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c r="B286" s="0" t="s">
         <x:v>710</x:v>
-      </x:c>
-      <x:c r="B286" s="0" t="s">
-        <x:v>711</x:v>
       </x:c>
       <x:c r="C286" s="0" t="s">
         <x:v>24</x:v>
@@ -22058,10 +22055,10 @@
     </x:row>
     <x:row r="287" spans="1:22">
       <x:c r="A287" s="0" t="s">
+        <x:v>711</x:v>
+      </x:c>
+      <x:c r="B287" s="0" t="s">
         <x:v>712</x:v>
-      </x:c>
-      <x:c r="B287" s="0" t="s">
-        <x:v>713</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
         <x:v>25</x:v>
@@ -22126,10 +22123,10 @@
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="B288" s="0" t="s">
         <x:v>714</x:v>
-      </x:c>
-      <x:c r="B288" s="0" t="s">
-        <x:v>715</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>25</x:v>
@@ -22194,10 +22191,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c r="B289" s="0" t="s">
         <x:v>716</x:v>
-      </x:c>
-      <x:c r="B289" s="0" t="s">
-        <x:v>717</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>25</x:v>
@@ -22262,10 +22259,10 @@
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="B290" s="0" t="s">
         <x:v>718</x:v>
-      </x:c>
-      <x:c r="B290" s="0" t="s">
-        <x:v>719</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>25</x:v>
@@ -22330,10 +22327,10 @@
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c r="B291" s="0" t="s">
         <x:v>720</x:v>
-      </x:c>
-      <x:c r="B291" s="0" t="s">
-        <x:v>721</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>25</x:v>
@@ -22398,10 +22395,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c r="B292" s="0" t="s">
         <x:v>722</x:v>
-      </x:c>
-      <x:c r="B292" s="0" t="s">
-        <x:v>723</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>25</x:v>
@@ -22461,15 +22458,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V292" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>723</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="B293" s="0" t="s">
         <x:v>725</x:v>
-      </x:c>
-      <x:c r="B293" s="0" t="s">
-        <x:v>726</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>25</x:v>
@@ -22534,10 +22531,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="B294" s="0" t="s">
         <x:v>727</x:v>
-      </x:c>
-      <x:c r="B294" s="0" t="s">
-        <x:v>728</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>25</x:v>
@@ -22602,10 +22599,10 @@
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c r="B295" s="0" t="s">
         <x:v>729</x:v>
-      </x:c>
-      <x:c r="B295" s="0" t="s">
-        <x:v>730</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>25</x:v>
@@ -22670,10 +22667,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c r="B296" s="0" t="s">
         <x:v>731</x:v>
-      </x:c>
-      <x:c r="B296" s="0" t="s">
-        <x:v>732</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>25</x:v>
@@ -22738,10 +22735,10 @@
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="B297" s="0" t="s">
         <x:v>733</x:v>
-      </x:c>
-      <x:c r="B297" s="0" t="s">
-        <x:v>734</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -22806,10 +22803,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
+        <x:v>734</x:v>
+      </x:c>
+      <x:c r="B298" s="0" t="s">
         <x:v>735</x:v>
-      </x:c>
-      <x:c r="B298" s="0" t="s">
-        <x:v>736</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>25</x:v>
@@ -22874,10 +22871,10 @@
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
+        <x:v>736</x:v>
+      </x:c>
+      <x:c r="B299" s="0" t="s">
         <x:v>737</x:v>
-      </x:c>
-      <x:c r="B299" s="0" t="s">
-        <x:v>738</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>25</x:v>
@@ -22942,10 +22939,10 @@
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
+        <x:v>738</x:v>
+      </x:c>
+      <x:c r="B300" s="0" t="s">
         <x:v>739</x:v>
-      </x:c>
-      <x:c r="B300" s="0" t="s">
-        <x:v>740</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -1021,1132 +1021,1138 @@
     <x:t>Metropolitan Transit Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Crescent Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Park Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cambridge Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coleraine Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keewatin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deer River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0320000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0330000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willmar Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>International Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silver Bay Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Harbors Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Center Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Montgomery Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waterville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glencoe Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hutchinson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brownton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lester Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0440000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fairmont Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Litchfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Milaca Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Princeton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isle Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Little Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Royalton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0510000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Mankato Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Peter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Worthington Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0540000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0550000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0550100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rochester Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fergus Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New York Mills Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0560800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parkers Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0570000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0570100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thief River Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0580000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0590000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crookston Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>East Grand Forks Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0600300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fosston Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0610000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0610100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glenwood Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0610200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Starbuck Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maplewood Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mounds View Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Brighton Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0620900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0621000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>White Bear Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0640000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0640200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hector Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olivia Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Northfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dundas Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0670000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rock County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0680000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Babbitt Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisholm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duluth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ely Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eveleth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gilbert Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hibbing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Virginia Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hermantown Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University of MN Police Dept - Duluth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belle Plaine Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jordan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Prague Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shakopee Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Savage Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prior Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0701000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elko New Market Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Big Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elk River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arlington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gaylord Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winthrop Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stearns County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cold Spring / Richmond Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Paynesville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Cloud Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sauk Centre Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waite Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belgrade Brooten Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0731100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Joseph Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0731200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sartell Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0731600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avon Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0740000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steele County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0740100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Owatonna Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0740200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blooming Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0750000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stevens County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0760200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0770000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Todd County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0770100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Long Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0770200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Staples Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0780000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Traverse County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0790000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wabasha County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0790100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake City Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0790200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plainview Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0790300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wabasha Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0800000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wadena County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0800100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wadena Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0810000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waseca County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0810100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Janesville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0810300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waseca Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Washington County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bayport Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Forest Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Paul Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stillwater Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottage Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0820800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oakdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0821100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Woodbury Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0821400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oak Park Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0830000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Watonwan County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0830200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St James Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0840000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wilkin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0840100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breckenridge Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0850000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winona County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0850200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winona Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0850300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodview Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0860000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wright County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0860100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Buffalo Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0860400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Howard Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0860600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Annandale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0870000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yellow Medicine County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0870200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Granite Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MNCON0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN Dept of Natural Resources - Enforcement Division</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MNDI01900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>White Earth Tribal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MNDI02300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upper Sioux Community Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MNDI02400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs Tribal Police Dept</x:t>
+  </x:si>
+  <x:si>
     <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Crescent Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Park Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cambridge Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coleraine Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grand Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Keewatin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deer River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0320000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0330000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willmar Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>International Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Silver Bay Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Harbors Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Montgomery Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waterville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glencoe Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hutchinson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brownton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lester Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0440000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fairmont Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Litchfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Milaca Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Princeton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isle Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Little Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Royalton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Austin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0510000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Mankato Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Peter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Worthington Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0540000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0550000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0550100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rochester Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fergus Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New York Mills Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0560800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parkers Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0570000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0570100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thief River Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0580000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0590000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crookston Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>East Grand Forks Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0600300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fosston Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0610000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0610100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glenwood Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0610200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Starbuck Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maplewood Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mounds View Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Brighton Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0620900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>546</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0621000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>White Bear Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0640000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0640200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hector Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olivia Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Northfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dundas Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0670000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rock County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0680000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Babbitt Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisholm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Duluth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ely Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eveleth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gilbert Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hibbing Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Virginia Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hermantown Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of MN Police Dept - Duluth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Belle Plaine Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jordan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Prague Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shakopee Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Savage Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prior Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0701000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elko New Market Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Big Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elk River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sibley County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arlington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gaylord Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winthrop Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stearns County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cold Spring / Richmond Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Paynesville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Cloud Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>373</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sauk Centre Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waite Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Belgrade Brooten Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0731100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Joseph Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0731200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sartell Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0731600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Avon Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0740000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steele County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0740100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Owatonna Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0740200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blooming Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0750000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stevens County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0760200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0770000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Todd County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0770100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Long Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0770200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Staples Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0780000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Traverse County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0790000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wabasha County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0790100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake City Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0790200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plainview Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0790300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wabasha Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0800000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wadena County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0800100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wadena Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0810000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waseca County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0810100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Janesville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0810300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waseca Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Washington County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bayport Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Forest Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Paul Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stillwater Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottage Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0820800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oakdale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0821100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Woodbury Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0821400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oak Park Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0830000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Watonwan County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0830200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St James Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0840000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wilkin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0840100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breckenridge Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0850000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winona County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0850200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winona Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0850300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodview Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0860000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wright County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0860100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Buffalo Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0860400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Howard Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0860600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Annandale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0870000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yellow Medicine County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0870200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Granite Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MNCON0000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN Dept of Natural Resources - Enforcement Division</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MNDI01900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>White Earth Tribal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MNDI02300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upper Sioux Community Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MNDI02400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs Tribal Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MNDI06000</x:t>
@@ -20350,15 +20356,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V261" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>657</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>25</x:v>
@@ -20423,10 +20429,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20491,10 +20497,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20559,10 +20565,10 @@
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20627,10 +20633,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>24</x:v>
@@ -20695,10 +20701,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20763,10 +20769,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>30</x:v>
@@ -20826,15 +20832,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V268" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20899,10 +20905,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20967,10 +20973,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -21035,10 +21041,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -21103,10 +21109,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -21171,10 +21177,10 @@
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21239,10 +21245,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21307,10 +21313,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21375,10 +21381,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21393,7 +21399,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G277" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="H277" s="0" t="s">
         <x:v>25</x:v>
@@ -21414,7 +21420,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="N277" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="O277" s="0" t="s">
         <x:v>41</x:v>
@@ -21438,15 +21444,15 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="V277" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>693</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>
@@ -21511,10 +21517,10 @@
     </x:row>
     <x:row r="279" spans="1:22">
       <x:c r="A279" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="B279" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="C279" s="0" t="s">
         <x:v>25</x:v>
@@ -21579,10 +21585,10 @@
     </x:row>
     <x:row r="280" spans="1:22">
       <x:c r="A280" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="B280" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
         <x:v>25</x:v>
@@ -21647,10 +21653,10 @@
     </x:row>
     <x:row r="281" spans="1:22">
       <x:c r="A281" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="B281" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
         <x:v>25</x:v>
@@ -21715,10 +21721,10 @@
     </x:row>
     <x:row r="282" spans="1:22">
       <x:c r="A282" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="B282" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
         <x:v>25</x:v>
@@ -21783,10 +21789,10 @@
     </x:row>
     <x:row r="283" spans="1:22">
       <x:c r="A283" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B283" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="C283" s="0" t="s">
         <x:v>25</x:v>
@@ -21851,10 +21857,10 @@
     </x:row>
     <x:row r="284" spans="1:22">
       <x:c r="A284" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="B284" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
         <x:v>26</x:v>
@@ -21919,10 +21925,10 @@
     </x:row>
     <x:row r="285" spans="1:22">
       <x:c r="A285" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="B285" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="C285" s="0" t="s">
         <x:v>25</x:v>
@@ -21987,10 +21993,10 @@
     </x:row>
     <x:row r="286" spans="1:22">
       <x:c r="A286" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="B286" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="C286" s="0" t="s">
         <x:v>24</x:v>
@@ -22050,15 +22056,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V286" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>712</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:22">
       <x:c r="A287" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="B287" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
         <x:v>25</x:v>
@@ -22123,10 +22129,10 @@
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="B288" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>25</x:v>
@@ -22191,10 +22197,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="B289" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>25</x:v>
@@ -22259,10 +22265,10 @@
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="B290" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>25</x:v>
@@ -22327,10 +22333,10 @@
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="B291" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>25</x:v>
@@ -22395,10 +22401,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="B292" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>25</x:v>
@@ -22458,15 +22464,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V292" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>725</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="B293" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>25</x:v>
@@ -22531,10 +22537,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="B294" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>25</x:v>
@@ -22599,10 +22605,10 @@
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
-        <x:v>728</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="B295" s="0" t="s">
-        <x:v>729</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>25</x:v>
@@ -22667,10 +22673,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
-        <x:v>730</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="B296" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>25</x:v>
@@ -22735,10 +22741,10 @@
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
-        <x:v>732</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="B297" s="0" t="s">
-        <x:v>733</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -22803,10 +22809,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
-        <x:v>734</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="B298" s="0" t="s">
-        <x:v>735</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>25</x:v>
@@ -22871,10 +22877,10 @@
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="B299" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>25</x:v>
@@ -22939,10 +22945,10 @@
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="B300" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -760,642 +760,642 @@
     <x:t>Hennepin County Sheriff</x:t>
   </x:si>
   <x:si>
+    <x:t>136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bloomington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>727</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Center Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deephaven Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Lake Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Golden Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hopkins Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minneapolis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Hope Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orono Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osseo Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plymouth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Richfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbinsdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Anthony Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wayzata Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University of MN Police Dept - Minneapolis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Airport Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eden Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maple Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetrista Public Safety Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Champlin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corcoran Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rogers Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West Hennepin Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Three Rivers Park District Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Transit Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Crescent Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Park Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cambridge Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coleraine Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keewatin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deer River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0320000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0330000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willmar Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>International Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silver Bay Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Harbors Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Center Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Montgomery Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waterville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0420100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glencoe Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hutchinson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brownton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0430400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lester Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0440000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0460100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fairmont Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0470100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Litchfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Milaca Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Princeton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0480300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isle Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Little Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0490500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Royalton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0500100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Austin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0510000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Mankato Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0520200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Peter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0530100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Worthington Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0540000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0550000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted County Sheriff</x:t>
+  </x:si>
+  <x:si>
     <x:t>40</x:t>
   </x:si>
   <x:si>
-    <x:t>135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bloomington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>727</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deephaven Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South Lake Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Golden Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hopkins Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minneapolis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Hope Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orono Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osseo Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plymouth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Richfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbinsdale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Anthony Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wayzata Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of MN Police Dept - Minneapolis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Airport Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eden Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maple Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetrista Public Safety Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Champlin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corcoran Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rogers Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West Hennepin Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Three Rivers Park District Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Transit Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>493</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Crescent Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Park Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cambridge Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coleraine Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grand Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Keewatin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deer River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0320000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0330000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willmar Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>International Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Silver Bay Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Harbors Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Montgomery Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waterville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0420100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marshall Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glencoe Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hutchinson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brownton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0430400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lester Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0440000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0460100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fairmont Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0470100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Litchfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Milaca Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Princeton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0480300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isle Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Little Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0490500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Royalton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0500100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Austin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0510000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Mankato Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0520200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Peter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0530100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Worthington Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0540000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0550000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted County Sheriff</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0550100</x:t>
   </x:si>
   <x:si>
@@ -2030,9 +2030,6 @@
   </x:si>
   <x:si>
     <x:t>Woodbury Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
   </x:si>
   <x:si>
     <x:t>MN0821400</x:t>
@@ -8234,7 +8231,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="P83" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="Q83" s="0" t="s">
         <x:v>25</x:v>
@@ -8252,21 +8249,21 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V83" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
       <x:c r="A84" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
         <x:v>250</x:v>
-      </x:c>
-      <x:c r="B84" s="0" t="s">
-        <x:v>251</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>25</x:v>
@@ -8284,7 +8281,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="J84" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="K84" s="0" t="s">
         <x:v>25</x:v>
@@ -8296,13 +8293,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="O84" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="P84" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="Q84" s="0" t="s">
         <x:v>30</x:v>
@@ -8314,21 +8311,21 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="T84" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="U84" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="V84" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
       <x:c r="A85" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
         <x:v>258</x:v>
-      </x:c>
-      <x:c r="B85" s="0" t="s">
-        <x:v>259</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>94</x:v>
@@ -8388,15 +8385,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V85" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
       <x:c r="A86" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
         <x:v>261</x:v>
-      </x:c>
-      <x:c r="B86" s="0" t="s">
-        <x:v>262</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>30</x:v>
@@ -8456,15 +8453,15 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V86" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
       <x:c r="A87" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
         <x:v>264</x:v>
-      </x:c>
-      <x:c r="B87" s="0" t="s">
-        <x:v>265</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>25</x:v>
@@ -8529,10 +8526,10 @@
     </x:row>
     <x:row r="88" spans="1:22">
       <x:c r="A88" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
         <x:v>266</x:v>
-      </x:c>
-      <x:c r="B88" s="0" t="s">
-        <x:v>267</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>25</x:v>
@@ -8597,10 +8594,10 @@
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
         <x:v>268</x:v>
-      </x:c>
-      <x:c r="B89" s="0" t="s">
-        <x:v>269</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>24</x:v>
@@ -8660,15 +8657,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V89" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
         <x:v>271</x:v>
-      </x:c>
-      <x:c r="B90" s="0" t="s">
-        <x:v>272</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>25</x:v>
@@ -8733,10 +8730,10 @@
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
         <x:v>273</x:v>
-      </x:c>
-      <x:c r="B91" s="0" t="s">
-        <x:v>274</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>25</x:v>
@@ -8801,10 +8798,10 @@
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
         <x:v>275</x:v>
-      </x:c>
-      <x:c r="B92" s="0" t="s">
-        <x:v>276</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>26</x:v>
@@ -8869,16 +8866,16 @@
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
         <x:v>277</x:v>
       </x:c>
-      <x:c r="B93" s="0" t="s">
+      <x:c r="C93" s="0" t="s">
         <x:v>278</x:v>
       </x:c>
-      <x:c r="C93" s="0" t="s">
+      <x:c r="D93" s="0" t="s">
         <x:v>279</x:v>
-      </x:c>
-      <x:c r="D93" s="0" t="s">
-        <x:v>280</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>25</x:v>
@@ -8887,7 +8884,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="H93" s="0" t="s">
         <x:v>25</x:v>
@@ -8896,7 +8893,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="J93" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="K93" s="0" t="s">
         <x:v>25</x:v>
@@ -8908,7 +8905,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="N93" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="O93" s="0" t="s">
         <x:v>25</x:v>
@@ -8926,7 +8923,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="T93" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="U93" s="0" t="s">
         <x:v>283</x:v>
@@ -9408,7 +9405,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V100" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
@@ -9816,7 +9813,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="V106" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:22">
@@ -10020,7 +10017,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V109" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:22">
@@ -10321,7 +10318,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I114" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="J114" s="0" t="s">
         <x:v>335</x:v>
@@ -10354,21 +10351,21 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="T114" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="U114" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="V114" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
         <x:v>340</x:v>
-      </x:c>
-      <x:c r="B115" s="0" t="s">
-        <x:v>341</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10433,10 +10430,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
         <x:v>342</x:v>
-      </x:c>
-      <x:c r="B116" s="0" t="s">
-        <x:v>343</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10501,10 +10498,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
         <x:v>344</x:v>
-      </x:c>
-      <x:c r="B117" s="0" t="s">
-        <x:v>345</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10564,15 +10561,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V117" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
         <x:v>347</x:v>
-      </x:c>
-      <x:c r="B118" s="0" t="s">
-        <x:v>348</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>25</x:v>
@@ -10637,10 +10634,10 @@
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
         <x:v>349</x:v>
-      </x:c>
-      <x:c r="B119" s="0" t="s">
-        <x:v>350</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10705,10 +10702,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
         <x:v>351</x:v>
-      </x:c>
-      <x:c r="B120" s="0" t="s">
-        <x:v>352</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>26</x:v>
@@ -10773,10 +10770,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
         <x:v>353</x:v>
-      </x:c>
-      <x:c r="B121" s="0" t="s">
-        <x:v>354</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10841,10 +10838,10 @@
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
         <x:v>355</x:v>
-      </x:c>
-      <x:c r="B122" s="0" t="s">
-        <x:v>356</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -10909,10 +10906,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
         <x:v>357</x:v>
-      </x:c>
-      <x:c r="B123" s="0" t="s">
-        <x:v>358</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>25</x:v>
@@ -10977,10 +10974,10 @@
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
         <x:v>359</x:v>
-      </x:c>
-      <x:c r="B124" s="0" t="s">
-        <x:v>360</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -11045,10 +11042,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
         <x:v>361</x:v>
-      </x:c>
-      <x:c r="B125" s="0" t="s">
-        <x:v>362</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -11113,10 +11110,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
         <x:v>363</x:v>
-      </x:c>
-      <x:c r="B126" s="0" t="s">
-        <x:v>364</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -11181,10 +11178,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
         <x:v>365</x:v>
-      </x:c>
-      <x:c r="B127" s="0" t="s">
-        <x:v>366</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11249,10 +11246,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
         <x:v>367</x:v>
-      </x:c>
-      <x:c r="B128" s="0" t="s">
-        <x:v>368</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11312,15 +11309,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V128" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="B129" s="0" t="s">
         <x:v>370</x:v>
-      </x:c>
-      <x:c r="B129" s="0" t="s">
-        <x:v>371</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11380,15 +11377,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V129" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="B130" s="0" t="s">
         <x:v>373</x:v>
-      </x:c>
-      <x:c r="B130" s="0" t="s">
-        <x:v>374</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11430,7 +11427,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P130" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="Q130" s="0" t="s">
         <x:v>25</x:v>
@@ -11448,15 +11445,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V130" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="B131" s="0" t="s">
         <x:v>376</x:v>
-      </x:c>
-      <x:c r="B131" s="0" t="s">
-        <x:v>377</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11521,10 +11518,10 @@
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
         <x:v>378</x:v>
-      </x:c>
-      <x:c r="B132" s="0" t="s">
-        <x:v>379</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>25</x:v>
@@ -11589,10 +11586,10 @@
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
         <x:v>380</x:v>
-      </x:c>
-      <x:c r="B133" s="0" t="s">
-        <x:v>381</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11657,10 +11654,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
         <x:v>382</x:v>
-      </x:c>
-      <x:c r="B134" s="0" t="s">
-        <x:v>383</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>25</x:v>
@@ -11725,10 +11722,10 @@
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
         <x:v>384</x:v>
-      </x:c>
-      <x:c r="B135" s="0" t="s">
-        <x:v>385</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11793,10 +11790,10 @@
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
         <x:v>386</x:v>
-      </x:c>
-      <x:c r="B136" s="0" t="s">
-        <x:v>387</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -11856,15 +11853,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V136" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="B137" s="0" t="s">
         <x:v>388</x:v>
-      </x:c>
-      <x:c r="B137" s="0" t="s">
-        <x:v>389</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -11929,10 +11926,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="B138" s="0" t="s">
         <x:v>390</x:v>
-      </x:c>
-      <x:c r="B138" s="0" t="s">
-        <x:v>391</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -11997,10 +11994,10 @@
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
         <x:v>392</x:v>
-      </x:c>
-      <x:c r="B139" s="0" t="s">
-        <x:v>393</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -12065,10 +12062,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
         <x:v>394</x:v>
-      </x:c>
-      <x:c r="B140" s="0" t="s">
-        <x:v>395</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -12133,10 +12130,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
         <x:v>396</x:v>
-      </x:c>
-      <x:c r="B141" s="0" t="s">
-        <x:v>397</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12201,10 +12198,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
         <x:v>398</x:v>
-      </x:c>
-      <x:c r="B142" s="0" t="s">
-        <x:v>399</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12269,10 +12266,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
         <x:v>400</x:v>
-      </x:c>
-      <x:c r="B143" s="0" t="s">
-        <x:v>401</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12332,15 +12329,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V143" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
         <x:v>402</x:v>
-      </x:c>
-      <x:c r="B144" s="0" t="s">
-        <x:v>403</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12405,10 +12402,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
         <x:v>404</x:v>
-      </x:c>
-      <x:c r="B145" s="0" t="s">
-        <x:v>405</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12473,10 +12470,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
         <x:v>406</x:v>
-      </x:c>
-      <x:c r="B146" s="0" t="s">
-        <x:v>407</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12541,10 +12538,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
         <x:v>408</x:v>
-      </x:c>
-      <x:c r="B147" s="0" t="s">
-        <x:v>409</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12609,10 +12606,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
         <x:v>410</x:v>
-      </x:c>
-      <x:c r="B148" s="0" t="s">
-        <x:v>411</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12677,10 +12674,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
         <x:v>412</x:v>
-      </x:c>
-      <x:c r="B149" s="0" t="s">
-        <x:v>413</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12745,10 +12742,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="B150" s="0" t="s">
         <x:v>414</x:v>
-      </x:c>
-      <x:c r="B150" s="0" t="s">
-        <x:v>415</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>25</x:v>
@@ -12813,10 +12810,10 @@
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="B151" s="0" t="s">
         <x:v>416</x:v>
-      </x:c>
-      <x:c r="B151" s="0" t="s">
-        <x:v>417</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -12881,10 +12878,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="B152" s="0" t="s">
         <x:v>418</x:v>
-      </x:c>
-      <x:c r="B152" s="0" t="s">
-        <x:v>419</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -12949,10 +12946,10 @@
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="B153" s="0" t="s">
         <x:v>420</x:v>
-      </x:c>
-      <x:c r="B153" s="0" t="s">
-        <x:v>421</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -13012,15 +13009,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V153" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>421</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="B154" s="0" t="s">
         <x:v>423</x:v>
-      </x:c>
-      <x:c r="B154" s="0" t="s">
-        <x:v>424</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>25</x:v>
@@ -13085,10 +13082,10 @@
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="B155" s="0" t="s">
         <x:v>425</x:v>
-      </x:c>
-      <x:c r="B155" s="0" t="s">
-        <x:v>426</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>25</x:v>
@@ -13153,10 +13150,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="B156" s="0" t="s">
         <x:v>427</x:v>
-      </x:c>
-      <x:c r="B156" s="0" t="s">
-        <x:v>428</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13221,10 +13218,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="B157" s="0" t="s">
         <x:v>429</x:v>
-      </x:c>
-      <x:c r="B157" s="0" t="s">
-        <x:v>430</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>25</x:v>
@@ -13289,10 +13286,10 @@
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="B158" s="0" t="s">
         <x:v>431</x:v>
-      </x:c>
-      <x:c r="B158" s="0" t="s">
-        <x:v>432</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13357,10 +13354,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="B159" s="0" t="s">
         <x:v>433</x:v>
-      </x:c>
-      <x:c r="B159" s="0" t="s">
-        <x:v>434</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>25</x:v>
@@ -13425,10 +13422,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="B160" s="0" t="s">
         <x:v>435</x:v>
-      </x:c>
-      <x:c r="B160" s="0" t="s">
-        <x:v>436</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>25</x:v>
@@ -13493,10 +13490,10 @@
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="B161" s="0" t="s">
         <x:v>437</x:v>
-      </x:c>
-      <x:c r="B161" s="0" t="s">
-        <x:v>438</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13561,10 +13558,10 @@
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="B162" s="0" t="s">
         <x:v>439</x:v>
-      </x:c>
-      <x:c r="B162" s="0" t="s">
-        <x:v>440</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13624,15 +13621,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V162" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>440</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="B163" s="0" t="s">
         <x:v>442</x:v>
-      </x:c>
-      <x:c r="B163" s="0" t="s">
-        <x:v>443</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13697,10 +13694,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="B164" s="0" t="s">
         <x:v>444</x:v>
-      </x:c>
-      <x:c r="B164" s="0" t="s">
-        <x:v>445</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13765,10 +13762,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="B165" s="0" t="s">
         <x:v>446</x:v>
-      </x:c>
-      <x:c r="B165" s="0" t="s">
-        <x:v>447</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13833,10 +13830,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
+        <x:v>447</x:v>
+      </x:c>
+      <x:c r="B166" s="0" t="s">
         <x:v>448</x:v>
-      </x:c>
-      <x:c r="B166" s="0" t="s">
-        <x:v>449</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -13901,10 +13898,10 @@
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="B167" s="0" t="s">
         <x:v>450</x:v>
-      </x:c>
-      <x:c r="B167" s="0" t="s">
-        <x:v>451</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -13969,10 +13966,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="B168" s="0" t="s">
         <x:v>452</x:v>
-      </x:c>
-      <x:c r="B168" s="0" t="s">
-        <x:v>453</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>94</x:v>
@@ -14008,7 +14005,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N168" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="O168" s="0" t="s">
         <x:v>30</x:v>
@@ -14032,15 +14029,15 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V168" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>454</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
+        <x:v>455</x:v>
+      </x:c>
+      <x:c r="B169" s="0" t="s">
         <x:v>456</x:v>
-      </x:c>
-      <x:c r="B169" s="0" t="s">
-        <x:v>457</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -14105,10 +14102,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="B170" s="0" t="s">
         <x:v>458</x:v>
-      </x:c>
-      <x:c r="B170" s="0" t="s">
-        <x:v>459</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -14123,7 +14120,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G170" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="H170" s="0" t="s">
         <x:v>25</x:v>
@@ -14200,7 +14197,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J171" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="K171" s="0" t="s">
         <x:v>24</x:v>
@@ -14372,7 +14369,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V173" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:22">
@@ -14688,7 +14685,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N178" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="O178" s="0" t="s">
         <x:v>25</x:v>
@@ -15696,7 +15693,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="J193" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="K193" s="0" t="s">
         <x:v>25</x:v>
@@ -15714,7 +15711,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P193" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="Q193" s="0" t="s">
         <x:v>41</x:v>
@@ -15726,7 +15723,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T193" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="U193" s="0" t="s">
         <x:v>65</x:v>
@@ -16208,7 +16205,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V200" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
@@ -16616,7 +16613,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V206" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:22">
@@ -19472,7 +19469,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V248" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>440</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">
@@ -20764,7 +20761,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V267" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>440</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:22">
@@ -20832,15 +20829,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V268" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
         <x:v>673</x:v>
-      </x:c>
-      <x:c r="B269" s="0" t="s">
-        <x:v>674</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20905,10 +20902,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
         <x:v>675</x:v>
-      </x:c>
-      <x:c r="B270" s="0" t="s">
-        <x:v>676</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20973,10 +20970,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
         <x:v>677</x:v>
-      </x:c>
-      <x:c r="B271" s="0" t="s">
-        <x:v>678</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -21041,10 +21038,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
         <x:v>679</x:v>
-      </x:c>
-      <x:c r="B272" s="0" t="s">
-        <x:v>680</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -21109,10 +21106,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="B273" s="0" t="s">
         <x:v>681</x:v>
-      </x:c>
-      <x:c r="B273" s="0" t="s">
-        <x:v>682</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -21177,10 +21174,10 @@
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="B274" s="0" t="s">
         <x:v>683</x:v>
-      </x:c>
-      <x:c r="B274" s="0" t="s">
-        <x:v>684</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21245,10 +21242,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="B275" s="0" t="s">
         <x:v>685</x:v>
-      </x:c>
-      <x:c r="B275" s="0" t="s">
-        <x:v>686</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21308,15 +21305,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V275" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="B276" s="0" t="s">
         <x:v>687</x:v>
-      </x:c>
-      <x:c r="B276" s="0" t="s">
-        <x:v>688</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21381,10 +21378,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="B277" s="0" t="s">
         <x:v>689</x:v>
-      </x:c>
-      <x:c r="B277" s="0" t="s">
-        <x:v>690</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21399,7 +21396,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G277" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="H277" s="0" t="s">
         <x:v>25</x:v>
@@ -21420,7 +21417,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="N277" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="O277" s="0" t="s">
         <x:v>41</x:v>
@@ -21444,15 +21441,15 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="V277" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>692</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="B278" s="0" t="s">
         <x:v>694</x:v>
-      </x:c>
-      <x:c r="B278" s="0" t="s">
-        <x:v>695</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>
@@ -21517,10 +21514,10 @@
     </x:row>
     <x:row r="279" spans="1:22">
       <x:c r="A279" s="0" t="s">
+        <x:v>695</x:v>
+      </x:c>
+      <x:c r="B279" s="0" t="s">
         <x:v>696</x:v>
-      </x:c>
-      <x:c r="B279" s="0" t="s">
-        <x:v>697</x:v>
       </x:c>
       <x:c r="C279" s="0" t="s">
         <x:v>25</x:v>
@@ -21585,10 +21582,10 @@
     </x:row>
     <x:row r="280" spans="1:22">
       <x:c r="A280" s="0" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="B280" s="0" t="s">
         <x:v>698</x:v>
-      </x:c>
-      <x:c r="B280" s="0" t="s">
-        <x:v>699</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
         <x:v>25</x:v>
@@ -21653,10 +21650,10 @@
     </x:row>
     <x:row r="281" spans="1:22">
       <x:c r="A281" s="0" t="s">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="B281" s="0" t="s">
         <x:v>700</x:v>
-      </x:c>
-      <x:c r="B281" s="0" t="s">
-        <x:v>701</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
         <x:v>25</x:v>
@@ -21721,10 +21718,10 @@
     </x:row>
     <x:row r="282" spans="1:22">
       <x:c r="A282" s="0" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="B282" s="0" t="s">
         <x:v>702</x:v>
-      </x:c>
-      <x:c r="B282" s="0" t="s">
-        <x:v>703</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
         <x:v>25</x:v>
@@ -21789,10 +21786,10 @@
     </x:row>
     <x:row r="283" spans="1:22">
       <x:c r="A283" s="0" t="s">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="B283" s="0" t="s">
         <x:v>704</x:v>
-      </x:c>
-      <x:c r="B283" s="0" t="s">
-        <x:v>705</x:v>
       </x:c>
       <x:c r="C283" s="0" t="s">
         <x:v>25</x:v>
@@ -21857,10 +21854,10 @@
     </x:row>
     <x:row r="284" spans="1:22">
       <x:c r="A284" s="0" t="s">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c r="B284" s="0" t="s">
         <x:v>706</x:v>
-      </x:c>
-      <x:c r="B284" s="0" t="s">
-        <x:v>707</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
         <x:v>26</x:v>
@@ -21925,10 +21922,10 @@
     </x:row>
     <x:row r="285" spans="1:22">
       <x:c r="A285" s="0" t="s">
+        <x:v>707</x:v>
+      </x:c>
+      <x:c r="B285" s="0" t="s">
         <x:v>708</x:v>
-      </x:c>
-      <x:c r="B285" s="0" t="s">
-        <x:v>709</x:v>
       </x:c>
       <x:c r="C285" s="0" t="s">
         <x:v>25</x:v>
@@ -21993,10 +21990,10 @@
     </x:row>
     <x:row r="286" spans="1:22">
       <x:c r="A286" s="0" t="s">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c r="B286" s="0" t="s">
         <x:v>710</x:v>
-      </x:c>
-      <x:c r="B286" s="0" t="s">
-        <x:v>711</x:v>
       </x:c>
       <x:c r="C286" s="0" t="s">
         <x:v>24</x:v>
@@ -22032,7 +22029,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N286" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="O286" s="0" t="s">
         <x:v>25</x:v>
@@ -22056,15 +22053,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V286" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>711</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:22">
       <x:c r="A287" s="0" t="s">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c r="B287" s="0" t="s">
         <x:v>713</x:v>
-      </x:c>
-      <x:c r="B287" s="0" t="s">
-        <x:v>714</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
         <x:v>25</x:v>
@@ -22129,10 +22126,10 @@
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="B288" s="0" t="s">
         <x:v>715</x:v>
-      </x:c>
-      <x:c r="B288" s="0" t="s">
-        <x:v>716</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>25</x:v>
@@ -22197,10 +22194,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="B289" s="0" t="s">
         <x:v>717</x:v>
-      </x:c>
-      <x:c r="B289" s="0" t="s">
-        <x:v>718</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>25</x:v>
@@ -22265,10 +22262,10 @@
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="B290" s="0" t="s">
         <x:v>719</x:v>
-      </x:c>
-      <x:c r="B290" s="0" t="s">
-        <x:v>720</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>25</x:v>
@@ -22328,15 +22325,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V290" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c r="B291" s="0" t="s">
         <x:v>721</x:v>
-      </x:c>
-      <x:c r="B291" s="0" t="s">
-        <x:v>722</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>25</x:v>
@@ -22401,10 +22398,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="B292" s="0" t="s">
         <x:v>723</x:v>
-      </x:c>
-      <x:c r="B292" s="0" t="s">
-        <x:v>724</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>25</x:v>
@@ -22464,15 +22461,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V292" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>724</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c r="B293" s="0" t="s">
         <x:v>726</x:v>
-      </x:c>
-      <x:c r="B293" s="0" t="s">
-        <x:v>727</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>25</x:v>
@@ -22537,10 +22534,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c r="B294" s="0" t="s">
         <x:v>728</x:v>
-      </x:c>
-      <x:c r="B294" s="0" t="s">
-        <x:v>729</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>25</x:v>
@@ -22605,10 +22602,10 @@
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="B295" s="0" t="s">
         <x:v>730</x:v>
-      </x:c>
-      <x:c r="B295" s="0" t="s">
-        <x:v>731</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>25</x:v>
@@ -22673,10 +22670,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
+        <x:v>731</x:v>
+      </x:c>
+      <x:c r="B296" s="0" t="s">
         <x:v>732</x:v>
-      </x:c>
-      <x:c r="B296" s="0" t="s">
-        <x:v>733</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>25</x:v>
@@ -22741,10 +22738,10 @@
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
+        <x:v>733</x:v>
+      </x:c>
+      <x:c r="B297" s="0" t="s">
         <x:v>734</x:v>
-      </x:c>
-      <x:c r="B297" s="0" t="s">
-        <x:v>735</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -22809,10 +22806,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
+        <x:v>735</x:v>
+      </x:c>
+      <x:c r="B298" s="0" t="s">
         <x:v>736</x:v>
-      </x:c>
-      <x:c r="B298" s="0" t="s">
-        <x:v>737</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>25</x:v>
@@ -22877,10 +22874,10 @@
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
+        <x:v>737</x:v>
+      </x:c>
+      <x:c r="B299" s="0" t="s">
         <x:v>738</x:v>
-      </x:c>
-      <x:c r="B299" s="0" t="s">
-        <x:v>739</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>25</x:v>
@@ -22945,10 +22942,10 @@
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
+        <x:v>739</x:v>
+      </x:c>
+      <x:c r="B300" s="0" t="s">
         <x:v>740</x:v>
-      </x:c>
-      <x:c r="B300" s="0" t="s">
-        <x:v>741</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -343,322 +343,325 @@
     <x:t>48</x:t>
   </x:si>
   <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Ulm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cloquet Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chaska Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walker Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Branch Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wyoming Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakes Area Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dilworth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hawley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moorhead Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glyndon Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bagley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0160000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windom Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brainerd Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosby Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breezy Point Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosslake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baxter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nisswa Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burnsville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farmington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hastings Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mendota Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemount Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inver Grove Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakeville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas County Sheriff</x:t>
+  </x:si>
+  <x:si>
     <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brown County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Ulm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cloquet Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chaska Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Walker Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Branch Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wyoming Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakes Area Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dilworth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hawley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moorhead Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Glyndon Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bagley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0160000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windom Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brainerd Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosby Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breezy Point Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosslake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baxter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nisswa Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burnsville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farmington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hastings Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mendota Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rosemount Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inver Grove Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakeville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas County Sheriff</x:t>
   </x:si>
   <x:si>
     <x:t>MN0210100</x:t>
@@ -7297,15 +7300,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V69" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:22">
       <x:c r="A70" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>25</x:v>
@@ -7365,15 +7368,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V70" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
       <x:c r="A71" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>25</x:v>
@@ -7438,10 +7441,10 @@
     </x:row>
     <x:row r="72" spans="1:22">
       <x:c r="A72" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>25</x:v>
@@ -7506,10 +7509,10 @@
     </x:row>
     <x:row r="73" spans="1:22">
       <x:c r="A73" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>25</x:v>
@@ -7574,10 +7577,10 @@
     </x:row>
     <x:row r="74" spans="1:22">
       <x:c r="A74" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>25</x:v>
@@ -7642,10 +7645,10 @@
     </x:row>
     <x:row r="75" spans="1:22">
       <x:c r="A75" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>25</x:v>
@@ -7710,10 +7713,10 @@
     </x:row>
     <x:row r="76" spans="1:22">
       <x:c r="A76" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>25</x:v>
@@ -7728,7 +7731,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
         <x:v>25</x:v>
@@ -7749,7 +7752,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
         <x:v>25</x:v>
@@ -7773,15 +7776,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V76" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:22">
       <x:c r="A77" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>25</x:v>
@@ -7846,10 +7849,10 @@
     </x:row>
     <x:row r="78" spans="1:22">
       <x:c r="A78" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>25</x:v>
@@ -7914,10 +7917,10 @@
     </x:row>
     <x:row r="79" spans="1:22">
       <x:c r="A79" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>25</x:v>
@@ -7932,7 +7935,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="H79" s="0" t="s">
         <x:v>25</x:v>
@@ -7977,15 +7980,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V79" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:22">
       <x:c r="A80" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>25</x:v>
@@ -8050,10 +8053,10 @@
     </x:row>
     <x:row r="81" spans="1:22">
       <x:c r="A81" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>25</x:v>
@@ -8118,10 +8121,10 @@
     </x:row>
     <x:row r="82" spans="1:22">
       <x:c r="A82" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>25</x:v>
@@ -8186,10 +8189,10 @@
     </x:row>
     <x:row r="83" spans="1:22">
       <x:c r="A83" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>24</x:v>
@@ -8249,27 +8252,27 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V83" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:22">
       <x:c r="A84" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
         <x:v>96</x:v>
@@ -8281,7 +8284,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="J84" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="K84" s="0" t="s">
         <x:v>25</x:v>
@@ -8293,13 +8296,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="O84" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="P84" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="Q84" s="0" t="s">
         <x:v>30</x:v>
@@ -8311,21 +8314,21 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="T84" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="U84" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="V84" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
       <x:c r="A85" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>94</x:v>
@@ -8385,15 +8388,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V85" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
       <x:c r="A86" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>30</x:v>
@@ -8453,15 +8456,15 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V86" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
       <x:c r="A87" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>25</x:v>
@@ -8526,10 +8529,10 @@
     </x:row>
     <x:row r="88" spans="1:22">
       <x:c r="A88" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>25</x:v>
@@ -8594,10 +8597,10 @@
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>24</x:v>
@@ -8657,15 +8660,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V89" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>25</x:v>
@@ -8730,10 +8733,10 @@
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>25</x:v>
@@ -8798,10 +8801,10 @@
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>26</x:v>
@@ -8866,16 +8869,16 @@
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>25</x:v>
@@ -8884,7 +8887,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="H93" s="0" t="s">
         <x:v>25</x:v>
@@ -8893,7 +8896,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="J93" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="K93" s="0" t="s">
         <x:v>25</x:v>
@@ -8905,7 +8908,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="N93" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="O93" s="0" t="s">
         <x:v>25</x:v>
@@ -8923,21 +8926,21 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="T93" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="U93" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="V93" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>25</x:v>
@@ -9002,10 +9005,10 @@
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>26</x:v>
@@ -9065,15 +9068,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V95" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
       <x:c r="A96" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>25</x:v>
@@ -9138,10 +9141,10 @@
     </x:row>
     <x:row r="97" spans="1:22">
       <x:c r="A97" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>25</x:v>
@@ -9206,10 +9209,10 @@
     </x:row>
     <x:row r="98" spans="1:22">
       <x:c r="A98" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>25</x:v>
@@ -9269,15 +9272,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V98" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="A99" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>41</x:v>
@@ -9337,15 +9340,15 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="V99" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="A100" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>94</x:v>
@@ -9405,15 +9408,15 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V100" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
       <x:c r="A101" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>25</x:v>
@@ -9478,10 +9481,10 @@
     </x:row>
     <x:row r="102" spans="1:22">
       <x:c r="A102" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>58</x:v>
@@ -9541,15 +9544,15 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="V102" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
       <x:c r="A103" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>25</x:v>
@@ -9614,10 +9617,10 @@
     </x:row>
     <x:row r="104" spans="1:22">
       <x:c r="A104" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>25</x:v>
@@ -9682,10 +9685,10 @@
     </x:row>
     <x:row r="105" spans="1:22">
       <x:c r="A105" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>24</x:v>
@@ -9700,7 +9703,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G105" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="H105" s="0" t="s">
         <x:v>25</x:v>
@@ -9709,7 +9712,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J105" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="K105" s="0" t="s">
         <x:v>26</x:v>
@@ -9745,15 +9748,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V105" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:22">
       <x:c r="A106" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>25</x:v>
@@ -9813,15 +9816,15 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="V106" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:22">
       <x:c r="A107" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>28</x:v>
@@ -9881,15 +9884,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V107" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:22">
       <x:c r="A108" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>26</x:v>
@@ -9954,10 +9957,10 @@
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>25</x:v>
@@ -10017,15 +10020,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V109" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>25</x:v>
@@ -10090,10 +10093,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>25</x:v>
@@ -10158,10 +10161,10 @@
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>25</x:v>
@@ -10226,10 +10229,10 @@
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>25</x:v>
@@ -10294,10 +10297,10 @@
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>31</x:v>
@@ -10318,10 +10321,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I114" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="J114" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="K114" s="0" t="s">
         <x:v>25</x:v>
@@ -10333,13 +10336,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N114" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="O114" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="P114" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="Q114" s="0" t="s">
         <x:v>24</x:v>
@@ -10357,15 +10360,15 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="V114" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10430,10 +10433,10 @@
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>25</x:v>
@@ -10498,10 +10501,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>25</x:v>
@@ -10561,15 +10564,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V117" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>25</x:v>
@@ -10634,10 +10637,10 @@
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>25</x:v>
@@ -10702,10 +10705,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>26</x:v>
@@ -10770,10 +10773,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -10838,10 +10841,10 @@
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>25</x:v>
@@ -10906,10 +10909,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>25</x:v>
@@ -10974,10 +10977,10 @@
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>25</x:v>
@@ -11042,10 +11045,10 @@
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>25</x:v>
@@ -11110,10 +11113,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>25</x:v>
@@ -11178,10 +11181,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>25</x:v>
@@ -11246,10 +11249,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>25</x:v>
@@ -11309,15 +11312,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V128" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:22">
       <x:c r="A129" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
         <x:v>25</x:v>
@@ -11377,15 +11380,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V129" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:22">
       <x:c r="A130" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
         <x:v>25</x:v>
@@ -11409,7 +11412,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J130" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="K130" s="0" t="s">
         <x:v>26</x:v>
@@ -11427,7 +11430,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P130" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="Q130" s="0" t="s">
         <x:v>25</x:v>
@@ -11445,15 +11448,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V130" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:22">
       <x:c r="A131" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="C131" s="0" t="s">
         <x:v>25</x:v>
@@ -11518,10 +11521,10 @@
     </x:row>
     <x:row r="132" spans="1:22">
       <x:c r="A132" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C132" s="0" t="s">
         <x:v>25</x:v>
@@ -11581,15 +11584,15 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V132" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
       <x:c r="A133" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="C133" s="0" t="s">
         <x:v>25</x:v>
@@ -11654,10 +11657,10 @@
     </x:row>
     <x:row r="134" spans="1:22">
       <x:c r="A134" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C134" s="0" t="s">
         <x:v>25</x:v>
@@ -11722,10 +11725,10 @@
     </x:row>
     <x:row r="135" spans="1:22">
       <x:c r="A135" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C135" s="0" t="s">
         <x:v>25</x:v>
@@ -11790,10 +11793,10 @@
     </x:row>
     <x:row r="136" spans="1:22">
       <x:c r="A136" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C136" s="0" t="s">
         <x:v>25</x:v>
@@ -11853,15 +11856,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V136" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:22">
       <x:c r="A137" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C137" s="0" t="s">
         <x:v>25</x:v>
@@ -11926,10 +11929,10 @@
     </x:row>
     <x:row r="138" spans="1:22">
       <x:c r="A138" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C138" s="0" t="s">
         <x:v>25</x:v>
@@ -11994,10 +11997,10 @@
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>25</x:v>
@@ -12062,10 +12065,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>25</x:v>
@@ -12130,10 +12133,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>25</x:v>
@@ -12198,10 +12201,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>25</x:v>
@@ -12266,10 +12269,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>25</x:v>
@@ -12329,15 +12332,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V143" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>25</x:v>
@@ -12402,10 +12405,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>25</x:v>
@@ -12470,10 +12473,10 @@
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>25</x:v>
@@ -12538,10 +12541,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>25</x:v>
@@ -12606,10 +12609,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>25</x:v>
@@ -12674,10 +12677,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>25</x:v>
@@ -12742,10 +12745,10 @@
     </x:row>
     <x:row r="150" spans="1:22">
       <x:c r="A150" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="C150" s="0" t="s">
         <x:v>25</x:v>
@@ -12810,10 +12813,10 @@
     </x:row>
     <x:row r="151" spans="1:22">
       <x:c r="A151" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="C151" s="0" t="s">
         <x:v>25</x:v>
@@ -12878,10 +12881,10 @@
     </x:row>
     <x:row r="152" spans="1:22">
       <x:c r="A152" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="C152" s="0" t="s">
         <x:v>25</x:v>
@@ -12941,15 +12944,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V152" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:22">
       <x:c r="A153" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C153" s="0" t="s">
         <x:v>25</x:v>
@@ -13009,15 +13012,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V153" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:22">
       <x:c r="A154" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="C154" s="0" t="s">
         <x:v>25</x:v>
@@ -13082,10 +13085,10 @@
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>25</x:v>
@@ -13150,10 +13153,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>25</x:v>
@@ -13218,10 +13221,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>25</x:v>
@@ -13286,10 +13289,10 @@
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>25</x:v>
@@ -13349,15 +13352,15 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="V158" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>25</x:v>
@@ -13422,10 +13425,10 @@
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>25</x:v>
@@ -13490,10 +13493,10 @@
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>25</x:v>
@@ -13558,10 +13561,10 @@
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>25</x:v>
@@ -13621,15 +13624,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V162" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>25</x:v>
@@ -13694,10 +13697,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>25</x:v>
@@ -13762,10 +13765,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>25</x:v>
@@ -13830,10 +13833,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>25</x:v>
@@ -13898,10 +13901,10 @@
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>25</x:v>
@@ -13966,10 +13969,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>94</x:v>
@@ -14005,7 +14008,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="N168" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="O168" s="0" t="s">
         <x:v>30</x:v>
@@ -14029,15 +14032,15 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="V168" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>25</x:v>
@@ -14102,10 +14105,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>25</x:v>
@@ -14120,7 +14123,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G170" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="H170" s="0" t="s">
         <x:v>25</x:v>
@@ -14170,10 +14173,10 @@
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>27</x:v>
@@ -14188,7 +14191,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G171" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="H171" s="0" t="s">
         <x:v>25</x:v>
@@ -14197,7 +14200,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J171" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="K171" s="0" t="s">
         <x:v>24</x:v>
@@ -14215,7 +14218,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="P171" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="Q171" s="0" t="s">
         <x:v>94</x:v>
@@ -14233,15 +14236,15 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="V171" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
       <x:c r="A172" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B172" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="C172" s="0" t="s">
         <x:v>25</x:v>
@@ -14301,15 +14304,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V172" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:22">
       <x:c r="A173" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B173" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="C173" s="0" t="s">
         <x:v>25</x:v>
@@ -14369,15 +14372,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V173" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:22">
       <x:c r="A174" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="B174" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="C174" s="0" t="s">
         <x:v>25</x:v>
@@ -14442,10 +14445,10 @@
     </x:row>
     <x:row r="175" spans="1:22">
       <x:c r="A175" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="B175" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="C175" s="0" t="s">
         <x:v>25</x:v>
@@ -14510,10 +14513,10 @@
     </x:row>
     <x:row r="176" spans="1:22">
       <x:c r="A176" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="B176" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="C176" s="0" t="s">
         <x:v>25</x:v>
@@ -14578,10 +14581,10 @@
     </x:row>
     <x:row r="177" spans="1:22">
       <x:c r="A177" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="B177" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="C177" s="0" t="s">
         <x:v>25</x:v>
@@ -14646,10 +14649,10 @@
     </x:row>
     <x:row r="178" spans="1:22">
       <x:c r="A178" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B178" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="C178" s="0" t="s">
         <x:v>26</x:v>
@@ -14685,7 +14688,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N178" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="O178" s="0" t="s">
         <x:v>25</x:v>
@@ -14709,15 +14712,15 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V178" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">
       <x:c r="A179" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="B179" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="C179" s="0" t="s">
         <x:v>25</x:v>
@@ -14782,10 +14785,10 @@
     </x:row>
     <x:row r="180" spans="1:22">
       <x:c r="A180" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="B180" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="C180" s="0" t="s">
         <x:v>25</x:v>
@@ -14850,10 +14853,10 @@
     </x:row>
     <x:row r="181" spans="1:22">
       <x:c r="A181" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="B181" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="C181" s="0" t="s">
         <x:v>25</x:v>
@@ -14913,15 +14916,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V181" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
       <x:c r="A182" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="B182" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="C182" s="0" t="s">
         <x:v>25</x:v>
@@ -14981,15 +14984,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V182" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="B183" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -15054,10 +15057,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="B184" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -15122,10 +15125,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="B185" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15190,10 +15193,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="B186" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15258,10 +15261,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="B187" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>28</x:v>
@@ -15321,15 +15324,15 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="V187" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="B188" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>41</x:v>
@@ -15389,15 +15392,15 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="V188" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="B189" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>24</x:v>
@@ -15462,10 +15465,10 @@
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="B190" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15530,10 +15533,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="B191" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>26</x:v>
@@ -15598,10 +15601,10 @@
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="B192" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>24</x:v>
@@ -15637,7 +15640,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N192" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="O192" s="0" t="s">
         <x:v>25</x:v>
@@ -15666,10 +15669,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="B193" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>129</x:v>
@@ -15681,10 +15684,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F193" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="G193" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="H193" s="0" t="s">
         <x:v>25</x:v>
@@ -15693,7 +15696,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="J193" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="K193" s="0" t="s">
         <x:v>25</x:v>
@@ -15711,7 +15714,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="P193" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="Q193" s="0" t="s">
         <x:v>41</x:v>
@@ -15723,21 +15726,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T193" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="U193" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="V193" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="B194" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>26</x:v>
@@ -15802,10 +15805,10 @@
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="B195" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>25</x:v>
@@ -15870,10 +15873,10 @@
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="B196" s="0" t="s">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -15938,10 +15941,10 @@
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="B197" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>25</x:v>
@@ -16006,10 +16009,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="B198" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -16074,10 +16077,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="B199" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>25</x:v>
@@ -16142,10 +16145,10 @@
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="B200" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>25</x:v>
@@ -16181,7 +16184,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N200" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="O200" s="0" t="s">
         <x:v>26</x:v>
@@ -16205,15 +16208,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V200" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="B201" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16278,10 +16281,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="B202" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16346,10 +16349,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="B203" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16414,10 +16417,10 @@
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="B204" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16482,10 +16485,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="B205" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16550,10 +16553,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="B206" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16613,15 +16616,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V206" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="B207" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16686,10 +16689,10 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="B208" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>25</x:v>
@@ -16754,10 +16757,10 @@
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="B209" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>26</x:v>
@@ -16793,7 +16796,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N209" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="O209" s="0" t="s">
         <x:v>25</x:v>
@@ -16817,15 +16820,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V209" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>548</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="B210" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>25</x:v>
@@ -16890,10 +16893,10 @@
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="B211" s="0" t="s">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>25</x:v>
@@ -16958,10 +16961,10 @@
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="B212" s="0" t="s">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -17026,10 +17029,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="B213" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -17094,10 +17097,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="B214" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -17162,10 +17165,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="B215" s="0" t="s">
-        <x:v>559</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17230,10 +17233,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
-        <x:v>560</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="B216" s="0" t="s">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17298,10 +17301,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="B217" s="0" t="s">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17366,10 +17369,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
-        <x:v>564</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="B218" s="0" t="s">
-        <x:v>565</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17434,10 +17437,10 @@
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="B219" s="0" t="s">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17502,10 +17505,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
-        <x:v>568</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="B220" s="0" t="s">
-        <x:v>569</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17570,10 +17573,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>25</x:v>
@@ -17633,15 +17636,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>572</x:v>
+        <x:v>573</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17701,15 +17704,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V222" s="0" t="s">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>26</x:v>
@@ -17769,15 +17772,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V223" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>579</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -17842,10 +17845,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
-        <x:v>581</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -17905,15 +17908,15 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="V225" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -17978,10 +17981,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -18017,7 +18020,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N227" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="O227" s="0" t="s">
         <x:v>25</x:v>
@@ -18041,15 +18044,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V227" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>26</x:v>
@@ -18114,10 +18117,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -18182,10 +18185,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18250,10 +18253,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18318,10 +18321,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18386,10 +18389,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18449,15 +18452,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V233" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18522,10 +18525,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>25</x:v>
@@ -18590,10 +18593,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>29</x:v>
@@ -18608,7 +18611,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G236" s="0" t="s">
-        <x:v>578</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="H236" s="0" t="s">
         <x:v>25</x:v>
@@ -18617,7 +18620,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="J236" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="K236" s="0" t="s">
         <x:v>25</x:v>
@@ -18635,7 +18638,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="P236" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="Q236" s="0" t="s">
         <x:v>49</x:v>
@@ -18653,15 +18656,15 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="V236" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>607</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18726,10 +18729,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>25</x:v>
@@ -18794,10 +18797,10 @@
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -18862,10 +18865,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -18930,10 +18933,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>25</x:v>
@@ -18998,10 +19001,10 @@
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>25</x:v>
@@ -19066,10 +19069,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>25</x:v>
@@ -19134,10 +19137,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -19202,10 +19205,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>25</x:v>
@@ -19270,10 +19273,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19338,10 +19341,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>25</x:v>
@@ -19406,10 +19409,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>30</x:v>
@@ -19469,15 +19472,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V248" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>25</x:v>
@@ -19542,10 +19545,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19610,10 +19613,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19678,10 +19681,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19746,10 +19749,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19814,10 +19817,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -19882,10 +19885,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -19950,10 +19953,10 @@
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>25</x:v>
@@ -20018,10 +20021,10 @@
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -20086,10 +20089,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -20154,10 +20157,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20222,10 +20225,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20290,10 +20293,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20353,15 +20356,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V261" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>25</x:v>
@@ -20426,10 +20429,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20494,10 +20497,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20562,10 +20565,10 @@
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20630,10 +20633,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>24</x:v>
@@ -20698,10 +20701,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20761,15 +20764,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V267" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>30</x:v>
@@ -20829,15 +20832,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V268" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20902,10 +20905,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20965,15 +20968,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V270" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -21038,10 +21041,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -21106,10 +21109,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -21174,10 +21177,10 @@
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21242,10 +21245,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21305,15 +21308,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V275" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21378,10 +21381,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21396,7 +21399,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G277" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="H277" s="0" t="s">
         <x:v>25</x:v>
@@ -21417,7 +21420,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="N277" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="O277" s="0" t="s">
         <x:v>41</x:v>
@@ -21441,15 +21444,15 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="V277" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>693</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>
@@ -21514,10 +21517,10 @@
     </x:row>
     <x:row r="279" spans="1:22">
       <x:c r="A279" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="B279" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="C279" s="0" t="s">
         <x:v>25</x:v>
@@ -21582,10 +21585,10 @@
     </x:row>
     <x:row r="280" spans="1:22">
       <x:c r="A280" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="B280" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
         <x:v>25</x:v>
@@ -21650,10 +21653,10 @@
     </x:row>
     <x:row r="281" spans="1:22">
       <x:c r="A281" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="B281" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
         <x:v>25</x:v>
@@ -21718,10 +21721,10 @@
     </x:row>
     <x:row r="282" spans="1:22">
       <x:c r="A282" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="B282" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
         <x:v>25</x:v>
@@ -21786,10 +21789,10 @@
     </x:row>
     <x:row r="283" spans="1:22">
       <x:c r="A283" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B283" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="C283" s="0" t="s">
         <x:v>25</x:v>
@@ -21854,10 +21857,10 @@
     </x:row>
     <x:row r="284" spans="1:22">
       <x:c r="A284" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="B284" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
         <x:v>26</x:v>
@@ -21922,10 +21925,10 @@
     </x:row>
     <x:row r="285" spans="1:22">
       <x:c r="A285" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="B285" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="C285" s="0" t="s">
         <x:v>25</x:v>
@@ -21990,10 +21993,10 @@
     </x:row>
     <x:row r="286" spans="1:22">
       <x:c r="A286" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="B286" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="C286" s="0" t="s">
         <x:v>24</x:v>
@@ -22029,7 +22032,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N286" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="O286" s="0" t="s">
         <x:v>25</x:v>
@@ -22053,15 +22056,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V286" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:22">
       <x:c r="A287" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="B287" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
         <x:v>25</x:v>
@@ -22126,10 +22129,10 @@
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="B288" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>25</x:v>
@@ -22194,10 +22197,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="B289" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>25</x:v>
@@ -22262,10 +22265,10 @@
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="B290" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>25</x:v>
@@ -22301,7 +22304,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N290" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="O290" s="0" t="s">
         <x:v>25</x:v>
@@ -22325,15 +22328,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V290" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="B291" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>25</x:v>
@@ -22398,10 +22401,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="B292" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>25</x:v>
@@ -22461,15 +22464,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V292" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="B293" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>25</x:v>
@@ -22534,10 +22537,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="B294" s="0" t="s">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>25</x:v>
@@ -22602,10 +22605,10 @@
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="B295" s="0" t="s">
-        <x:v>730</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>25</x:v>
@@ -22670,10 +22673,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="B296" s="0" t="s">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>25</x:v>
@@ -22738,10 +22741,10 @@
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="B297" s="0" t="s">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -22806,10 +22809,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
-        <x:v>735</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="B298" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>25</x:v>
@@ -22874,10 +22877,10 @@
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="B299" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>25</x:v>
@@ -22942,10 +22945,10 @@
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="B300" s="0" t="s">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -226,7 +226,7 @@
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>81</x:t>
+    <x:t>80</x:t>
   </x:si>
   <x:si>
     <x:t>MN0020700</x:t>
@@ -1478,9 +1478,6 @@
   </x:si>
   <x:si>
     <x:t>East Grand Forks Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
   </x:si>
   <x:si>
     <x:t>MN0600300</x:t>
@@ -3350,7 +3347,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="T11" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="U11" s="0" t="s">
         <x:v>41</x:v>
@@ -4272,7 +4269,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K25" s="0" t="s">
         <x:v>25</x:v>
@@ -4308,7 +4305,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V25" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:22">
@@ -14984,15 +14981,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V182" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:22">
       <x:c r="A183" s="0" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="B183" s="0" t="s">
         <x:v>489</x:v>
-      </x:c>
-      <x:c r="B183" s="0" t="s">
-        <x:v>490</x:v>
       </x:c>
       <x:c r="C183" s="0" t="s">
         <x:v>25</x:v>
@@ -15057,10 +15054,10 @@
     </x:row>
     <x:row r="184" spans="1:22">
       <x:c r="A184" s="0" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="B184" s="0" t="s">
         <x:v>491</x:v>
-      </x:c>
-      <x:c r="B184" s="0" t="s">
-        <x:v>492</x:v>
       </x:c>
       <x:c r="C184" s="0" t="s">
         <x:v>25</x:v>
@@ -15125,10 +15122,10 @@
     </x:row>
     <x:row r="185" spans="1:22">
       <x:c r="A185" s="0" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="B185" s="0" t="s">
         <x:v>493</x:v>
-      </x:c>
-      <x:c r="B185" s="0" t="s">
-        <x:v>494</x:v>
       </x:c>
       <x:c r="C185" s="0" t="s">
         <x:v>25</x:v>
@@ -15193,10 +15190,10 @@
     </x:row>
     <x:row r="186" spans="1:22">
       <x:c r="A186" s="0" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="B186" s="0" t="s">
         <x:v>495</x:v>
-      </x:c>
-      <x:c r="B186" s="0" t="s">
-        <x:v>496</x:v>
       </x:c>
       <x:c r="C186" s="0" t="s">
         <x:v>25</x:v>
@@ -15261,10 +15258,10 @@
     </x:row>
     <x:row r="187" spans="1:22">
       <x:c r="A187" s="0" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="B187" s="0" t="s">
         <x:v>497</x:v>
-      </x:c>
-      <x:c r="B187" s="0" t="s">
-        <x:v>498</x:v>
       </x:c>
       <x:c r="C187" s="0" t="s">
         <x:v>28</x:v>
@@ -15318,21 +15315,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="T187" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="U187" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="V187" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>498</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:22">
       <x:c r="A188" s="0" t="s">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="B188" s="0" t="s">
         <x:v>500</x:v>
-      </x:c>
-      <x:c r="B188" s="0" t="s">
-        <x:v>501</x:v>
       </x:c>
       <x:c r="C188" s="0" t="s">
         <x:v>41</x:v>
@@ -15392,15 +15389,15 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="V188" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>501</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:22">
       <x:c r="A189" s="0" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="B189" s="0" t="s">
         <x:v>503</x:v>
-      </x:c>
-      <x:c r="B189" s="0" t="s">
-        <x:v>504</x:v>
       </x:c>
       <x:c r="C189" s="0" t="s">
         <x:v>24</x:v>
@@ -15465,10 +15462,10 @@
     </x:row>
     <x:row r="190" spans="1:22">
       <x:c r="A190" s="0" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="B190" s="0" t="s">
         <x:v>505</x:v>
-      </x:c>
-      <x:c r="B190" s="0" t="s">
-        <x:v>506</x:v>
       </x:c>
       <x:c r="C190" s="0" t="s">
         <x:v>25</x:v>
@@ -15533,10 +15530,10 @@
     </x:row>
     <x:row r="191" spans="1:22">
       <x:c r="A191" s="0" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="B191" s="0" t="s">
         <x:v>507</x:v>
-      </x:c>
-      <x:c r="B191" s="0" t="s">
-        <x:v>508</x:v>
       </x:c>
       <x:c r="C191" s="0" t="s">
         <x:v>26</x:v>
@@ -15601,10 +15598,10 @@
     </x:row>
     <x:row r="192" spans="1:22">
       <x:c r="A192" s="0" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="B192" s="0" t="s">
         <x:v>509</x:v>
-      </x:c>
-      <x:c r="B192" s="0" t="s">
-        <x:v>510</x:v>
       </x:c>
       <x:c r="C192" s="0" t="s">
         <x:v>24</x:v>
@@ -15669,10 +15666,10 @@
     </x:row>
     <x:row r="193" spans="1:22">
       <x:c r="A193" s="0" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="B193" s="0" t="s">
         <x:v>511</x:v>
-      </x:c>
-      <x:c r="B193" s="0" t="s">
-        <x:v>512</x:v>
       </x:c>
       <x:c r="C193" s="0" t="s">
         <x:v>129</x:v>
@@ -15687,7 +15684,7 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="G193" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="H193" s="0" t="s">
         <x:v>25</x:v>
@@ -15732,15 +15729,15 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="V193" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>513</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:22">
       <x:c r="A194" s="0" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="B194" s="0" t="s">
         <x:v>515</x:v>
-      </x:c>
-      <x:c r="B194" s="0" t="s">
-        <x:v>516</x:v>
       </x:c>
       <x:c r="C194" s="0" t="s">
         <x:v>26</x:v>
@@ -15805,10 +15802,10 @@
     </x:row>
     <x:row r="195" spans="1:22">
       <x:c r="A195" s="0" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="B195" s="0" t="s">
         <x:v>517</x:v>
-      </x:c>
-      <x:c r="B195" s="0" t="s">
-        <x:v>518</x:v>
       </x:c>
       <x:c r="C195" s="0" t="s">
         <x:v>25</x:v>
@@ -15873,10 +15870,10 @@
     </x:row>
     <x:row r="196" spans="1:22">
       <x:c r="A196" s="0" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="B196" s="0" t="s">
         <x:v>519</x:v>
-      </x:c>
-      <x:c r="B196" s="0" t="s">
-        <x:v>520</x:v>
       </x:c>
       <x:c r="C196" s="0" t="s">
         <x:v>25</x:v>
@@ -15941,10 +15938,10 @@
     </x:row>
     <x:row r="197" spans="1:22">
       <x:c r="A197" s="0" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="B197" s="0" t="s">
         <x:v>521</x:v>
-      </x:c>
-      <x:c r="B197" s="0" t="s">
-        <x:v>522</x:v>
       </x:c>
       <x:c r="C197" s="0" t="s">
         <x:v>25</x:v>
@@ -16009,10 +16006,10 @@
     </x:row>
     <x:row r="198" spans="1:22">
       <x:c r="A198" s="0" t="s">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c r="B198" s="0" t="s">
         <x:v>523</x:v>
-      </x:c>
-      <x:c r="B198" s="0" t="s">
-        <x:v>524</x:v>
       </x:c>
       <x:c r="C198" s="0" t="s">
         <x:v>25</x:v>
@@ -16077,10 +16074,10 @@
     </x:row>
     <x:row r="199" spans="1:22">
       <x:c r="A199" s="0" t="s">
+        <x:v>524</x:v>
+      </x:c>
+      <x:c r="B199" s="0" t="s">
         <x:v>525</x:v>
-      </x:c>
-      <x:c r="B199" s="0" t="s">
-        <x:v>526</x:v>
       </x:c>
       <x:c r="C199" s="0" t="s">
         <x:v>25</x:v>
@@ -16145,10 +16142,10 @@
     </x:row>
     <x:row r="200" spans="1:22">
       <x:c r="A200" s="0" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="B200" s="0" t="s">
         <x:v>527</x:v>
-      </x:c>
-      <x:c r="B200" s="0" t="s">
-        <x:v>528</x:v>
       </x:c>
       <x:c r="C200" s="0" t="s">
         <x:v>25</x:v>
@@ -16213,10 +16210,10 @@
     </x:row>
     <x:row r="201" spans="1:22">
       <x:c r="A201" s="0" t="s">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="B201" s="0" t="s">
         <x:v>529</x:v>
-      </x:c>
-      <x:c r="B201" s="0" t="s">
-        <x:v>530</x:v>
       </x:c>
       <x:c r="C201" s="0" t="s">
         <x:v>25</x:v>
@@ -16281,10 +16278,10 @@
     </x:row>
     <x:row r="202" spans="1:22">
       <x:c r="A202" s="0" t="s">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="B202" s="0" t="s">
         <x:v>531</x:v>
-      </x:c>
-      <x:c r="B202" s="0" t="s">
-        <x:v>532</x:v>
       </x:c>
       <x:c r="C202" s="0" t="s">
         <x:v>25</x:v>
@@ -16349,10 +16346,10 @@
     </x:row>
     <x:row r="203" spans="1:22">
       <x:c r="A203" s="0" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="B203" s="0" t="s">
         <x:v>533</x:v>
-      </x:c>
-      <x:c r="B203" s="0" t="s">
-        <x:v>534</x:v>
       </x:c>
       <x:c r="C203" s="0" t="s">
         <x:v>25</x:v>
@@ -16417,10 +16414,10 @@
     </x:row>
     <x:row r="204" spans="1:22">
       <x:c r="A204" s="0" t="s">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c r="B204" s="0" t="s">
         <x:v>535</x:v>
-      </x:c>
-      <x:c r="B204" s="0" t="s">
-        <x:v>536</x:v>
       </x:c>
       <x:c r="C204" s="0" t="s">
         <x:v>25</x:v>
@@ -16485,10 +16482,10 @@
     </x:row>
     <x:row r="205" spans="1:22">
       <x:c r="A205" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="B205" s="0" t="s">
         <x:v>537</x:v>
-      </x:c>
-      <x:c r="B205" s="0" t="s">
-        <x:v>538</x:v>
       </x:c>
       <x:c r="C205" s="0" t="s">
         <x:v>25</x:v>
@@ -16553,10 +16550,10 @@
     </x:row>
     <x:row r="206" spans="1:22">
       <x:c r="A206" s="0" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="B206" s="0" t="s">
         <x:v>539</x:v>
-      </x:c>
-      <x:c r="B206" s="0" t="s">
-        <x:v>540</x:v>
       </x:c>
       <x:c r="C206" s="0" t="s">
         <x:v>25</x:v>
@@ -16621,10 +16618,10 @@
     </x:row>
     <x:row r="207" spans="1:22">
       <x:c r="A207" s="0" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="B207" s="0" t="s">
         <x:v>541</x:v>
-      </x:c>
-      <x:c r="B207" s="0" t="s">
-        <x:v>542</x:v>
       </x:c>
       <x:c r="C207" s="0" t="s">
         <x:v>25</x:v>
@@ -16689,10 +16686,10 @@
     </x:row>
     <x:row r="208" spans="1:22">
       <x:c r="A208" s="0" t="s">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="B208" s="0" t="s">
         <x:v>543</x:v>
-      </x:c>
-      <x:c r="B208" s="0" t="s">
-        <x:v>544</x:v>
       </x:c>
       <x:c r="C208" s="0" t="s">
         <x:v>25</x:v>
@@ -16757,10 +16754,10 @@
     </x:row>
     <x:row r="209" spans="1:22">
       <x:c r="A209" s="0" t="s">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c r="B209" s="0" t="s">
         <x:v>545</x:v>
-      </x:c>
-      <x:c r="B209" s="0" t="s">
-        <x:v>546</x:v>
       </x:c>
       <x:c r="C209" s="0" t="s">
         <x:v>26</x:v>
@@ -16796,7 +16793,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="N209" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="O209" s="0" t="s">
         <x:v>25</x:v>
@@ -16820,15 +16817,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V209" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>547</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:22">
       <x:c r="A210" s="0" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="B210" s="0" t="s">
         <x:v>549</x:v>
-      </x:c>
-      <x:c r="B210" s="0" t="s">
-        <x:v>550</x:v>
       </x:c>
       <x:c r="C210" s="0" t="s">
         <x:v>25</x:v>
@@ -16893,10 +16890,10 @@
     </x:row>
     <x:row r="211" spans="1:22">
       <x:c r="A211" s="0" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="B211" s="0" t="s">
         <x:v>551</x:v>
-      </x:c>
-      <x:c r="B211" s="0" t="s">
-        <x:v>552</x:v>
       </x:c>
       <x:c r="C211" s="0" t="s">
         <x:v>25</x:v>
@@ -16961,10 +16958,10 @@
     </x:row>
     <x:row r="212" spans="1:22">
       <x:c r="A212" s="0" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="B212" s="0" t="s">
         <x:v>553</x:v>
-      </x:c>
-      <x:c r="B212" s="0" t="s">
-        <x:v>554</x:v>
       </x:c>
       <x:c r="C212" s="0" t="s">
         <x:v>25</x:v>
@@ -17029,10 +17026,10 @@
     </x:row>
     <x:row r="213" spans="1:22">
       <x:c r="A213" s="0" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="B213" s="0" t="s">
         <x:v>555</x:v>
-      </x:c>
-      <x:c r="B213" s="0" t="s">
-        <x:v>556</x:v>
       </x:c>
       <x:c r="C213" s="0" t="s">
         <x:v>25</x:v>
@@ -17097,10 +17094,10 @@
     </x:row>
     <x:row r="214" spans="1:22">
       <x:c r="A214" s="0" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="B214" s="0" t="s">
         <x:v>557</x:v>
-      </x:c>
-      <x:c r="B214" s="0" t="s">
-        <x:v>558</x:v>
       </x:c>
       <x:c r="C214" s="0" t="s">
         <x:v>25</x:v>
@@ -17165,10 +17162,10 @@
     </x:row>
     <x:row r="215" spans="1:22">
       <x:c r="A215" s="0" t="s">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="B215" s="0" t="s">
         <x:v>559</x:v>
-      </x:c>
-      <x:c r="B215" s="0" t="s">
-        <x:v>560</x:v>
       </x:c>
       <x:c r="C215" s="0" t="s">
         <x:v>25</x:v>
@@ -17233,10 +17230,10 @@
     </x:row>
     <x:row r="216" spans="1:22">
       <x:c r="A216" s="0" t="s">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="B216" s="0" t="s">
         <x:v>561</x:v>
-      </x:c>
-      <x:c r="B216" s="0" t="s">
-        <x:v>562</x:v>
       </x:c>
       <x:c r="C216" s="0" t="s">
         <x:v>25</x:v>
@@ -17301,10 +17298,10 @@
     </x:row>
     <x:row r="217" spans="1:22">
       <x:c r="A217" s="0" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="B217" s="0" t="s">
         <x:v>563</x:v>
-      </x:c>
-      <x:c r="B217" s="0" t="s">
-        <x:v>564</x:v>
       </x:c>
       <x:c r="C217" s="0" t="s">
         <x:v>25</x:v>
@@ -17369,10 +17366,10 @@
     </x:row>
     <x:row r="218" spans="1:22">
       <x:c r="A218" s="0" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="B218" s="0" t="s">
         <x:v>565</x:v>
-      </x:c>
-      <x:c r="B218" s="0" t="s">
-        <x:v>566</x:v>
       </x:c>
       <x:c r="C218" s="0" t="s">
         <x:v>25</x:v>
@@ -17437,10 +17434,10 @@
     </x:row>
     <x:row r="219" spans="1:22">
       <x:c r="A219" s="0" t="s">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c r="B219" s="0" t="s">
         <x:v>567</x:v>
-      </x:c>
-      <x:c r="B219" s="0" t="s">
-        <x:v>568</x:v>
       </x:c>
       <x:c r="C219" s="0" t="s">
         <x:v>25</x:v>
@@ -17505,10 +17502,10 @@
     </x:row>
     <x:row r="220" spans="1:22">
       <x:c r="A220" s="0" t="s">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="B220" s="0" t="s">
         <x:v>569</x:v>
-      </x:c>
-      <x:c r="B220" s="0" t="s">
-        <x:v>570</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
         <x:v>25</x:v>
@@ -17573,10 +17570,10 @@
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
         <x:v>571</x:v>
-      </x:c>
-      <x:c r="B221" s="0" t="s">
-        <x:v>572</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>25</x:v>
@@ -17636,15 +17633,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>573</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
+        <x:v>573</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
         <x:v>574</x:v>
-      </x:c>
-      <x:c r="B222" s="0" t="s">
-        <x:v>575</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>25</x:v>
@@ -17704,15 +17701,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V222" s="0" t="s">
-        <x:v>576</x:v>
+        <x:v>575</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
         <x:v>577</x:v>
-      </x:c>
-      <x:c r="B223" s="0" t="s">
-        <x:v>578</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>26</x:v>
@@ -17772,15 +17769,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="V223" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>578</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
         <x:v>580</x:v>
-      </x:c>
-      <x:c r="B224" s="0" t="s">
-        <x:v>581</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>25</x:v>
@@ -17845,10 +17842,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
+        <x:v>581</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
         <x:v>582</x:v>
-      </x:c>
-      <x:c r="B225" s="0" t="s">
-        <x:v>583</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>25</x:v>
@@ -17913,10 +17910,10 @@
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
         <x:v>584</x:v>
-      </x:c>
-      <x:c r="B226" s="0" t="s">
-        <x:v>585</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>25</x:v>
@@ -17981,10 +17978,10 @@
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
         <x:v>586</x:v>
-      </x:c>
-      <x:c r="B227" s="0" t="s">
-        <x:v>587</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>25</x:v>
@@ -18049,10 +18046,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
+        <x:v>587</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
         <x:v>588</x:v>
-      </x:c>
-      <x:c r="B228" s="0" t="s">
-        <x:v>589</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>26</x:v>
@@ -18117,10 +18114,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
+        <x:v>589</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
         <x:v>590</x:v>
-      </x:c>
-      <x:c r="B229" s="0" t="s">
-        <x:v>591</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>25</x:v>
@@ -18185,10 +18182,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
         <x:v>592</x:v>
-      </x:c>
-      <x:c r="B230" s="0" t="s">
-        <x:v>593</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>25</x:v>
@@ -18253,10 +18250,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
         <x:v>594</x:v>
-      </x:c>
-      <x:c r="B231" s="0" t="s">
-        <x:v>595</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>25</x:v>
@@ -18321,10 +18318,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
+        <x:v>595</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
         <x:v>596</x:v>
-      </x:c>
-      <x:c r="B232" s="0" t="s">
-        <x:v>597</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>25</x:v>
@@ -18389,10 +18386,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
         <x:v>598</x:v>
-      </x:c>
-      <x:c r="B233" s="0" t="s">
-        <x:v>599</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>25</x:v>
@@ -18457,10 +18454,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
         <x:v>600</x:v>
-      </x:c>
-      <x:c r="B234" s="0" t="s">
-        <x:v>601</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>25</x:v>
@@ -18525,10 +18522,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
         <x:v>602</x:v>
-      </x:c>
-      <x:c r="B235" s="0" t="s">
-        <x:v>603</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>25</x:v>
@@ -18593,10 +18590,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
         <x:v>604</x:v>
-      </x:c>
-      <x:c r="B236" s="0" t="s">
-        <x:v>605</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>29</x:v>
@@ -18611,7 +18608,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G236" s="0" t="s">
-        <x:v>579</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="H236" s="0" t="s">
         <x:v>25</x:v>
@@ -18638,7 +18635,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="P236" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="Q236" s="0" t="s">
         <x:v>49</x:v>
@@ -18656,15 +18653,15 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="V236" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>606</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
         <x:v>608</x:v>
-      </x:c>
-      <x:c r="B237" s="0" t="s">
-        <x:v>609</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>25</x:v>
@@ -18729,10 +18726,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
         <x:v>610</x:v>
-      </x:c>
-      <x:c r="B238" s="0" t="s">
-        <x:v>611</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>25</x:v>
@@ -18797,10 +18794,10 @@
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
         <x:v>612</x:v>
-      </x:c>
-      <x:c r="B239" s="0" t="s">
-        <x:v>613</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>25</x:v>
@@ -18865,10 +18862,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="B240" s="0" t="s">
         <x:v>614</x:v>
-      </x:c>
-      <x:c r="B240" s="0" t="s">
-        <x:v>615</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>25</x:v>
@@ -18933,10 +18930,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="B241" s="0" t="s">
         <x:v>616</x:v>
-      </x:c>
-      <x:c r="B241" s="0" t="s">
-        <x:v>617</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>25</x:v>
@@ -19001,10 +18998,10 @@
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
+        <x:v>617</x:v>
+      </x:c>
+      <x:c r="B242" s="0" t="s">
         <x:v>618</x:v>
-      </x:c>
-      <x:c r="B242" s="0" t="s">
-        <x:v>619</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>25</x:v>
@@ -19069,10 +19066,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c r="B243" s="0" t="s">
         <x:v>620</x:v>
-      </x:c>
-      <x:c r="B243" s="0" t="s">
-        <x:v>621</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>25</x:v>
@@ -19137,10 +19134,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="B244" s="0" t="s">
         <x:v>622</x:v>
-      </x:c>
-      <x:c r="B244" s="0" t="s">
-        <x:v>623</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>25</x:v>
@@ -19205,10 +19202,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="B245" s="0" t="s">
         <x:v>624</x:v>
-      </x:c>
-      <x:c r="B245" s="0" t="s">
-        <x:v>625</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>25</x:v>
@@ -19273,10 +19270,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="B246" s="0" t="s">
         <x:v>626</x:v>
-      </x:c>
-      <x:c r="B246" s="0" t="s">
-        <x:v>627</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>25</x:v>
@@ -19341,10 +19338,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
+        <x:v>627</x:v>
+      </x:c>
+      <x:c r="B247" s="0" t="s">
         <x:v>628</x:v>
-      </x:c>
-      <x:c r="B247" s="0" t="s">
-        <x:v>629</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>25</x:v>
@@ -19409,10 +19406,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="B248" s="0" t="s">
         <x:v>630</x:v>
-      </x:c>
-      <x:c r="B248" s="0" t="s">
-        <x:v>631</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>30</x:v>
@@ -19477,10 +19474,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="B249" s="0" t="s">
         <x:v>632</x:v>
-      </x:c>
-      <x:c r="B249" s="0" t="s">
-        <x:v>633</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>25</x:v>
@@ -19545,10 +19542,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="B250" s="0" t="s">
         <x:v>634</x:v>
-      </x:c>
-      <x:c r="B250" s="0" t="s">
-        <x:v>635</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19613,10 +19610,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="s">
         <x:v>636</x:v>
-      </x:c>
-      <x:c r="B251" s="0" t="s">
-        <x:v>637</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>25</x:v>
@@ -19681,10 +19678,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
         <x:v>638</x:v>
-      </x:c>
-      <x:c r="B252" s="0" t="s">
-        <x:v>639</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>25</x:v>
@@ -19749,10 +19746,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
+        <x:v>639</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
         <x:v>640</x:v>
-      </x:c>
-      <x:c r="B253" s="0" t="s">
-        <x:v>641</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>25</x:v>
@@ -19817,10 +19814,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
+        <x:v>641</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
         <x:v>642</x:v>
-      </x:c>
-      <x:c r="B254" s="0" t="s">
-        <x:v>643</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>25</x:v>
@@ -19885,10 +19882,10 @@
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
         <x:v>644</x:v>
-      </x:c>
-      <x:c r="B255" s="0" t="s">
-        <x:v>645</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>25</x:v>
@@ -19953,10 +19950,10 @@
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
         <x:v>646</x:v>
-      </x:c>
-      <x:c r="B256" s="0" t="s">
-        <x:v>647</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>25</x:v>
@@ -20021,10 +20018,10 @@
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
+        <x:v>647</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
         <x:v>648</x:v>
-      </x:c>
-      <x:c r="B257" s="0" t="s">
-        <x:v>649</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>25</x:v>
@@ -20089,10 +20086,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
+        <x:v>649</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
         <x:v>650</x:v>
-      </x:c>
-      <x:c r="B258" s="0" t="s">
-        <x:v>651</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>25</x:v>
@@ -20157,10 +20154,10 @@
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
         <x:v>652</x:v>
-      </x:c>
-      <x:c r="B259" s="0" t="s">
-        <x:v>653</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>25</x:v>
@@ -20225,10 +20222,10 @@
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
         <x:v>654</x:v>
-      </x:c>
-      <x:c r="B260" s="0" t="s">
-        <x:v>655</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>25</x:v>
@@ -20293,10 +20290,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c r="B261" s="0" t="s">
         <x:v>656</x:v>
-      </x:c>
-      <x:c r="B261" s="0" t="s">
-        <x:v>657</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>25</x:v>
@@ -20356,15 +20353,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V261" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>657</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
         <x:v>659</x:v>
-      </x:c>
-      <x:c r="B262" s="0" t="s">
-        <x:v>660</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>25</x:v>
@@ -20429,10 +20426,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
         <x:v>661</x:v>
-      </x:c>
-      <x:c r="B263" s="0" t="s">
-        <x:v>662</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>25</x:v>
@@ -20497,10 +20494,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
+        <x:v>662</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
         <x:v>663</x:v>
-      </x:c>
-      <x:c r="B264" s="0" t="s">
-        <x:v>664</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>25</x:v>
@@ -20565,10 +20562,10 @@
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
+        <x:v>664</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
         <x:v>665</x:v>
-      </x:c>
-      <x:c r="B265" s="0" t="s">
-        <x:v>666</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>25</x:v>
@@ -20633,10 +20630,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
+        <x:v>666</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
         <x:v>667</x:v>
-      </x:c>
-      <x:c r="B266" s="0" t="s">
-        <x:v>668</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>24</x:v>
@@ -20701,10 +20698,10 @@
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
         <x:v>669</x:v>
-      </x:c>
-      <x:c r="B267" s="0" t="s">
-        <x:v>670</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>25</x:v>
@@ -20769,10 +20766,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c r="B268" s="0" t="s">
         <x:v>671</x:v>
-      </x:c>
-      <x:c r="B268" s="0" t="s">
-        <x:v>672</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>30</x:v>
@@ -20837,10 +20834,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="B269" s="0" t="s">
         <x:v>673</x:v>
-      </x:c>
-      <x:c r="B269" s="0" t="s">
-        <x:v>674</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>25</x:v>
@@ -20905,10 +20902,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="B270" s="0" t="s">
         <x:v>675</x:v>
-      </x:c>
-      <x:c r="B270" s="0" t="s">
-        <x:v>676</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>25</x:v>
@@ -20973,10 +20970,10 @@
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="B271" s="0" t="s">
         <x:v>677</x:v>
-      </x:c>
-      <x:c r="B271" s="0" t="s">
-        <x:v>678</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>25</x:v>
@@ -21041,10 +21038,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="B272" s="0" t="s">
         <x:v>679</x:v>
-      </x:c>
-      <x:c r="B272" s="0" t="s">
-        <x:v>680</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>25</x:v>
@@ -21109,10 +21106,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="B273" s="0" t="s">
         <x:v>681</x:v>
-      </x:c>
-      <x:c r="B273" s="0" t="s">
-        <x:v>682</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>25</x:v>
@@ -21177,10 +21174,10 @@
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="B274" s="0" t="s">
         <x:v>683</x:v>
-      </x:c>
-      <x:c r="B274" s="0" t="s">
-        <x:v>684</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>25</x:v>
@@ -21245,10 +21242,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="B275" s="0" t="s">
         <x:v>685</x:v>
-      </x:c>
-      <x:c r="B275" s="0" t="s">
-        <x:v>686</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>25</x:v>
@@ -21313,10 +21310,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="B276" s="0" t="s">
         <x:v>687</x:v>
-      </x:c>
-      <x:c r="B276" s="0" t="s">
-        <x:v>688</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>25</x:v>
@@ -21381,10 +21378,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="B277" s="0" t="s">
         <x:v>689</x:v>
-      </x:c>
-      <x:c r="B277" s="0" t="s">
-        <x:v>690</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21399,7 +21396,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="G277" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="H277" s="0" t="s">
         <x:v>25</x:v>
@@ -21420,7 +21417,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="N277" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="O277" s="0" t="s">
         <x:v>41</x:v>
@@ -21444,15 +21441,15 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="V277" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>692</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="B278" s="0" t="s">
         <x:v>694</x:v>
-      </x:c>
-      <x:c r="B278" s="0" t="s">
-        <x:v>695</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>25</x:v>
@@ -21517,10 +21514,10 @@
     </x:row>
     <x:row r="279" spans="1:22">
       <x:c r="A279" s="0" t="s">
+        <x:v>695</x:v>
+      </x:c>
+      <x:c r="B279" s="0" t="s">
         <x:v>696</x:v>
-      </x:c>
-      <x:c r="B279" s="0" t="s">
-        <x:v>697</x:v>
       </x:c>
       <x:c r="C279" s="0" t="s">
         <x:v>25</x:v>
@@ -21585,10 +21582,10 @@
     </x:row>
     <x:row r="280" spans="1:22">
       <x:c r="A280" s="0" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="B280" s="0" t="s">
         <x:v>698</x:v>
-      </x:c>
-      <x:c r="B280" s="0" t="s">
-        <x:v>699</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
         <x:v>25</x:v>
@@ -21653,10 +21650,10 @@
     </x:row>
     <x:row r="281" spans="1:22">
       <x:c r="A281" s="0" t="s">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="B281" s="0" t="s">
         <x:v>700</x:v>
-      </x:c>
-      <x:c r="B281" s="0" t="s">
-        <x:v>701</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
         <x:v>25</x:v>
@@ -21721,10 +21718,10 @@
     </x:row>
     <x:row r="282" spans="1:22">
       <x:c r="A282" s="0" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="B282" s="0" t="s">
         <x:v>702</x:v>
-      </x:c>
-      <x:c r="B282" s="0" t="s">
-        <x:v>703</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
         <x:v>25</x:v>
@@ -21789,10 +21786,10 @@
     </x:row>
     <x:row r="283" spans="1:22">
       <x:c r="A283" s="0" t="s">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="B283" s="0" t="s">
         <x:v>704</x:v>
-      </x:c>
-      <x:c r="B283" s="0" t="s">
-        <x:v>705</x:v>
       </x:c>
       <x:c r="C283" s="0" t="s">
         <x:v>25</x:v>
@@ -21857,10 +21854,10 @@
     </x:row>
     <x:row r="284" spans="1:22">
       <x:c r="A284" s="0" t="s">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c r="B284" s="0" t="s">
         <x:v>706</x:v>
-      </x:c>
-      <x:c r="B284" s="0" t="s">
-        <x:v>707</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
         <x:v>26</x:v>
@@ -21925,10 +21922,10 @@
     </x:row>
     <x:row r="285" spans="1:22">
       <x:c r="A285" s="0" t="s">
+        <x:v>707</x:v>
+      </x:c>
+      <x:c r="B285" s="0" t="s">
         <x:v>708</x:v>
-      </x:c>
-      <x:c r="B285" s="0" t="s">
-        <x:v>709</x:v>
       </x:c>
       <x:c r="C285" s="0" t="s">
         <x:v>25</x:v>
@@ -21993,10 +21990,10 @@
     </x:row>
     <x:row r="286" spans="1:22">
       <x:c r="A286" s="0" t="s">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c r="B286" s="0" t="s">
         <x:v>710</x:v>
-      </x:c>
-      <x:c r="B286" s="0" t="s">
-        <x:v>711</x:v>
       </x:c>
       <x:c r="C286" s="0" t="s">
         <x:v>24</x:v>
@@ -22056,15 +22053,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V286" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>711</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:22">
       <x:c r="A287" s="0" t="s">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c r="B287" s="0" t="s">
         <x:v>713</x:v>
-      </x:c>
-      <x:c r="B287" s="0" t="s">
-        <x:v>714</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
         <x:v>25</x:v>
@@ -22129,10 +22126,10 @@
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="B288" s="0" t="s">
         <x:v>715</x:v>
-      </x:c>
-      <x:c r="B288" s="0" t="s">
-        <x:v>716</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>25</x:v>
@@ -22197,10 +22194,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="B289" s="0" t="s">
         <x:v>717</x:v>
-      </x:c>
-      <x:c r="B289" s="0" t="s">
-        <x:v>718</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>25</x:v>
@@ -22265,10 +22262,10 @@
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="B290" s="0" t="s">
         <x:v>719</x:v>
-      </x:c>
-      <x:c r="B290" s="0" t="s">
-        <x:v>720</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>25</x:v>
@@ -22333,10 +22330,10 @@
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c r="B291" s="0" t="s">
         <x:v>721</x:v>
-      </x:c>
-      <x:c r="B291" s="0" t="s">
-        <x:v>722</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>25</x:v>
@@ -22401,10 +22398,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="B292" s="0" t="s">
         <x:v>723</x:v>
-      </x:c>
-      <x:c r="B292" s="0" t="s">
-        <x:v>724</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>25</x:v>
@@ -22464,15 +22461,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V292" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>724</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c r="B293" s="0" t="s">
         <x:v>726</x:v>
-      </x:c>
-      <x:c r="B293" s="0" t="s">
-        <x:v>727</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>25</x:v>
@@ -22537,10 +22534,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c r="B294" s="0" t="s">
         <x:v>728</x:v>
-      </x:c>
-      <x:c r="B294" s="0" t="s">
-        <x:v>729</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>25</x:v>
@@ -22605,10 +22602,10 @@
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="B295" s="0" t="s">
         <x:v>730</x:v>
-      </x:c>
-      <x:c r="B295" s="0" t="s">
-        <x:v>731</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>25</x:v>
@@ -22673,10 +22670,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
+        <x:v>731</x:v>
+      </x:c>
+      <x:c r="B296" s="0" t="s">
         <x:v>732</x:v>
-      </x:c>
-      <x:c r="B296" s="0" t="s">
-        <x:v>733</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>25</x:v>
@@ -22741,10 +22738,10 @@
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
+        <x:v>733</x:v>
+      </x:c>
+      <x:c r="B297" s="0" t="s">
         <x:v>734</x:v>
-      </x:c>
-      <x:c r="B297" s="0" t="s">
-        <x:v>735</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -22809,10 +22806,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
+        <x:v>735</x:v>
+      </x:c>
+      <x:c r="B298" s="0" t="s">
         <x:v>736</x:v>
-      </x:c>
-      <x:c r="B298" s="0" t="s">
-        <x:v>737</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>25</x:v>
@@ -22877,10 +22874,10 @@
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
+        <x:v>737</x:v>
+      </x:c>
+      <x:c r="B299" s="0" t="s">
         <x:v>738</x:v>
-      </x:c>
-      <x:c r="B299" s="0" t="s">
-        <x:v>739</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>25</x:v>
@@ -22945,10 +22942,10 @@
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
+        <x:v>739</x:v>
+      </x:c>
+      <x:c r="B300" s="0" t="s">
         <x:v>740</x:v>
-      </x:c>
-      <x:c r="B300" s="0" t="s">
-        <x:v>741</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>25</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2023.xlsx
@@ -763,7 +763,7 @@
     <x:t>Hennepin County Sheriff</x:t>
   </x:si>
   <x:si>
-    <x:t>136</x:t>
+    <x:t>137</x:t>
   </x:si>
   <x:si>
     <x:t>MN0270100</x:t>
@@ -8213,7 +8213,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J83" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="K83" s="0" t="s">
         <x:v>25</x:v>
@@ -10129,7 +10129,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N111" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="O111" s="0" t="s">
         <x:v>25</x:v>
@@ -10153,7 +10153,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V111" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:22">
